--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -419,13 +419,13 @@
     <t>“Being kind is never wasted.” – Unknown</t>
   </si>
   <si>
-    <t>Reflect on 5 things you learned this First Quarter of school!</t>
+    <t>Give someone a high-five when they do something great!</t>
   </si>
   <si>
     <t>“No one is perfect—that’s why pencils have erasers.” –Wolfgang Riebe</t>
   </si>
   <si>
-    <t>Give someone a high-five when they do something great!</t>
+    <t>Reflect on 5 things you learned this First Quarter of school!</t>
   </si>
   <si>
     <t>“A man is a product of his thoughts. What he thinks he becomes.” –Mahatma Gandhi</t>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>Share a dream using Dr. Martin Luther King, Jr.’s words “I have a dream…”</t>
+  </si>
+  <si>
+    <t>WINTER BREAK</t>
   </si>
   <si>
     <t>“Where there is love, there is life.” –Mahatma Gandhi</t>
@@ -615,13 +618,18 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Calibri"/>
     </font>
     <font>
@@ -631,9 +639,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -679,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -704,26 +709,26 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -761,6 +766,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -1274,7 +1282,7 @@
       <c r="A7" s="7">
         <v>44440.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="6"/>
@@ -2197,7 +2205,7 @@
       <c r="C29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="6"/>
@@ -2319,7 +2327,7 @@
       <c r="A32" s="3">
         <v>44475.0</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2576,10 +2584,10 @@
       <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2620,10 +2628,10 @@
       <c r="B39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -3151,7 +3159,7 @@
       <c r="A52" s="3">
         <v>44503.0</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="6"/>
@@ -3619,7 +3627,7 @@
       <c r="C63" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E63" s="6"/>
@@ -4193,7 +4201,7 @@
       <c r="A77" s="3">
         <v>44538.0</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -4284,7 +4292,7 @@
       <c r="B79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="6"/>
@@ -4407,7 +4415,7 @@
       <c r="A82" s="3">
         <v>44545.0</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C82" s="6"/>
@@ -5592,7 +5600,7 @@
       <c r="B110" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D110" s="6"/>
@@ -6702,17 +6710,17 @@
       <c r="AE136" s="6"/>
       <c r="AF136" s="6"/>
       <c r="AG136" s="6"/>
-      <c r="AH136" s="13"/>
-      <c r="AI136" s="13"/>
-      <c r="AJ136" s="13"/>
+      <c r="AH136" s="14"/>
+      <c r="AI136" s="14"/>
+      <c r="AJ136" s="14"/>
     </row>
     <row r="137">
       <c r="A137" s="3">
         <v>44257.0</v>
       </c>
       <c r="B137" s="5"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -6741,10 +6749,10 @@
       <c r="AD137" s="6"/>
       <c r="AE137" s="6"/>
       <c r="AF137" s="6"/>
-      <c r="AG137" s="13"/>
-      <c r="AH137" s="13"/>
-      <c r="AI137" s="13"/>
-      <c r="AJ137" s="13"/>
+      <c r="AG137" s="14"/>
+      <c r="AH137" s="14"/>
+      <c r="AI137" s="14"/>
+      <c r="AJ137" s="14"/>
     </row>
     <row r="138">
       <c r="A138" s="3">
@@ -6753,7 +6761,7 @@
       <c r="B138" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E138" s="4"/>
@@ -6796,10 +6804,10 @@
       <c r="B139" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F139" s="6"/>
@@ -7639,7 +7647,7 @@
       <c r="B159" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="4"/>
@@ -8181,7 +8189,7 @@
         <v>44306.0</v>
       </c>
       <c r="B172" s="4"/>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D172" s="6"/>
@@ -8590,11 +8598,11 @@
       <c r="AC181" s="6"/>
       <c r="AD181" s="6"/>
       <c r="AE181" s="6"/>
-      <c r="AF181" s="13"/>
-      <c r="AG181" s="13"/>
-      <c r="AH181" s="13"/>
-      <c r="AI181" s="13"/>
-      <c r="AJ181" s="13"/>
+      <c r="AF181" s="14"/>
+      <c r="AG181" s="14"/>
+      <c r="AH181" s="14"/>
+      <c r="AI181" s="14"/>
+      <c r="AJ181" s="14"/>
     </row>
     <row r="182">
       <c r="A182" s="3">
@@ -8634,11 +8642,11 @@
       <c r="AC182" s="6"/>
       <c r="AD182" s="6"/>
       <c r="AE182" s="6"/>
-      <c r="AF182" s="13"/>
-      <c r="AG182" s="13"/>
-      <c r="AH182" s="13"/>
-      <c r="AI182" s="13"/>
-      <c r="AJ182" s="13"/>
+      <c r="AF182" s="14"/>
+      <c r="AG182" s="14"/>
+      <c r="AH182" s="14"/>
+      <c r="AI182" s="14"/>
+      <c r="AJ182" s="14"/>
     </row>
     <row r="183">
       <c r="A183" s="3">
@@ -8682,9 +8690,9 @@
       <c r="AE183" s="6"/>
       <c r="AF183" s="6"/>
       <c r="AG183" s="6"/>
-      <c r="AH183" s="13"/>
-      <c r="AI183" s="13"/>
-      <c r="AJ183" s="13"/>
+      <c r="AH183" s="14"/>
+      <c r="AI183" s="14"/>
+      <c r="AJ183" s="14"/>
     </row>
     <row r="184">
       <c r="A184" s="3">
@@ -8726,11 +8734,11 @@
       <c r="AC184" s="6"/>
       <c r="AD184" s="6"/>
       <c r="AE184" s="6"/>
-      <c r="AF184" s="13"/>
-      <c r="AG184" s="13"/>
-      <c r="AH184" s="13"/>
-      <c r="AI184" s="13"/>
-      <c r="AJ184" s="13"/>
+      <c r="AF184" s="14"/>
+      <c r="AG184" s="14"/>
+      <c r="AH184" s="14"/>
+      <c r="AI184" s="14"/>
+      <c r="AJ184" s="14"/>
     </row>
     <row r="185">
       <c r="A185" s="3">
@@ -9547,16 +9555,16 @@
       <c r="AD204" s="6"/>
       <c r="AE204" s="6"/>
       <c r="AF204" s="6"/>
-      <c r="AG204" s="13"/>
-      <c r="AH204" s="13"/>
-      <c r="AI204" s="13"/>
-      <c r="AJ204" s="13"/>
+      <c r="AG204" s="14"/>
+      <c r="AH204" s="14"/>
+      <c r="AI204" s="14"/>
+      <c r="AJ204" s="14"/>
     </row>
     <row r="205">
       <c r="A205" s="3">
         <v>44353.0</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C205" s="6"/>
@@ -40136,10 +40144,9 @@
         <v>125</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -40169,7 +40176,7 @@
         <v>127</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="23" t="s">
         <v>128</v>
       </c>
       <c r="D11" s="21"/>
@@ -40433,7 +40440,7 @@
         <v>143</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="21"/>
@@ -40462,12 +40469,12 @@
       <c r="AA19" s="21"/>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
-        <v>146</v>
+      <c r="C20" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -40495,12 +40502,12 @@
       <c r="AA20" s="21"/>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
-        <v>147</v>
+      <c r="A21" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="25" t="s">
-        <v>148</v>
+      <c r="C21" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -40528,12 +40535,12 @@
       <c r="AA21" s="21"/>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
-        <v>149</v>
+      <c r="A22" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="26" t="s">
-        <v>150</v>
+      <c r="C22" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -40561,12 +40568,12 @@
       <c r="AA22" s="21"/>
     </row>
     <row r="23">
-      <c r="A23" s="22" t="s">
-        <v>151</v>
+      <c r="A23" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
-        <v>152</v>
+      <c r="C23" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -40594,12 +40601,12 @@
       <c r="AA23" s="21"/>
     </row>
     <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>153</v>
+      <c r="A24" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
-        <v>154</v>
+      <c r="C24" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -40627,12 +40634,12 @@
       <c r="AA24" s="21"/>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="s">
-        <v>155</v>
+      <c r="A25" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
-        <v>156</v>
+      <c r="C25" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -40660,12 +40667,12 @@
       <c r="AA25" s="21"/>
     </row>
     <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>157</v>
+      <c r="A26" s="28" t="s">
+        <v>154</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="25" t="s">
-        <v>158</v>
+      <c r="C26" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -40693,12 +40700,12 @@
       <c r="AA26" s="21"/>
     </row>
     <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>159</v>
+      <c r="A27" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="B27" s="23"/>
-      <c r="C27" s="27" t="s">
-        <v>160</v>
+      <c r="C27" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -40726,12 +40733,12 @@
       <c r="AA27" s="21"/>
     </row>
     <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>161</v>
+      <c r="A28" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="B28" s="23"/>
-      <c r="C28" s="23" t="s">
-        <v>162</v>
+      <c r="C28" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -40759,12 +40766,12 @@
       <c r="AA28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="22" t="s">
-        <v>163</v>
+      <c r="A29" s="28" t="s">
+        <v>160</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="25" t="s">
-        <v>164</v>
+      <c r="C29" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -40792,12 +40799,12 @@
       <c r="AA29" s="21"/>
     </row>
     <row r="30">
-      <c r="A30" s="22" t="s">
-        <v>165</v>
+      <c r="A30" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="B30" s="23"/>
-      <c r="C30" s="23" t="s">
-        <v>166</v>
+      <c r="C30" s="27" t="s">
+        <v>163</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -40825,12 +40832,12 @@
       <c r="AA30" s="21"/>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
-        <v>167</v>
+      <c r="A31" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
-        <v>168</v>
+      <c r="C31" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -40858,12 +40865,12 @@
       <c r="AA31" s="21"/>
     </row>
     <row r="32">
-      <c r="A32" s="22" t="s">
-        <v>169</v>
+      <c r="A32" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="25" t="s">
-        <v>170</v>
+      <c r="C32" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -40891,12 +40898,12 @@
       <c r="AA32" s="21"/>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="s">
-        <v>171</v>
+      <c r="A33" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
-        <v>172</v>
+      <c r="C33" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -40924,10 +40931,12 @@
       <c r="AA33" s="21"/>
     </row>
     <row r="34">
-      <c r="A34" s="28"/>
+      <c r="A34" s="28" t="s">
+        <v>170</v>
+      </c>
       <c r="B34" s="23"/>
-      <c r="C34" s="23" t="s">
-        <v>173</v>
+      <c r="C34" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -40955,9 +40964,13 @@
       <c r="AA34" s="21"/>
     </row>
     <row r="35">
-      <c r="A35" s="28"/>
+      <c r="A35" s="28" t="s">
+        <v>172</v>
+      </c>
       <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -40984,9 +40997,11 @@
       <c r="AA35" s="21"/>
     </row>
     <row r="36">
-      <c r="A36" s="28"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="C36" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -41013,7 +41028,7 @@
       <c r="AA36" s="21"/>
     </row>
     <row r="37">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -41042,7 +41057,7 @@
       <c r="AA37" s="21"/>
     </row>
     <row r="38">
-      <c r="A38" s="28"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -41071,7 +41086,7 @@
       <c r="AA38" s="21"/>
     </row>
     <row r="39">
-      <c r="A39" s="28"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -41100,7 +41115,7 @@
       <c r="AA39" s="21"/>
     </row>
     <row r="40">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -41129,7 +41144,7 @@
       <c r="AA40" s="21"/>
     </row>
     <row r="41">
-      <c r="A41" s="28"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -41158,7 +41173,7 @@
       <c r="AA41" s="21"/>
     </row>
     <row r="42">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -41187,7 +41202,7 @@
       <c r="AA42" s="21"/>
     </row>
     <row r="43">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -41216,7 +41231,7 @@
       <c r="AA43" s="21"/>
     </row>
     <row r="44">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
@@ -41245,7 +41260,7 @@
       <c r="AA44" s="21"/>
     </row>
     <row r="45">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -41274,7 +41289,7 @@
       <c r="AA45" s="21"/>
     </row>
     <row r="46">
-      <c r="A46" s="28"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -41303,7 +41318,7 @@
       <c r="AA46" s="21"/>
     </row>
     <row r="47">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -41332,7 +41347,7 @@
       <c r="AA47" s="21"/>
     </row>
     <row r="48">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
@@ -41361,7 +41376,7 @@
       <c r="AA48" s="21"/>
     </row>
     <row r="49">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
@@ -41390,7 +41405,7 @@
       <c r="AA49" s="21"/>
     </row>
     <row r="50">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -41419,7 +41434,7 @@
       <c r="AA50" s="21"/>
     </row>
     <row r="51">
-      <c r="A51" s="28"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
@@ -41448,7 +41463,7 @@
       <c r="AA51" s="21"/>
     </row>
     <row r="52">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -41477,7 +41492,7 @@
       <c r="AA52" s="21"/>
     </row>
     <row r="53">
-      <c r="A53" s="28"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
@@ -41506,7 +41521,7 @@
       <c r="AA53" s="21"/>
     </row>
     <row r="54">
-      <c r="A54" s="28"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -41535,7 +41550,7 @@
       <c r="AA54" s="21"/>
     </row>
     <row r="55">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -41564,7 +41579,7 @@
       <c r="AA55" s="21"/>
     </row>
     <row r="56">
-      <c r="A56" s="28"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -41593,7 +41608,7 @@
       <c r="AA56" s="21"/>
     </row>
     <row r="57">
-      <c r="A57" s="28"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
@@ -41622,7 +41637,7 @@
       <c r="AA57" s="21"/>
     </row>
     <row r="58">
-      <c r="A58" s="28"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
@@ -41651,7 +41666,7 @@
       <c r="AA58" s="21"/>
     </row>
     <row r="59">
-      <c r="A59" s="28"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
@@ -41680,7 +41695,7 @@
       <c r="AA59" s="21"/>
     </row>
     <row r="60">
-      <c r="A60" s="28"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
@@ -41709,7 +41724,7 @@
       <c r="AA60" s="21"/>
     </row>
     <row r="61">
-      <c r="A61" s="28"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -41738,7 +41753,7 @@
       <c r="AA61" s="21"/>
     </row>
     <row r="62">
-      <c r="A62" s="28"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
@@ -41767,7 +41782,7 @@
       <c r="AA62" s="21"/>
     </row>
     <row r="63">
-      <c r="A63" s="28"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
@@ -41796,7 +41811,7 @@
       <c r="AA63" s="21"/>
     </row>
     <row r="64">
-      <c r="A64" s="28"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
@@ -41825,7 +41840,7 @@
       <c r="AA64" s="21"/>
     </row>
     <row r="65">
-      <c r="A65" s="28"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
@@ -41854,7 +41869,7 @@
       <c r="AA65" s="21"/>
     </row>
     <row r="66">
-      <c r="A66" s="28"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
@@ -41883,7 +41898,7 @@
       <c r="AA66" s="21"/>
     </row>
     <row r="67">
-      <c r="A67" s="28"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
@@ -41912,7 +41927,7 @@
       <c r="AA67" s="21"/>
     </row>
     <row r="68">
-      <c r="A68" s="28"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
@@ -41941,7 +41956,7 @@
       <c r="AA68" s="21"/>
     </row>
     <row r="69">
-      <c r="A69" s="28"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
@@ -41970,7 +41985,7 @@
       <c r="AA69" s="21"/>
     </row>
     <row r="70">
-      <c r="A70" s="28"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -41999,7 +42014,7 @@
       <c r="AA70" s="21"/>
     </row>
     <row r="71">
-      <c r="A71" s="28"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
@@ -42028,7 +42043,7 @@
       <c r="AA71" s="21"/>
     </row>
     <row r="72">
-      <c r="A72" s="28"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
@@ -42057,7 +42072,7 @@
       <c r="AA72" s="21"/>
     </row>
     <row r="73">
-      <c r="A73" s="28"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
@@ -42086,7 +42101,7 @@
       <c r="AA73" s="21"/>
     </row>
     <row r="74">
-      <c r="A74" s="28"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
@@ -42115,7 +42130,7 @@
       <c r="AA74" s="21"/>
     </row>
     <row r="75">
-      <c r="A75" s="28"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
@@ -42144,7 +42159,7 @@
       <c r="AA75" s="21"/>
     </row>
     <row r="76">
-      <c r="A76" s="28"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
@@ -42173,7 +42188,7 @@
       <c r="AA76" s="21"/>
     </row>
     <row r="77">
-      <c r="A77" s="28"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
@@ -42202,7 +42217,7 @@
       <c r="AA77" s="21"/>
     </row>
     <row r="78">
-      <c r="A78" s="28"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
@@ -42231,7 +42246,7 @@
       <c r="AA78" s="21"/>
     </row>
     <row r="79">
-      <c r="A79" s="28"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -42260,7 +42275,7 @@
       <c r="AA79" s="21"/>
     </row>
     <row r="80">
-      <c r="A80" s="28"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
@@ -42289,7 +42304,7 @@
       <c r="AA80" s="21"/>
     </row>
     <row r="81">
-      <c r="A81" s="28"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
@@ -42318,7 +42333,7 @@
       <c r="AA81" s="21"/>
     </row>
     <row r="82">
-      <c r="A82" s="28"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -42347,7 +42362,7 @@
       <c r="AA82" s="21"/>
     </row>
     <row r="83">
-      <c r="A83" s="28"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
@@ -42376,7 +42391,7 @@
       <c r="AA83" s="21"/>
     </row>
     <row r="84">
-      <c r="A84" s="28"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
@@ -42405,7 +42420,7 @@
       <c r="AA84" s="21"/>
     </row>
     <row r="85">
-      <c r="A85" s="28"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
@@ -42434,7 +42449,7 @@
       <c r="AA85" s="21"/>
     </row>
     <row r="86">
-      <c r="A86" s="28"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
@@ -42463,7 +42478,7 @@
       <c r="AA86" s="21"/>
     </row>
     <row r="87">
-      <c r="A87" s="28"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
       <c r="D87" s="21"/>
@@ -42492,7 +42507,7 @@
       <c r="AA87" s="21"/>
     </row>
     <row r="88">
-      <c r="A88" s="28"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
@@ -42521,7 +42536,7 @@
       <c r="AA88" s="21"/>
     </row>
     <row r="89">
-      <c r="A89" s="28"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -42550,7 +42565,7 @@
       <c r="AA89" s="21"/>
     </row>
     <row r="90">
-      <c r="A90" s="28"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
@@ -42579,7 +42594,7 @@
       <c r="AA90" s="21"/>
     </row>
     <row r="91">
-      <c r="A91" s="28"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -42608,7 +42623,7 @@
       <c r="AA91" s="21"/>
     </row>
     <row r="92">
-      <c r="A92" s="28"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
@@ -42637,7 +42652,7 @@
       <c r="AA92" s="21"/>
     </row>
     <row r="93">
-      <c r="A93" s="28"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
@@ -42666,7 +42681,7 @@
       <c r="AA93" s="21"/>
     </row>
     <row r="94">
-      <c r="A94" s="28"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
@@ -42695,7 +42710,7 @@
       <c r="AA94" s="21"/>
     </row>
     <row r="95">
-      <c r="A95" s="28"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
@@ -42724,7 +42739,7 @@
       <c r="AA95" s="21"/>
     </row>
     <row r="96">
-      <c r="A96" s="28"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
@@ -42753,7 +42768,7 @@
       <c r="AA96" s="21"/>
     </row>
     <row r="97">
-      <c r="A97" s="28"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
@@ -42782,7 +42797,7 @@
       <c r="AA97" s="21"/>
     </row>
     <row r="98">
-      <c r="A98" s="28"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -42811,7 +42826,7 @@
       <c r="AA98" s="21"/>
     </row>
     <row r="99">
-      <c r="A99" s="28"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
@@ -42840,7 +42855,7 @@
       <c r="AA99" s="21"/>
     </row>
     <row r="100">
-      <c r="A100" s="28"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
@@ -42869,7 +42884,7 @@
       <c r="AA100" s="21"/>
     </row>
     <row r="101">
-      <c r="A101" s="28"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
@@ -42898,7 +42913,7 @@
       <c r="AA101" s="21"/>
     </row>
     <row r="102">
-      <c r="A102" s="28"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
@@ -42927,7 +42942,7 @@
       <c r="AA102" s="21"/>
     </row>
     <row r="103">
-      <c r="A103" s="28"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
@@ -42956,7 +42971,7 @@
       <c r="AA103" s="21"/>
     </row>
     <row r="104">
-      <c r="A104" s="28"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
@@ -42985,7 +43000,7 @@
       <c r="AA104" s="21"/>
     </row>
     <row r="105">
-      <c r="A105" s="28"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
@@ -43014,7 +43029,7 @@
       <c r="AA105" s="21"/>
     </row>
     <row r="106">
-      <c r="A106" s="28"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
@@ -43043,7 +43058,7 @@
       <c r="AA106" s="21"/>
     </row>
     <row r="107">
-      <c r="A107" s="28"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
       <c r="D107" s="21"/>
@@ -43072,7 +43087,7 @@
       <c r="AA107" s="21"/>
     </row>
     <row r="108">
-      <c r="A108" s="28"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
@@ -43101,7 +43116,7 @@
       <c r="AA108" s="21"/>
     </row>
     <row r="109">
-      <c r="A109" s="28"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
@@ -43130,7 +43145,7 @@
       <c r="AA109" s="21"/>
     </row>
     <row r="110">
-      <c r="A110" s="28"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
       <c r="D110" s="21"/>
@@ -43159,7 +43174,7 @@
       <c r="AA110" s="21"/>
     </row>
     <row r="111">
-      <c r="A111" s="28"/>
+      <c r="A111" s="29"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
@@ -43188,7 +43203,7 @@
       <c r="AA111" s="21"/>
     </row>
     <row r="112">
-      <c r="A112" s="28"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
@@ -43217,7 +43232,7 @@
       <c r="AA112" s="21"/>
     </row>
     <row r="113">
-      <c r="A113" s="28"/>
+      <c r="A113" s="29"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
@@ -43246,7 +43261,7 @@
       <c r="AA113" s="21"/>
     </row>
     <row r="114">
-      <c r="A114" s="28"/>
+      <c r="A114" s="29"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
@@ -43275,7 +43290,7 @@
       <c r="AA114" s="21"/>
     </row>
     <row r="115">
-      <c r="A115" s="28"/>
+      <c r="A115" s="29"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
       <c r="D115" s="21"/>
@@ -43304,7 +43319,7 @@
       <c r="AA115" s="21"/>
     </row>
     <row r="116">
-      <c r="A116" s="28"/>
+      <c r="A116" s="29"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
@@ -43333,7 +43348,7 @@
       <c r="AA116" s="21"/>
     </row>
     <row r="117">
-      <c r="A117" s="28"/>
+      <c r="A117" s="29"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
       <c r="D117" s="21"/>
@@ -43362,7 +43377,7 @@
       <c r="AA117" s="21"/>
     </row>
     <row r="118">
-      <c r="A118" s="28"/>
+      <c r="A118" s="29"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
       <c r="D118" s="21"/>
@@ -43391,7 +43406,7 @@
       <c r="AA118" s="21"/>
     </row>
     <row r="119">
-      <c r="A119" s="28"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
@@ -43420,7 +43435,7 @@
       <c r="AA119" s="21"/>
     </row>
     <row r="120">
-      <c r="A120" s="28"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
       <c r="D120" s="21"/>
@@ -43449,7 +43464,7 @@
       <c r="AA120" s="21"/>
     </row>
     <row r="121">
-      <c r="A121" s="28"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
@@ -43478,7 +43493,7 @@
       <c r="AA121" s="21"/>
     </row>
     <row r="122">
-      <c r="A122" s="28"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
       <c r="D122" s="21"/>
@@ -43507,7 +43522,7 @@
       <c r="AA122" s="21"/>
     </row>
     <row r="123">
-      <c r="A123" s="28"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
@@ -43536,7 +43551,7 @@
       <c r="AA123" s="21"/>
     </row>
     <row r="124">
-      <c r="A124" s="28"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
       <c r="D124" s="21"/>
@@ -43565,7 +43580,7 @@
       <c r="AA124" s="21"/>
     </row>
     <row r="125">
-      <c r="A125" s="28"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
       <c r="D125" s="21"/>
@@ -43594,7 +43609,7 @@
       <c r="AA125" s="21"/>
     </row>
     <row r="126">
-      <c r="A126" s="28"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
       <c r="D126" s="21"/>
@@ -43623,7 +43638,7 @@
       <c r="AA126" s="21"/>
     </row>
     <row r="127">
-      <c r="A127" s="28"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
       <c r="D127" s="21"/>
@@ -43652,7 +43667,7 @@
       <c r="AA127" s="21"/>
     </row>
     <row r="128">
-      <c r="A128" s="28"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
@@ -43681,7 +43696,7 @@
       <c r="AA128" s="21"/>
     </row>
     <row r="129">
-      <c r="A129" s="28"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
       <c r="D129" s="21"/>
@@ -43710,7 +43725,7 @@
       <c r="AA129" s="21"/>
     </row>
     <row r="130">
-      <c r="A130" s="28"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
       <c r="D130" s="21"/>
@@ -43739,7 +43754,7 @@
       <c r="AA130" s="21"/>
     </row>
     <row r="131">
-      <c r="A131" s="28"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
       <c r="D131" s="21"/>
@@ -43768,7 +43783,7 @@
       <c r="AA131" s="21"/>
     </row>
     <row r="132">
-      <c r="A132" s="28"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
       <c r="D132" s="21"/>
@@ -43797,7 +43812,7 @@
       <c r="AA132" s="21"/>
     </row>
     <row r="133">
-      <c r="A133" s="28"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
@@ -43826,7 +43841,7 @@
       <c r="AA133" s="21"/>
     </row>
     <row r="134">
-      <c r="A134" s="28"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
@@ -43855,7 +43870,7 @@
       <c r="AA134" s="21"/>
     </row>
     <row r="135">
-      <c r="A135" s="28"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
       <c r="D135" s="21"/>
@@ -43884,7 +43899,7 @@
       <c r="AA135" s="21"/>
     </row>
     <row r="136">
-      <c r="A136" s="28"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
       <c r="D136" s="21"/>
@@ -43913,7 +43928,7 @@
       <c r="AA136" s="21"/>
     </row>
     <row r="137">
-      <c r="A137" s="28"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
       <c r="D137" s="21"/>
@@ -43942,7 +43957,7 @@
       <c r="AA137" s="21"/>
     </row>
     <row r="138">
-      <c r="A138" s="28"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
       <c r="D138" s="21"/>
@@ -43971,7 +43986,7 @@
       <c r="AA138" s="21"/>
     </row>
     <row r="139">
-      <c r="A139" s="28"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
       <c r="D139" s="21"/>
@@ -44000,7 +44015,7 @@
       <c r="AA139" s="21"/>
     </row>
     <row r="140">
-      <c r="A140" s="28"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
       <c r="D140" s="21"/>
@@ -44029,7 +44044,7 @@
       <c r="AA140" s="21"/>
     </row>
     <row r="141">
-      <c r="A141" s="28"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
@@ -44058,7 +44073,7 @@
       <c r="AA141" s="21"/>
     </row>
     <row r="142">
-      <c r="A142" s="28"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
@@ -44087,7 +44102,7 @@
       <c r="AA142" s="21"/>
     </row>
     <row r="143">
-      <c r="A143" s="28"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
       <c r="D143" s="21"/>
@@ -44116,7 +44131,7 @@
       <c r="AA143" s="21"/>
     </row>
     <row r="144">
-      <c r="A144" s="28"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
       <c r="D144" s="21"/>
@@ -44145,7 +44160,7 @@
       <c r="AA144" s="21"/>
     </row>
     <row r="145">
-      <c r="A145" s="28"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
@@ -44174,7 +44189,7 @@
       <c r="AA145" s="21"/>
     </row>
     <row r="146">
-      <c r="A146" s="28"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
       <c r="D146" s="21"/>
@@ -44203,7 +44218,7 @@
       <c r="AA146" s="21"/>
     </row>
     <row r="147">
-      <c r="A147" s="28"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="21"/>
       <c r="C147" s="21"/>
       <c r="D147" s="21"/>
@@ -44232,7 +44247,7 @@
       <c r="AA147" s="21"/>
     </row>
     <row r="148">
-      <c r="A148" s="28"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="21"/>
       <c r="C148" s="21"/>
       <c r="D148" s="21"/>
@@ -44261,7 +44276,7 @@
       <c r="AA148" s="21"/>
     </row>
     <row r="149">
-      <c r="A149" s="28"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
       <c r="D149" s="21"/>
@@ -44290,7 +44305,7 @@
       <c r="AA149" s="21"/>
     </row>
     <row r="150">
-      <c r="A150" s="28"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
       <c r="D150" s="21"/>
@@ -44319,7 +44334,7 @@
       <c r="AA150" s="21"/>
     </row>
     <row r="151">
-      <c r="A151" s="28"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
       <c r="D151" s="21"/>
@@ -44348,7 +44363,7 @@
       <c r="AA151" s="21"/>
     </row>
     <row r="152">
-      <c r="A152" s="28"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
       <c r="D152" s="21"/>
@@ -44377,7 +44392,7 @@
       <c r="AA152" s="21"/>
     </row>
     <row r="153">
-      <c r="A153" s="28"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
       <c r="D153" s="21"/>
@@ -44406,7 +44421,7 @@
       <c r="AA153" s="21"/>
     </row>
     <row r="154">
-      <c r="A154" s="28"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
       <c r="D154" s="21"/>
@@ -44435,7 +44450,7 @@
       <c r="AA154" s="21"/>
     </row>
     <row r="155">
-      <c r="A155" s="28"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
       <c r="D155" s="21"/>
@@ -44464,7 +44479,7 @@
       <c r="AA155" s="21"/>
     </row>
     <row r="156">
-      <c r="A156" s="28"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
       <c r="D156" s="21"/>
@@ -44493,7 +44508,7 @@
       <c r="AA156" s="21"/>
     </row>
     <row r="157">
-      <c r="A157" s="28"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
       <c r="D157" s="21"/>
@@ -44522,7 +44537,7 @@
       <c r="AA157" s="21"/>
     </row>
     <row r="158">
-      <c r="A158" s="28"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
       <c r="D158" s="21"/>
@@ -44551,7 +44566,7 @@
       <c r="AA158" s="21"/>
     </row>
     <row r="159">
-      <c r="A159" s="28"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
       <c r="D159" s="21"/>
@@ -44580,7 +44595,7 @@
       <c r="AA159" s="21"/>
     </row>
     <row r="160">
-      <c r="A160" s="28"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
       <c r="D160" s="21"/>
@@ -44609,7 +44624,7 @@
       <c r="AA160" s="21"/>
     </row>
     <row r="161">
-      <c r="A161" s="28"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="21"/>
       <c r="C161" s="21"/>
       <c r="D161" s="21"/>
@@ -44638,7 +44653,7 @@
       <c r="AA161" s="21"/>
     </row>
     <row r="162">
-      <c r="A162" s="28"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
       <c r="D162" s="21"/>
@@ -44667,7 +44682,7 @@
       <c r="AA162" s="21"/>
     </row>
     <row r="163">
-      <c r="A163" s="28"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
       <c r="D163" s="21"/>
@@ -44696,7 +44711,7 @@
       <c r="AA163" s="21"/>
     </row>
     <row r="164">
-      <c r="A164" s="28"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
       <c r="D164" s="21"/>
@@ -44725,7 +44740,7 @@
       <c r="AA164" s="21"/>
     </row>
     <row r="165">
-      <c r="A165" s="28"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
       <c r="D165" s="21"/>
@@ -44754,7 +44769,7 @@
       <c r="AA165" s="21"/>
     </row>
     <row r="166">
-      <c r="A166" s="28"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
       <c r="D166" s="21"/>
@@ -44783,7 +44798,7 @@
       <c r="AA166" s="21"/>
     </row>
     <row r="167">
-      <c r="A167" s="28"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="21"/>
       <c r="C167" s="21"/>
       <c r="D167" s="21"/>
@@ -44812,7 +44827,7 @@
       <c r="AA167" s="21"/>
     </row>
     <row r="168">
-      <c r="A168" s="28"/>
+      <c r="A168" s="29"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
       <c r="D168" s="21"/>
@@ -44841,7 +44856,7 @@
       <c r="AA168" s="21"/>
     </row>
     <row r="169">
-      <c r="A169" s="28"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
       <c r="D169" s="21"/>
@@ -44870,7 +44885,7 @@
       <c r="AA169" s="21"/>
     </row>
     <row r="170">
-      <c r="A170" s="28"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
       <c r="D170" s="21"/>
@@ -44899,7 +44914,7 @@
       <c r="AA170" s="21"/>
     </row>
     <row r="171">
-      <c r="A171" s="28"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
       <c r="D171" s="21"/>
@@ -44928,7 +44943,7 @@
       <c r="AA171" s="21"/>
     </row>
     <row r="172">
-      <c r="A172" s="28"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
       <c r="D172" s="21"/>
@@ -44957,7 +44972,7 @@
       <c r="AA172" s="21"/>
     </row>
     <row r="173">
-      <c r="A173" s="28"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="21"/>
       <c r="C173" s="21"/>
       <c r="D173" s="21"/>
@@ -44986,7 +45001,7 @@
       <c r="AA173" s="21"/>
     </row>
     <row r="174">
-      <c r="A174" s="28"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
       <c r="D174" s="21"/>
@@ -45015,7 +45030,7 @@
       <c r="AA174" s="21"/>
     </row>
     <row r="175">
-      <c r="A175" s="28"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
       <c r="D175" s="21"/>
@@ -45044,7 +45059,7 @@
       <c r="AA175" s="21"/>
     </row>
     <row r="176">
-      <c r="A176" s="28"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
       <c r="D176" s="21"/>
@@ -45073,7 +45088,7 @@
       <c r="AA176" s="21"/>
     </row>
     <row r="177">
-      <c r="A177" s="28"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="21"/>
       <c r="C177" s="21"/>
       <c r="D177" s="21"/>
@@ -45102,7 +45117,7 @@
       <c r="AA177" s="21"/>
     </row>
     <row r="178">
-      <c r="A178" s="28"/>
+      <c r="A178" s="29"/>
       <c r="B178" s="21"/>
       <c r="C178" s="21"/>
       <c r="D178" s="21"/>
@@ -45131,7 +45146,7 @@
       <c r="AA178" s="21"/>
     </row>
     <row r="179">
-      <c r="A179" s="28"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="21"/>
       <c r="C179" s="21"/>
       <c r="D179" s="21"/>
@@ -45160,7 +45175,7 @@
       <c r="AA179" s="21"/>
     </row>
     <row r="180">
-      <c r="A180" s="28"/>
+      <c r="A180" s="29"/>
       <c r="B180" s="21"/>
       <c r="C180" s="21"/>
       <c r="D180" s="21"/>
@@ -45189,7 +45204,7 @@
       <c r="AA180" s="21"/>
     </row>
     <row r="181">
-      <c r="A181" s="28"/>
+      <c r="A181" s="29"/>
       <c r="B181" s="21"/>
       <c r="C181" s="21"/>
       <c r="D181" s="21"/>
@@ -45218,7 +45233,7 @@
       <c r="AA181" s="21"/>
     </row>
     <row r="182">
-      <c r="A182" s="28"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="21"/>
       <c r="C182" s="21"/>
       <c r="D182" s="21"/>
@@ -45247,7 +45262,7 @@
       <c r="AA182" s="21"/>
     </row>
     <row r="183">
-      <c r="A183" s="28"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="21"/>
       <c r="C183" s="21"/>
       <c r="D183" s="21"/>
@@ -45276,7 +45291,7 @@
       <c r="AA183" s="21"/>
     </row>
     <row r="184">
-      <c r="A184" s="28"/>
+      <c r="A184" s="29"/>
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
       <c r="D184" s="21"/>
@@ -45305,7 +45320,7 @@
       <c r="AA184" s="21"/>
     </row>
     <row r="185">
-      <c r="A185" s="28"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="21"/>
       <c r="C185" s="21"/>
       <c r="D185" s="21"/>
@@ -45334,7 +45349,7 @@
       <c r="AA185" s="21"/>
     </row>
     <row r="186">
-      <c r="A186" s="28"/>
+      <c r="A186" s="29"/>
       <c r="B186" s="21"/>
       <c r="C186" s="21"/>
       <c r="D186" s="21"/>
@@ -45363,7 +45378,7 @@
       <c r="AA186" s="21"/>
     </row>
     <row r="187">
-      <c r="A187" s="28"/>
+      <c r="A187" s="29"/>
       <c r="B187" s="21"/>
       <c r="C187" s="21"/>
       <c r="D187" s="21"/>
@@ -45392,7 +45407,7 @@
       <c r="AA187" s="21"/>
     </row>
     <row r="188">
-      <c r="A188" s="28"/>
+      <c r="A188" s="29"/>
       <c r="B188" s="21"/>
       <c r="C188" s="21"/>
       <c r="D188" s="21"/>
@@ -45421,7 +45436,7 @@
       <c r="AA188" s="21"/>
     </row>
     <row r="189">
-      <c r="A189" s="28"/>
+      <c r="A189" s="29"/>
       <c r="B189" s="21"/>
       <c r="C189" s="21"/>
       <c r="D189" s="21"/>
@@ -45450,7 +45465,7 @@
       <c r="AA189" s="21"/>
     </row>
     <row r="190">
-      <c r="A190" s="28"/>
+      <c r="A190" s="29"/>
       <c r="B190" s="21"/>
       <c r="C190" s="21"/>
       <c r="D190" s="21"/>
@@ -45479,7 +45494,7 @@
       <c r="AA190" s="21"/>
     </row>
     <row r="191">
-      <c r="A191" s="28"/>
+      <c r="A191" s="29"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
       <c r="D191" s="21"/>
@@ -45508,7 +45523,7 @@
       <c r="AA191" s="21"/>
     </row>
     <row r="192">
-      <c r="A192" s="28"/>
+      <c r="A192" s="29"/>
       <c r="B192" s="21"/>
       <c r="C192" s="21"/>
       <c r="D192" s="21"/>
@@ -45537,7 +45552,7 @@
       <c r="AA192" s="21"/>
     </row>
     <row r="193">
-      <c r="A193" s="28"/>
+      <c r="A193" s="29"/>
       <c r="B193" s="21"/>
       <c r="C193" s="21"/>
       <c r="D193" s="21"/>
@@ -45566,7 +45581,7 @@
       <c r="AA193" s="21"/>
     </row>
     <row r="194">
-      <c r="A194" s="28"/>
+      <c r="A194" s="29"/>
       <c r="B194" s="21"/>
       <c r="C194" s="21"/>
       <c r="D194" s="21"/>
@@ -45595,7 +45610,7 @@
       <c r="AA194" s="21"/>
     </row>
     <row r="195">
-      <c r="A195" s="28"/>
+      <c r="A195" s="29"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
       <c r="D195" s="21"/>
@@ -45624,7 +45639,7 @@
       <c r="AA195" s="21"/>
     </row>
     <row r="196">
-      <c r="A196" s="28"/>
+      <c r="A196" s="29"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
       <c r="D196" s="21"/>
@@ -45653,7 +45668,7 @@
       <c r="AA196" s="21"/>
     </row>
     <row r="197">
-      <c r="A197" s="28"/>
+      <c r="A197" s="29"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
       <c r="D197" s="21"/>
@@ -45682,7 +45697,7 @@
       <c r="AA197" s="21"/>
     </row>
     <row r="198">
-      <c r="A198" s="28"/>
+      <c r="A198" s="29"/>
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
       <c r="D198" s="21"/>
@@ -45711,7 +45726,7 @@
       <c r="AA198" s="21"/>
     </row>
     <row r="199">
-      <c r="A199" s="28"/>
+      <c r="A199" s="29"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
       <c r="D199" s="21"/>
@@ -45740,7 +45755,7 @@
       <c r="AA199" s="21"/>
     </row>
     <row r="200">
-      <c r="A200" s="28"/>
+      <c r="A200" s="29"/>
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
       <c r="D200" s="21"/>
@@ -45769,7 +45784,7 @@
       <c r="AA200" s="21"/>
     </row>
     <row r="201">
-      <c r="A201" s="28"/>
+      <c r="A201" s="29"/>
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
@@ -45798,7 +45813,7 @@
       <c r="AA201" s="21"/>
     </row>
     <row r="202">
-      <c r="A202" s="28"/>
+      <c r="A202" s="29"/>
       <c r="B202" s="21"/>
       <c r="C202" s="21"/>
       <c r="D202" s="21"/>
@@ -45827,7 +45842,7 @@
       <c r="AA202" s="21"/>
     </row>
     <row r="203">
-      <c r="A203" s="28"/>
+      <c r="A203" s="29"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
       <c r="D203" s="21"/>
@@ -45856,7 +45871,7 @@
       <c r="AA203" s="21"/>
     </row>
     <row r="204">
-      <c r="A204" s="28"/>
+      <c r="A204" s="29"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
       <c r="D204" s="21"/>
@@ -45885,7 +45900,7 @@
       <c r="AA204" s="21"/>
     </row>
     <row r="205">
-      <c r="A205" s="28"/>
+      <c r="A205" s="29"/>
       <c r="B205" s="21"/>
       <c r="C205" s="21"/>
       <c r="D205" s="21"/>
@@ -45914,7 +45929,7 @@
       <c r="AA205" s="21"/>
     </row>
     <row r="206">
-      <c r="A206" s="28"/>
+      <c r="A206" s="29"/>
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
       <c r="D206" s="21"/>
@@ -45943,7 +45958,7 @@
       <c r="AA206" s="21"/>
     </row>
     <row r="207">
-      <c r="A207" s="28"/>
+      <c r="A207" s="29"/>
       <c r="B207" s="21"/>
       <c r="C207" s="21"/>
       <c r="D207" s="21"/>
@@ -45972,7 +45987,7 @@
       <c r="AA207" s="21"/>
     </row>
     <row r="208">
-      <c r="A208" s="28"/>
+      <c r="A208" s="29"/>
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
       <c r="D208" s="21"/>
@@ -46001,7 +46016,7 @@
       <c r="AA208" s="21"/>
     </row>
     <row r="209">
-      <c r="A209" s="28"/>
+      <c r="A209" s="29"/>
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
       <c r="D209" s="21"/>
@@ -46030,7 +46045,7 @@
       <c r="AA209" s="21"/>
     </row>
     <row r="210">
-      <c r="A210" s="28"/>
+      <c r="A210" s="29"/>
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
       <c r="D210" s="21"/>
@@ -46059,7 +46074,7 @@
       <c r="AA210" s="21"/>
     </row>
     <row r="211">
-      <c r="A211" s="28"/>
+      <c r="A211" s="29"/>
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
       <c r="D211" s="21"/>
@@ -46088,7 +46103,7 @@
       <c r="AA211" s="21"/>
     </row>
     <row r="212">
-      <c r="A212" s="28"/>
+      <c r="A212" s="29"/>
       <c r="B212" s="21"/>
       <c r="C212" s="21"/>
       <c r="D212" s="21"/>
@@ -46117,7 +46132,7 @@
       <c r="AA212" s="21"/>
     </row>
     <row r="213">
-      <c r="A213" s="28"/>
+      <c r="A213" s="29"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
       <c r="D213" s="21"/>
@@ -46146,7 +46161,7 @@
       <c r="AA213" s="21"/>
     </row>
     <row r="214">
-      <c r="A214" s="28"/>
+      <c r="A214" s="29"/>
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
       <c r="D214" s="21"/>
@@ -46175,7 +46190,7 @@
       <c r="AA214" s="21"/>
     </row>
     <row r="215">
-      <c r="A215" s="28"/>
+      <c r="A215" s="29"/>
       <c r="B215" s="21"/>
       <c r="C215" s="21"/>
       <c r="D215" s="21"/>
@@ -46204,7 +46219,7 @@
       <c r="AA215" s="21"/>
     </row>
     <row r="216">
-      <c r="A216" s="28"/>
+      <c r="A216" s="29"/>
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
       <c r="D216" s="21"/>
@@ -46233,7 +46248,7 @@
       <c r="AA216" s="21"/>
     </row>
     <row r="217">
-      <c r="A217" s="28"/>
+      <c r="A217" s="29"/>
       <c r="B217" s="21"/>
       <c r="C217" s="21"/>
       <c r="D217" s="21"/>
@@ -46262,7 +46277,7 @@
       <c r="AA217" s="21"/>
     </row>
     <row r="218">
-      <c r="A218" s="28"/>
+      <c r="A218" s="29"/>
       <c r="B218" s="21"/>
       <c r="C218" s="21"/>
       <c r="D218" s="21"/>
@@ -46291,7 +46306,7 @@
       <c r="AA218" s="21"/>
     </row>
     <row r="219">
-      <c r="A219" s="28"/>
+      <c r="A219" s="29"/>
       <c r="B219" s="21"/>
       <c r="C219" s="21"/>
       <c r="D219" s="21"/>
@@ -46320,7 +46335,7 @@
       <c r="AA219" s="21"/>
     </row>
     <row r="220">
-      <c r="A220" s="28"/>
+      <c r="A220" s="29"/>
       <c r="B220" s="21"/>
       <c r="C220" s="21"/>
       <c r="D220" s="21"/>
@@ -46349,7 +46364,7 @@
       <c r="AA220" s="21"/>
     </row>
     <row r="221">
-      <c r="A221" s="28"/>
+      <c r="A221" s="29"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
       <c r="D221" s="21"/>
@@ -46378,7 +46393,7 @@
       <c r="AA221" s="21"/>
     </row>
     <row r="222">
-      <c r="A222" s="28"/>
+      <c r="A222" s="29"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
       <c r="D222" s="21"/>
@@ -46407,7 +46422,7 @@
       <c r="AA222" s="21"/>
     </row>
     <row r="223">
-      <c r="A223" s="28"/>
+      <c r="A223" s="29"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
       <c r="D223" s="21"/>
@@ -46436,7 +46451,7 @@
       <c r="AA223" s="21"/>
     </row>
     <row r="224">
-      <c r="A224" s="28"/>
+      <c r="A224" s="29"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
       <c r="D224" s="21"/>
@@ -46465,7 +46480,7 @@
       <c r="AA224" s="21"/>
     </row>
     <row r="225">
-      <c r="A225" s="28"/>
+      <c r="A225" s="29"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
       <c r="D225" s="21"/>
@@ -46494,7 +46509,7 @@
       <c r="AA225" s="21"/>
     </row>
     <row r="226">
-      <c r="A226" s="28"/>
+      <c r="A226" s="29"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
       <c r="D226" s="21"/>
@@ -46523,7 +46538,7 @@
       <c r="AA226" s="21"/>
     </row>
     <row r="227">
-      <c r="A227" s="28"/>
+      <c r="A227" s="29"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
       <c r="D227" s="21"/>
@@ -46552,7 +46567,7 @@
       <c r="AA227" s="21"/>
     </row>
     <row r="228">
-      <c r="A228" s="28"/>
+      <c r="A228" s="29"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
       <c r="D228" s="21"/>
@@ -46581,7 +46596,7 @@
       <c r="AA228" s="21"/>
     </row>
     <row r="229">
-      <c r="A229" s="28"/>
+      <c r="A229" s="29"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
       <c r="D229" s="21"/>
@@ -46610,7 +46625,7 @@
       <c r="AA229" s="21"/>
     </row>
     <row r="230">
-      <c r="A230" s="28"/>
+      <c r="A230" s="29"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
       <c r="D230" s="21"/>
@@ -46639,7 +46654,7 @@
       <c r="AA230" s="21"/>
     </row>
     <row r="231">
-      <c r="A231" s="28"/>
+      <c r="A231" s="29"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
       <c r="D231" s="21"/>
@@ -46668,7 +46683,7 @@
       <c r="AA231" s="21"/>
     </row>
     <row r="232">
-      <c r="A232" s="28"/>
+      <c r="A232" s="29"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
       <c r="D232" s="21"/>
@@ -46697,7 +46712,7 @@
       <c r="AA232" s="21"/>
     </row>
     <row r="233">
-      <c r="A233" s="28"/>
+      <c r="A233" s="29"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
       <c r="D233" s="21"/>
@@ -46726,7 +46741,7 @@
       <c r="AA233" s="21"/>
     </row>
     <row r="234">
-      <c r="A234" s="28"/>
+      <c r="A234" s="29"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
       <c r="D234" s="21"/>
@@ -46755,7 +46770,7 @@
       <c r="AA234" s="21"/>
     </row>
     <row r="235">
-      <c r="A235" s="28"/>
+      <c r="A235" s="29"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
       <c r="D235" s="21"/>
@@ -46784,7 +46799,7 @@
       <c r="AA235" s="21"/>
     </row>
     <row r="236">
-      <c r="A236" s="28"/>
+      <c r="A236" s="29"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
       <c r="D236" s="21"/>
@@ -46813,7 +46828,7 @@
       <c r="AA236" s="21"/>
     </row>
     <row r="237">
-      <c r="A237" s="28"/>
+      <c r="A237" s="29"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
       <c r="D237" s="21"/>
@@ -46842,7 +46857,7 @@
       <c r="AA237" s="21"/>
     </row>
     <row r="238">
-      <c r="A238" s="28"/>
+      <c r="A238" s="29"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
       <c r="D238" s="21"/>
@@ -46871,7 +46886,7 @@
       <c r="AA238" s="21"/>
     </row>
     <row r="239">
-      <c r="A239" s="28"/>
+      <c r="A239" s="29"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
       <c r="D239" s="21"/>
@@ -46900,7 +46915,7 @@
       <c r="AA239" s="21"/>
     </row>
     <row r="240">
-      <c r="A240" s="28"/>
+      <c r="A240" s="29"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
       <c r="D240" s="21"/>
@@ -46929,7 +46944,7 @@
       <c r="AA240" s="21"/>
     </row>
     <row r="241">
-      <c r="A241" s="28"/>
+      <c r="A241" s="29"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
       <c r="D241" s="21"/>
@@ -46958,7 +46973,7 @@
       <c r="AA241" s="21"/>
     </row>
     <row r="242">
-      <c r="A242" s="28"/>
+      <c r="A242" s="29"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
       <c r="D242" s="21"/>
@@ -46987,7 +47002,7 @@
       <c r="AA242" s="21"/>
     </row>
     <row r="243">
-      <c r="A243" s="28"/>
+      <c r="A243" s="29"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
       <c r="D243" s="21"/>
@@ -47016,7 +47031,7 @@
       <c r="AA243" s="21"/>
     </row>
     <row r="244">
-      <c r="A244" s="28"/>
+      <c r="A244" s="29"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
       <c r="D244" s="21"/>
@@ -47045,7 +47060,7 @@
       <c r="AA244" s="21"/>
     </row>
     <row r="245">
-      <c r="A245" s="28"/>
+      <c r="A245" s="29"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
       <c r="D245" s="21"/>
@@ -47074,7 +47089,7 @@
       <c r="AA245" s="21"/>
     </row>
     <row r="246">
-      <c r="A246" s="28"/>
+      <c r="A246" s="29"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
       <c r="D246" s="21"/>
@@ -47103,7 +47118,7 @@
       <c r="AA246" s="21"/>
     </row>
     <row r="247">
-      <c r="A247" s="28"/>
+      <c r="A247" s="29"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
       <c r="D247" s="21"/>
@@ -47132,7 +47147,7 @@
       <c r="AA247" s="21"/>
     </row>
     <row r="248">
-      <c r="A248" s="28"/>
+      <c r="A248" s="29"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
       <c r="D248" s="21"/>
@@ -47161,7 +47176,7 @@
       <c r="AA248" s="21"/>
     </row>
     <row r="249">
-      <c r="A249" s="28"/>
+      <c r="A249" s="29"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
       <c r="D249" s="21"/>
@@ -47190,7 +47205,7 @@
       <c r="AA249" s="21"/>
     </row>
     <row r="250">
-      <c r="A250" s="28"/>
+      <c r="A250" s="29"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
       <c r="D250" s="21"/>
@@ -47219,7 +47234,7 @@
       <c r="AA250" s="21"/>
     </row>
     <row r="251">
-      <c r="A251" s="28"/>
+      <c r="A251" s="29"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
       <c r="D251" s="21"/>
@@ -47248,7 +47263,7 @@
       <c r="AA251" s="21"/>
     </row>
     <row r="252">
-      <c r="A252" s="28"/>
+      <c r="A252" s="29"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
       <c r="D252" s="21"/>
@@ -47277,7 +47292,7 @@
       <c r="AA252" s="21"/>
     </row>
     <row r="253">
-      <c r="A253" s="28"/>
+      <c r="A253" s="29"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
       <c r="D253" s="21"/>
@@ -47306,7 +47321,7 @@
       <c r="AA253" s="21"/>
     </row>
     <row r="254">
-      <c r="A254" s="28"/>
+      <c r="A254" s="29"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
       <c r="D254" s="21"/>
@@ -47335,7 +47350,7 @@
       <c r="AA254" s="21"/>
     </row>
     <row r="255">
-      <c r="A255" s="28"/>
+      <c r="A255" s="29"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
       <c r="D255" s="21"/>
@@ -47364,7 +47379,7 @@
       <c r="AA255" s="21"/>
     </row>
     <row r="256">
-      <c r="A256" s="28"/>
+      <c r="A256" s="29"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
       <c r="D256" s="21"/>
@@ -47393,7 +47408,7 @@
       <c r="AA256" s="21"/>
     </row>
     <row r="257">
-      <c r="A257" s="28"/>
+      <c r="A257" s="29"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
       <c r="D257" s="21"/>
@@ -47422,7 +47437,7 @@
       <c r="AA257" s="21"/>
     </row>
     <row r="258">
-      <c r="A258" s="28"/>
+      <c r="A258" s="29"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
       <c r="D258" s="21"/>
@@ -47451,7 +47466,7 @@
       <c r="AA258" s="21"/>
     </row>
     <row r="259">
-      <c r="A259" s="28"/>
+      <c r="A259" s="29"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
       <c r="D259" s="21"/>
@@ -47480,7 +47495,7 @@
       <c r="AA259" s="21"/>
     </row>
     <row r="260">
-      <c r="A260" s="28"/>
+      <c r="A260" s="29"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
       <c r="D260" s="21"/>
@@ -47509,7 +47524,7 @@
       <c r="AA260" s="21"/>
     </row>
     <row r="261">
-      <c r="A261" s="28"/>
+      <c r="A261" s="29"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
       <c r="D261" s="21"/>
@@ -47538,7 +47553,7 @@
       <c r="AA261" s="21"/>
     </row>
     <row r="262">
-      <c r="A262" s="28"/>
+      <c r="A262" s="29"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
       <c r="D262" s="21"/>
@@ -47567,7 +47582,7 @@
       <c r="AA262" s="21"/>
     </row>
     <row r="263">
-      <c r="A263" s="28"/>
+      <c r="A263" s="29"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
       <c r="D263" s="21"/>
@@ -47596,7 +47611,7 @@
       <c r="AA263" s="21"/>
     </row>
     <row r="264">
-      <c r="A264" s="28"/>
+      <c r="A264" s="29"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
       <c r="D264" s="21"/>
@@ -47625,7 +47640,7 @@
       <c r="AA264" s="21"/>
     </row>
     <row r="265">
-      <c r="A265" s="28"/>
+      <c r="A265" s="29"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
       <c r="D265" s="21"/>
@@ -47654,7 +47669,7 @@
       <c r="AA265" s="21"/>
     </row>
     <row r="266">
-      <c r="A266" s="28"/>
+      <c r="A266" s="29"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
       <c r="D266" s="21"/>
@@ -47683,7 +47698,7 @@
       <c r="AA266" s="21"/>
     </row>
     <row r="267">
-      <c r="A267" s="28"/>
+      <c r="A267" s="29"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
       <c r="D267" s="21"/>
@@ -47712,7 +47727,7 @@
       <c r="AA267" s="21"/>
     </row>
     <row r="268">
-      <c r="A268" s="28"/>
+      <c r="A268" s="29"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
       <c r="D268" s="21"/>
@@ -47741,7 +47756,7 @@
       <c r="AA268" s="21"/>
     </row>
     <row r="269">
-      <c r="A269" s="28"/>
+      <c r="A269" s="29"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
       <c r="D269" s="21"/>
@@ -47770,7 +47785,7 @@
       <c r="AA269" s="21"/>
     </row>
     <row r="270">
-      <c r="A270" s="28"/>
+      <c r="A270" s="29"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
       <c r="D270" s="21"/>
@@ -47799,7 +47814,7 @@
       <c r="AA270" s="21"/>
     </row>
     <row r="271">
-      <c r="A271" s="28"/>
+      <c r="A271" s="29"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
       <c r="D271" s="21"/>
@@ -47828,7 +47843,7 @@
       <c r="AA271" s="21"/>
     </row>
     <row r="272">
-      <c r="A272" s="28"/>
+      <c r="A272" s="29"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
       <c r="D272" s="21"/>
@@ -47857,7 +47872,7 @@
       <c r="AA272" s="21"/>
     </row>
     <row r="273">
-      <c r="A273" s="28"/>
+      <c r="A273" s="29"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
       <c r="D273" s="21"/>
@@ -47886,7 +47901,7 @@
       <c r="AA273" s="21"/>
     </row>
     <row r="274">
-      <c r="A274" s="28"/>
+      <c r="A274" s="29"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
       <c r="D274" s="21"/>
@@ -47915,7 +47930,7 @@
       <c r="AA274" s="21"/>
     </row>
     <row r="275">
-      <c r="A275" s="28"/>
+      <c r="A275" s="29"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
       <c r="D275" s="21"/>
@@ -47944,7 +47959,7 @@
       <c r="AA275" s="21"/>
     </row>
     <row r="276">
-      <c r="A276" s="28"/>
+      <c r="A276" s="29"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
       <c r="D276" s="21"/>
@@ -47973,7 +47988,7 @@
       <c r="AA276" s="21"/>
     </row>
     <row r="277">
-      <c r="A277" s="28"/>
+      <c r="A277" s="29"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
       <c r="D277" s="21"/>
@@ -48002,7 +48017,7 @@
       <c r="AA277" s="21"/>
     </row>
     <row r="278">
-      <c r="A278" s="28"/>
+      <c r="A278" s="29"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
       <c r="D278" s="21"/>
@@ -48031,7 +48046,7 @@
       <c r="AA278" s="21"/>
     </row>
     <row r="279">
-      <c r="A279" s="28"/>
+      <c r="A279" s="29"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
       <c r="D279" s="21"/>
@@ -48060,7 +48075,7 @@
       <c r="AA279" s="21"/>
     </row>
     <row r="280">
-      <c r="A280" s="28"/>
+      <c r="A280" s="29"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
       <c r="D280" s="21"/>
@@ -48089,7 +48104,7 @@
       <c r="AA280" s="21"/>
     </row>
     <row r="281">
-      <c r="A281" s="28"/>
+      <c r="A281" s="29"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
       <c r="D281" s="21"/>
@@ -48118,7 +48133,7 @@
       <c r="AA281" s="21"/>
     </row>
     <row r="282">
-      <c r="A282" s="28"/>
+      <c r="A282" s="29"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
       <c r="D282" s="21"/>
@@ -48147,7 +48162,7 @@
       <c r="AA282" s="21"/>
     </row>
     <row r="283">
-      <c r="A283" s="28"/>
+      <c r="A283" s="29"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
       <c r="D283" s="21"/>
@@ -48176,7 +48191,7 @@
       <c r="AA283" s="21"/>
     </row>
     <row r="284">
-      <c r="A284" s="28"/>
+      <c r="A284" s="29"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
       <c r="D284" s="21"/>
@@ -48205,7 +48220,7 @@
       <c r="AA284" s="21"/>
     </row>
     <row r="285">
-      <c r="A285" s="28"/>
+      <c r="A285" s="29"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
       <c r="D285" s="21"/>
@@ -48234,7 +48249,7 @@
       <c r="AA285" s="21"/>
     </row>
     <row r="286">
-      <c r="A286" s="28"/>
+      <c r="A286" s="29"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
       <c r="D286" s="21"/>
@@ -48263,7 +48278,7 @@
       <c r="AA286" s="21"/>
     </row>
     <row r="287">
-      <c r="A287" s="28"/>
+      <c r="A287" s="29"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
       <c r="D287" s="21"/>
@@ -48292,7 +48307,7 @@
       <c r="AA287" s="21"/>
     </row>
     <row r="288">
-      <c r="A288" s="28"/>
+      <c r="A288" s="29"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
       <c r="D288" s="21"/>
@@ -48321,7 +48336,7 @@
       <c r="AA288" s="21"/>
     </row>
     <row r="289">
-      <c r="A289" s="28"/>
+      <c r="A289" s="29"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
       <c r="D289" s="21"/>
@@ -48350,7 +48365,7 @@
       <c r="AA289" s="21"/>
     </row>
     <row r="290">
-      <c r="A290" s="28"/>
+      <c r="A290" s="29"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
       <c r="D290" s="21"/>
@@ -48379,7 +48394,7 @@
       <c r="AA290" s="21"/>
     </row>
     <row r="291">
-      <c r="A291" s="28"/>
+      <c r="A291" s="29"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
       <c r="D291" s="21"/>
@@ -48408,7 +48423,7 @@
       <c r="AA291" s="21"/>
     </row>
     <row r="292">
-      <c r="A292" s="28"/>
+      <c r="A292" s="29"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
       <c r="D292" s="21"/>
@@ -48437,7 +48452,7 @@
       <c r="AA292" s="21"/>
     </row>
     <row r="293">
-      <c r="A293" s="28"/>
+      <c r="A293" s="29"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
       <c r="D293" s="21"/>
@@ -48466,7 +48481,7 @@
       <c r="AA293" s="21"/>
     </row>
     <row r="294">
-      <c r="A294" s="28"/>
+      <c r="A294" s="29"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
       <c r="D294" s="21"/>
@@ -48495,7 +48510,7 @@
       <c r="AA294" s="21"/>
     </row>
     <row r="295">
-      <c r="A295" s="28"/>
+      <c r="A295" s="29"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
       <c r="D295" s="21"/>
@@ -48524,7 +48539,7 @@
       <c r="AA295" s="21"/>
     </row>
     <row r="296">
-      <c r="A296" s="28"/>
+      <c r="A296" s="29"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
       <c r="D296" s="21"/>
@@ -48553,7 +48568,7 @@
       <c r="AA296" s="21"/>
     </row>
     <row r="297">
-      <c r="A297" s="28"/>
+      <c r="A297" s="29"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
       <c r="D297" s="21"/>
@@ -48582,7 +48597,7 @@
       <c r="AA297" s="21"/>
     </row>
     <row r="298">
-      <c r="A298" s="28"/>
+      <c r="A298" s="29"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
       <c r="D298" s="21"/>
@@ -48611,7 +48626,7 @@
       <c r="AA298" s="21"/>
     </row>
     <row r="299">
-      <c r="A299" s="28"/>
+      <c r="A299" s="29"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
       <c r="D299" s="21"/>
@@ -48640,7 +48655,7 @@
       <c r="AA299" s="21"/>
     </row>
     <row r="300">
-      <c r="A300" s="28"/>
+      <c r="A300" s="29"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
       <c r="D300" s="21"/>
@@ -48669,7 +48684,7 @@
       <c r="AA300" s="21"/>
     </row>
     <row r="301">
-      <c r="A301" s="28"/>
+      <c r="A301" s="29"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
       <c r="D301" s="21"/>
@@ -48698,7 +48713,7 @@
       <c r="AA301" s="21"/>
     </row>
     <row r="302">
-      <c r="A302" s="28"/>
+      <c r="A302" s="29"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
       <c r="D302" s="21"/>
@@ -48727,7 +48742,7 @@
       <c r="AA302" s="21"/>
     </row>
     <row r="303">
-      <c r="A303" s="28"/>
+      <c r="A303" s="29"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
       <c r="D303" s="21"/>
@@ -48756,7 +48771,7 @@
       <c r="AA303" s="21"/>
     </row>
     <row r="304">
-      <c r="A304" s="28"/>
+      <c r="A304" s="29"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
       <c r="D304" s="21"/>
@@ -48785,7 +48800,7 @@
       <c r="AA304" s="21"/>
     </row>
     <row r="305">
-      <c r="A305" s="28"/>
+      <c r="A305" s="29"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
       <c r="D305" s="21"/>
@@ -48814,7 +48829,7 @@
       <c r="AA305" s="21"/>
     </row>
     <row r="306">
-      <c r="A306" s="28"/>
+      <c r="A306" s="29"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
       <c r="D306" s="21"/>
@@ -48843,7 +48858,7 @@
       <c r="AA306" s="21"/>
     </row>
     <row r="307">
-      <c r="A307" s="28"/>
+      <c r="A307" s="29"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
       <c r="D307" s="21"/>
@@ -48872,7 +48887,7 @@
       <c r="AA307" s="21"/>
     </row>
     <row r="308">
-      <c r="A308" s="28"/>
+      <c r="A308" s="29"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
       <c r="D308" s="21"/>
@@ -48901,7 +48916,7 @@
       <c r="AA308" s="21"/>
     </row>
     <row r="309">
-      <c r="A309" s="28"/>
+      <c r="A309" s="29"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
       <c r="D309" s="21"/>
@@ -48930,7 +48945,7 @@
       <c r="AA309" s="21"/>
     </row>
     <row r="310">
-      <c r="A310" s="28"/>
+      <c r="A310" s="29"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
       <c r="D310" s="21"/>
@@ -48959,7 +48974,7 @@
       <c r="AA310" s="21"/>
     </row>
     <row r="311">
-      <c r="A311" s="28"/>
+      <c r="A311" s="29"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
       <c r="D311" s="21"/>
@@ -48988,7 +49003,7 @@
       <c r="AA311" s="21"/>
     </row>
     <row r="312">
-      <c r="A312" s="28"/>
+      <c r="A312" s="29"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
       <c r="D312" s="21"/>
@@ -49017,7 +49032,7 @@
       <c r="AA312" s="21"/>
     </row>
     <row r="313">
-      <c r="A313" s="28"/>
+      <c r="A313" s="29"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
       <c r="D313" s="21"/>
@@ -49046,7 +49061,7 @@
       <c r="AA313" s="21"/>
     </row>
     <row r="314">
-      <c r="A314" s="28"/>
+      <c r="A314" s="29"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
       <c r="D314" s="21"/>
@@ -49075,7 +49090,7 @@
       <c r="AA314" s="21"/>
     </row>
     <row r="315">
-      <c r="A315" s="28"/>
+      <c r="A315" s="29"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
       <c r="D315" s="21"/>
@@ -49104,7 +49119,7 @@
       <c r="AA315" s="21"/>
     </row>
     <row r="316">
-      <c r="A316" s="28"/>
+      <c r="A316" s="29"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
       <c r="D316" s="21"/>
@@ -49133,7 +49148,7 @@
       <c r="AA316" s="21"/>
     </row>
     <row r="317">
-      <c r="A317" s="28"/>
+      <c r="A317" s="29"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
       <c r="D317" s="21"/>
@@ -49162,7 +49177,7 @@
       <c r="AA317" s="21"/>
     </row>
     <row r="318">
-      <c r="A318" s="28"/>
+      <c r="A318" s="29"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
       <c r="D318" s="21"/>
@@ -49191,7 +49206,7 @@
       <c r="AA318" s="21"/>
     </row>
     <row r="319">
-      <c r="A319" s="28"/>
+      <c r="A319" s="29"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
       <c r="D319" s="21"/>
@@ -49220,7 +49235,7 @@
       <c r="AA319" s="21"/>
     </row>
     <row r="320">
-      <c r="A320" s="28"/>
+      <c r="A320" s="29"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
       <c r="D320" s="21"/>
@@ -49249,7 +49264,7 @@
       <c r="AA320" s="21"/>
     </row>
     <row r="321">
-      <c r="A321" s="28"/>
+      <c r="A321" s="29"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
       <c r="D321" s="21"/>
@@ -49278,7 +49293,7 @@
       <c r="AA321" s="21"/>
     </row>
     <row r="322">
-      <c r="A322" s="28"/>
+      <c r="A322" s="29"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
       <c r="D322" s="21"/>
@@ -49307,7 +49322,7 @@
       <c r="AA322" s="21"/>
     </row>
     <row r="323">
-      <c r="A323" s="28"/>
+      <c r="A323" s="29"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
       <c r="D323" s="21"/>
@@ -49336,7 +49351,7 @@
       <c r="AA323" s="21"/>
     </row>
     <row r="324">
-      <c r="A324" s="28"/>
+      <c r="A324" s="29"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
       <c r="D324" s="21"/>
@@ -49365,7 +49380,7 @@
       <c r="AA324" s="21"/>
     </row>
     <row r="325">
-      <c r="A325" s="28"/>
+      <c r="A325" s="29"/>
       <c r="B325" s="21"/>
       <c r="C325" s="21"/>
       <c r="D325" s="21"/>
@@ -49394,7 +49409,7 @@
       <c r="AA325" s="21"/>
     </row>
     <row r="326">
-      <c r="A326" s="28"/>
+      <c r="A326" s="29"/>
       <c r="B326" s="21"/>
       <c r="C326" s="21"/>
       <c r="D326" s="21"/>
@@ -49423,7 +49438,7 @@
       <c r="AA326" s="21"/>
     </row>
     <row r="327">
-      <c r="A327" s="28"/>
+      <c r="A327" s="29"/>
       <c r="B327" s="21"/>
       <c r="C327" s="21"/>
       <c r="D327" s="21"/>
@@ -49452,7 +49467,7 @@
       <c r="AA327" s="21"/>
     </row>
     <row r="328">
-      <c r="A328" s="28"/>
+      <c r="A328" s="29"/>
       <c r="B328" s="21"/>
       <c r="C328" s="21"/>
       <c r="D328" s="21"/>
@@ -49481,7 +49496,7 @@
       <c r="AA328" s="21"/>
     </row>
     <row r="329">
-      <c r="A329" s="28"/>
+      <c r="A329" s="29"/>
       <c r="B329" s="21"/>
       <c r="C329" s="21"/>
       <c r="D329" s="21"/>
@@ -49510,7 +49525,7 @@
       <c r="AA329" s="21"/>
     </row>
     <row r="330">
-      <c r="A330" s="28"/>
+      <c r="A330" s="29"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
       <c r="D330" s="21"/>
@@ -49539,7 +49554,7 @@
       <c r="AA330" s="21"/>
     </row>
     <row r="331">
-      <c r="A331" s="28"/>
+      <c r="A331" s="29"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
       <c r="D331" s="21"/>
@@ -49568,7 +49583,7 @@
       <c r="AA331" s="21"/>
     </row>
     <row r="332">
-      <c r="A332" s="28"/>
+      <c r="A332" s="29"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
       <c r="D332" s="21"/>
@@ -49597,7 +49612,7 @@
       <c r="AA332" s="21"/>
     </row>
     <row r="333">
-      <c r="A333" s="28"/>
+      <c r="A333" s="29"/>
       <c r="B333" s="21"/>
       <c r="C333" s="21"/>
       <c r="D333" s="21"/>
@@ -49626,7 +49641,7 @@
       <c r="AA333" s="21"/>
     </row>
     <row r="334">
-      <c r="A334" s="28"/>
+      <c r="A334" s="29"/>
       <c r="B334" s="21"/>
       <c r="C334" s="21"/>
       <c r="D334" s="21"/>
@@ -49655,7 +49670,7 @@
       <c r="AA334" s="21"/>
     </row>
     <row r="335">
-      <c r="A335" s="28"/>
+      <c r="A335" s="29"/>
       <c r="B335" s="21"/>
       <c r="C335" s="21"/>
       <c r="D335" s="21"/>
@@ -49684,7 +49699,7 @@
       <c r="AA335" s="21"/>
     </row>
     <row r="336">
-      <c r="A336" s="28"/>
+      <c r="A336" s="29"/>
       <c r="B336" s="21"/>
       <c r="C336" s="21"/>
       <c r="D336" s="21"/>
@@ -49713,7 +49728,7 @@
       <c r="AA336" s="21"/>
     </row>
     <row r="337">
-      <c r="A337" s="28"/>
+      <c r="A337" s="29"/>
       <c r="B337" s="21"/>
       <c r="C337" s="21"/>
       <c r="D337" s="21"/>
@@ -49742,7 +49757,7 @@
       <c r="AA337" s="21"/>
     </row>
     <row r="338">
-      <c r="A338" s="28"/>
+      <c r="A338" s="29"/>
       <c r="B338" s="21"/>
       <c r="C338" s="21"/>
       <c r="D338" s="21"/>
@@ -49771,7 +49786,7 @@
       <c r="AA338" s="21"/>
     </row>
     <row r="339">
-      <c r="A339" s="28"/>
+      <c r="A339" s="29"/>
       <c r="B339" s="21"/>
       <c r="C339" s="21"/>
       <c r="D339" s="21"/>
@@ -49800,7 +49815,7 @@
       <c r="AA339" s="21"/>
     </row>
     <row r="340">
-      <c r="A340" s="28"/>
+      <c r="A340" s="29"/>
       <c r="B340" s="21"/>
       <c r="C340" s="21"/>
       <c r="D340" s="21"/>
@@ -49829,7 +49844,7 @@
       <c r="AA340" s="21"/>
     </row>
     <row r="341">
-      <c r="A341" s="28"/>
+      <c r="A341" s="29"/>
       <c r="B341" s="21"/>
       <c r="C341" s="21"/>
       <c r="D341" s="21"/>
@@ -49858,7 +49873,7 @@
       <c r="AA341" s="21"/>
     </row>
     <row r="342">
-      <c r="A342" s="28"/>
+      <c r="A342" s="29"/>
       <c r="B342" s="21"/>
       <c r="C342" s="21"/>
       <c r="D342" s="21"/>
@@ -49887,7 +49902,7 @@
       <c r="AA342" s="21"/>
     </row>
     <row r="343">
-      <c r="A343" s="28"/>
+      <c r="A343" s="29"/>
       <c r="B343" s="21"/>
       <c r="C343" s="21"/>
       <c r="D343" s="21"/>
@@ -49916,7 +49931,7 @@
       <c r="AA343" s="21"/>
     </row>
     <row r="344">
-      <c r="A344" s="28"/>
+      <c r="A344" s="29"/>
       <c r="B344" s="21"/>
       <c r="C344" s="21"/>
       <c r="D344" s="21"/>
@@ -49945,7 +49960,7 @@
       <c r="AA344" s="21"/>
     </row>
     <row r="345">
-      <c r="A345" s="28"/>
+      <c r="A345" s="29"/>
       <c r="B345" s="21"/>
       <c r="C345" s="21"/>
       <c r="D345" s="21"/>
@@ -49974,7 +49989,7 @@
       <c r="AA345" s="21"/>
     </row>
     <row r="346">
-      <c r="A346" s="28"/>
+      <c r="A346" s="29"/>
       <c r="B346" s="21"/>
       <c r="C346" s="21"/>
       <c r="D346" s="21"/>
@@ -50003,7 +50018,7 @@
       <c r="AA346" s="21"/>
     </row>
     <row r="347">
-      <c r="A347" s="28"/>
+      <c r="A347" s="29"/>
       <c r="B347" s="21"/>
       <c r="C347" s="21"/>
       <c r="D347" s="21"/>
@@ -50032,7 +50047,7 @@
       <c r="AA347" s="21"/>
     </row>
     <row r="348">
-      <c r="A348" s="28"/>
+      <c r="A348" s="29"/>
       <c r="B348" s="21"/>
       <c r="C348" s="21"/>
       <c r="D348" s="21"/>
@@ -50061,7 +50076,7 @@
       <c r="AA348" s="21"/>
     </row>
     <row r="349">
-      <c r="A349" s="28"/>
+      <c r="A349" s="29"/>
       <c r="B349" s="21"/>
       <c r="C349" s="21"/>
       <c r="D349" s="21"/>
@@ -50090,7 +50105,7 @@
       <c r="AA349" s="21"/>
     </row>
     <row r="350">
-      <c r="A350" s="28"/>
+      <c r="A350" s="29"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
       <c r="D350" s="21"/>
@@ -50119,7 +50134,7 @@
       <c r="AA350" s="21"/>
     </row>
     <row r="351">
-      <c r="A351" s="28"/>
+      <c r="A351" s="29"/>
       <c r="B351" s="21"/>
       <c r="C351" s="21"/>
       <c r="D351" s="21"/>
@@ -50148,7 +50163,7 @@
       <c r="AA351" s="21"/>
     </row>
     <row r="352">
-      <c r="A352" s="28"/>
+      <c r="A352" s="29"/>
       <c r="B352" s="21"/>
       <c r="C352" s="21"/>
       <c r="D352" s="21"/>
@@ -50177,7 +50192,7 @@
       <c r="AA352" s="21"/>
     </row>
     <row r="353">
-      <c r="A353" s="28"/>
+      <c r="A353" s="29"/>
       <c r="B353" s="21"/>
       <c r="C353" s="21"/>
       <c r="D353" s="21"/>
@@ -50206,7 +50221,7 @@
       <c r="AA353" s="21"/>
     </row>
     <row r="354">
-      <c r="A354" s="28"/>
+      <c r="A354" s="29"/>
       <c r="B354" s="21"/>
       <c r="C354" s="21"/>
       <c r="D354" s="21"/>
@@ -50235,7 +50250,7 @@
       <c r="AA354" s="21"/>
     </row>
     <row r="355">
-      <c r="A355" s="28"/>
+      <c r="A355" s="29"/>
       <c r="B355" s="21"/>
       <c r="C355" s="21"/>
       <c r="D355" s="21"/>
@@ -50264,7 +50279,7 @@
       <c r="AA355" s="21"/>
     </row>
     <row r="356">
-      <c r="A356" s="28"/>
+      <c r="A356" s="29"/>
       <c r="B356" s="21"/>
       <c r="C356" s="21"/>
       <c r="D356" s="21"/>
@@ -50293,7 +50308,7 @@
       <c r="AA356" s="21"/>
     </row>
     <row r="357">
-      <c r="A357" s="28"/>
+      <c r="A357" s="29"/>
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
       <c r="D357" s="21"/>
@@ -50322,7 +50337,7 @@
       <c r="AA357" s="21"/>
     </row>
     <row r="358">
-      <c r="A358" s="28"/>
+      <c r="A358" s="29"/>
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
@@ -50351,7 +50366,7 @@
       <c r="AA358" s="21"/>
     </row>
     <row r="359">
-      <c r="A359" s="28"/>
+      <c r="A359" s="29"/>
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
       <c r="D359" s="21"/>
@@ -50380,7 +50395,7 @@
       <c r="AA359" s="21"/>
     </row>
     <row r="360">
-      <c r="A360" s="28"/>
+      <c r="A360" s="29"/>
       <c r="B360" s="21"/>
       <c r="C360" s="21"/>
       <c r="D360" s="21"/>
@@ -50409,7 +50424,7 @@
       <c r="AA360" s="21"/>
     </row>
     <row r="361">
-      <c r="A361" s="28"/>
+      <c r="A361" s="29"/>
       <c r="B361" s="21"/>
       <c r="C361" s="21"/>
       <c r="D361" s="21"/>
@@ -50438,7 +50453,7 @@
       <c r="AA361" s="21"/>
     </row>
     <row r="362">
-      <c r="A362" s="28"/>
+      <c r="A362" s="29"/>
       <c r="B362" s="21"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
@@ -50467,7 +50482,7 @@
       <c r="AA362" s="21"/>
     </row>
     <row r="363">
-      <c r="A363" s="28"/>
+      <c r="A363" s="29"/>
       <c r="B363" s="21"/>
       <c r="C363" s="21"/>
       <c r="D363" s="21"/>
@@ -50496,7 +50511,7 @@
       <c r="AA363" s="21"/>
     </row>
     <row r="364">
-      <c r="A364" s="28"/>
+      <c r="A364" s="29"/>
       <c r="B364" s="21"/>
       <c r="C364" s="21"/>
       <c r="D364" s="21"/>
@@ -50525,7 +50540,7 @@
       <c r="AA364" s="21"/>
     </row>
     <row r="365">
-      <c r="A365" s="28"/>
+      <c r="A365" s="29"/>
       <c r="B365" s="21"/>
       <c r="C365" s="21"/>
       <c r="D365" s="21"/>
@@ -50554,7 +50569,7 @@
       <c r="AA365" s="21"/>
     </row>
     <row r="366">
-      <c r="A366" s="28"/>
+      <c r="A366" s="29"/>
       <c r="B366" s="21"/>
       <c r="C366" s="21"/>
       <c r="D366" s="21"/>
@@ -50583,7 +50598,7 @@
       <c r="AA366" s="21"/>
     </row>
     <row r="367">
-      <c r="A367" s="28"/>
+      <c r="A367" s="29"/>
       <c r="B367" s="21"/>
       <c r="C367" s="21"/>
       <c r="D367" s="21"/>
@@ -50612,7 +50627,7 @@
       <c r="AA367" s="21"/>
     </row>
     <row r="368">
-      <c r="A368" s="28"/>
+      <c r="A368" s="29"/>
       <c r="B368" s="21"/>
       <c r="C368" s="21"/>
       <c r="D368" s="21"/>
@@ -50641,7 +50656,7 @@
       <c r="AA368" s="21"/>
     </row>
     <row r="369">
-      <c r="A369" s="28"/>
+      <c r="A369" s="29"/>
       <c r="B369" s="21"/>
       <c r="C369" s="21"/>
       <c r="D369" s="21"/>
@@ -50670,7 +50685,7 @@
       <c r="AA369" s="21"/>
     </row>
     <row r="370">
-      <c r="A370" s="28"/>
+      <c r="A370" s="29"/>
       <c r="B370" s="21"/>
       <c r="C370" s="21"/>
       <c r="D370" s="21"/>
@@ -50699,7 +50714,7 @@
       <c r="AA370" s="21"/>
     </row>
     <row r="371">
-      <c r="A371" s="28"/>
+      <c r="A371" s="29"/>
       <c r="B371" s="21"/>
       <c r="C371" s="21"/>
       <c r="D371" s="21"/>
@@ -50728,7 +50743,7 @@
       <c r="AA371" s="21"/>
     </row>
     <row r="372">
-      <c r="A372" s="28"/>
+      <c r="A372" s="29"/>
       <c r="B372" s="21"/>
       <c r="C372" s="21"/>
       <c r="D372" s="21"/>
@@ -50757,7 +50772,7 @@
       <c r="AA372" s="21"/>
     </row>
     <row r="373">
-      <c r="A373" s="28"/>
+      <c r="A373" s="29"/>
       <c r="B373" s="21"/>
       <c r="C373" s="21"/>
       <c r="D373" s="21"/>
@@ -50786,7 +50801,7 @@
       <c r="AA373" s="21"/>
     </row>
     <row r="374">
-      <c r="A374" s="28"/>
+      <c r="A374" s="29"/>
       <c r="B374" s="21"/>
       <c r="C374" s="21"/>
       <c r="D374" s="21"/>
@@ -50815,7 +50830,7 @@
       <c r="AA374" s="21"/>
     </row>
     <row r="375">
-      <c r="A375" s="28"/>
+      <c r="A375" s="29"/>
       <c r="B375" s="21"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
@@ -50844,7 +50859,7 @@
       <c r="AA375" s="21"/>
     </row>
     <row r="376">
-      <c r="A376" s="28"/>
+      <c r="A376" s="29"/>
       <c r="B376" s="21"/>
       <c r="C376" s="21"/>
       <c r="D376" s="21"/>
@@ -50873,7 +50888,7 @@
       <c r="AA376" s="21"/>
     </row>
     <row r="377">
-      <c r="A377" s="28"/>
+      <c r="A377" s="29"/>
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
@@ -50902,7 +50917,7 @@
       <c r="AA377" s="21"/>
     </row>
     <row r="378">
-      <c r="A378" s="28"/>
+      <c r="A378" s="29"/>
       <c r="B378" s="21"/>
       <c r="C378" s="21"/>
       <c r="D378" s="21"/>
@@ -50931,7 +50946,7 @@
       <c r="AA378" s="21"/>
     </row>
     <row r="379">
-      <c r="A379" s="28"/>
+      <c r="A379" s="29"/>
       <c r="B379" s="21"/>
       <c r="C379" s="21"/>
       <c r="D379" s="21"/>
@@ -50960,7 +50975,7 @@
       <c r="AA379" s="21"/>
     </row>
     <row r="380">
-      <c r="A380" s="28"/>
+      <c r="A380" s="29"/>
       <c r="B380" s="21"/>
       <c r="C380" s="21"/>
       <c r="D380" s="21"/>
@@ -50989,7 +51004,7 @@
       <c r="AA380" s="21"/>
     </row>
     <row r="381">
-      <c r="A381" s="28"/>
+      <c r="A381" s="29"/>
       <c r="B381" s="21"/>
       <c r="C381" s="21"/>
       <c r="D381" s="21"/>
@@ -51018,7 +51033,7 @@
       <c r="AA381" s="21"/>
     </row>
     <row r="382">
-      <c r="A382" s="28"/>
+      <c r="A382" s="29"/>
       <c r="B382" s="21"/>
       <c r="C382" s="21"/>
       <c r="D382" s="21"/>
@@ -51047,7 +51062,7 @@
       <c r="AA382" s="21"/>
     </row>
     <row r="383">
-      <c r="A383" s="28"/>
+      <c r="A383" s="29"/>
       <c r="B383" s="21"/>
       <c r="C383" s="21"/>
       <c r="D383" s="21"/>
@@ -51076,7 +51091,7 @@
       <c r="AA383" s="21"/>
     </row>
     <row r="384">
-      <c r="A384" s="28"/>
+      <c r="A384" s="29"/>
       <c r="B384" s="21"/>
       <c r="C384" s="21"/>
       <c r="D384" s="21"/>
@@ -51105,7 +51120,7 @@
       <c r="AA384" s="21"/>
     </row>
     <row r="385">
-      <c r="A385" s="28"/>
+      <c r="A385" s="29"/>
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
@@ -51134,7 +51149,7 @@
       <c r="AA385" s="21"/>
     </row>
     <row r="386">
-      <c r="A386" s="28"/>
+      <c r="A386" s="29"/>
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
       <c r="D386" s="21"/>
@@ -51163,7 +51178,7 @@
       <c r="AA386" s="21"/>
     </row>
     <row r="387">
-      <c r="A387" s="28"/>
+      <c r="A387" s="29"/>
       <c r="B387" s="21"/>
       <c r="C387" s="21"/>
       <c r="D387" s="21"/>
@@ -51192,7 +51207,7 @@
       <c r="AA387" s="21"/>
     </row>
     <row r="388">
-      <c r="A388" s="28"/>
+      <c r="A388" s="29"/>
       <c r="B388" s="21"/>
       <c r="C388" s="21"/>
       <c r="D388" s="21"/>
@@ -51221,7 +51236,7 @@
       <c r="AA388" s="21"/>
     </row>
     <row r="389">
-      <c r="A389" s="28"/>
+      <c r="A389" s="29"/>
       <c r="B389" s="21"/>
       <c r="C389" s="21"/>
       <c r="D389" s="21"/>
@@ -51250,7 +51265,7 @@
       <c r="AA389" s="21"/>
     </row>
     <row r="390">
-      <c r="A390" s="28"/>
+      <c r="A390" s="29"/>
       <c r="B390" s="21"/>
       <c r="C390" s="21"/>
       <c r="D390" s="21"/>
@@ -51279,7 +51294,7 @@
       <c r="AA390" s="21"/>
     </row>
     <row r="391">
-      <c r="A391" s="28"/>
+      <c r="A391" s="29"/>
       <c r="B391" s="21"/>
       <c r="C391" s="21"/>
       <c r="D391" s="21"/>
@@ -51308,7 +51323,7 @@
       <c r="AA391" s="21"/>
     </row>
     <row r="392">
-      <c r="A392" s="28"/>
+      <c r="A392" s="29"/>
       <c r="B392" s="21"/>
       <c r="C392" s="21"/>
       <c r="D392" s="21"/>
@@ -51337,7 +51352,7 @@
       <c r="AA392" s="21"/>
     </row>
     <row r="393">
-      <c r="A393" s="28"/>
+      <c r="A393" s="29"/>
       <c r="B393" s="21"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
@@ -51366,7 +51381,7 @@
       <c r="AA393" s="21"/>
     </row>
     <row r="394">
-      <c r="A394" s="28"/>
+      <c r="A394" s="29"/>
       <c r="B394" s="21"/>
       <c r="C394" s="21"/>
       <c r="D394" s="21"/>
@@ -51395,7 +51410,7 @@
       <c r="AA394" s="21"/>
     </row>
     <row r="395">
-      <c r="A395" s="28"/>
+      <c r="A395" s="29"/>
       <c r="B395" s="21"/>
       <c r="C395" s="21"/>
       <c r="D395" s="21"/>
@@ -51424,7 +51439,7 @@
       <c r="AA395" s="21"/>
     </row>
     <row r="396">
-      <c r="A396" s="28"/>
+      <c r="A396" s="29"/>
       <c r="B396" s="21"/>
       <c r="C396" s="21"/>
       <c r="D396" s="21"/>
@@ -51453,7 +51468,7 @@
       <c r="AA396" s="21"/>
     </row>
     <row r="397">
-      <c r="A397" s="28"/>
+      <c r="A397" s="29"/>
       <c r="B397" s="21"/>
       <c r="C397" s="21"/>
       <c r="D397" s="21"/>
@@ -51482,7 +51497,7 @@
       <c r="AA397" s="21"/>
     </row>
     <row r="398">
-      <c r="A398" s="28"/>
+      <c r="A398" s="29"/>
       <c r="B398" s="21"/>
       <c r="C398" s="21"/>
       <c r="D398" s="21"/>
@@ -51511,7 +51526,7 @@
       <c r="AA398" s="21"/>
     </row>
     <row r="399">
-      <c r="A399" s="28"/>
+      <c r="A399" s="29"/>
       <c r="B399" s="21"/>
       <c r="C399" s="21"/>
       <c r="D399" s="21"/>
@@ -51540,7 +51555,7 @@
       <c r="AA399" s="21"/>
     </row>
     <row r="400">
-      <c r="A400" s="28"/>
+      <c r="A400" s="29"/>
       <c r="B400" s="21"/>
       <c r="C400" s="21"/>
       <c r="D400" s="21"/>
@@ -51569,7 +51584,7 @@
       <c r="AA400" s="21"/>
     </row>
     <row r="401">
-      <c r="A401" s="28"/>
+      <c r="A401" s="29"/>
       <c r="B401" s="21"/>
       <c r="C401" s="21"/>
       <c r="D401" s="21"/>
@@ -51598,7 +51613,7 @@
       <c r="AA401" s="21"/>
     </row>
     <row r="402">
-      <c r="A402" s="28"/>
+      <c r="A402" s="29"/>
       <c r="B402" s="21"/>
       <c r="C402" s="21"/>
       <c r="D402" s="21"/>
@@ -51627,7 +51642,7 @@
       <c r="AA402" s="21"/>
     </row>
     <row r="403">
-      <c r="A403" s="28"/>
+      <c r="A403" s="29"/>
       <c r="B403" s="21"/>
       <c r="C403" s="21"/>
       <c r="D403" s="21"/>
@@ -51656,7 +51671,7 @@
       <c r="AA403" s="21"/>
     </row>
     <row r="404">
-      <c r="A404" s="28"/>
+      <c r="A404" s="29"/>
       <c r="B404" s="21"/>
       <c r="C404" s="21"/>
       <c r="D404" s="21"/>
@@ -51685,7 +51700,7 @@
       <c r="AA404" s="21"/>
     </row>
     <row r="405">
-      <c r="A405" s="28"/>
+      <c r="A405" s="29"/>
       <c r="B405" s="21"/>
       <c r="C405" s="21"/>
       <c r="D405" s="21"/>
@@ -51714,7 +51729,7 @@
       <c r="AA405" s="21"/>
     </row>
     <row r="406">
-      <c r="A406" s="28"/>
+      <c r="A406" s="29"/>
       <c r="B406" s="21"/>
       <c r="C406" s="21"/>
       <c r="D406" s="21"/>
@@ -51743,7 +51758,7 @@
       <c r="AA406" s="21"/>
     </row>
     <row r="407">
-      <c r="A407" s="28"/>
+      <c r="A407" s="29"/>
       <c r="B407" s="21"/>
       <c r="C407" s="21"/>
       <c r="D407" s="21"/>
@@ -51772,7 +51787,7 @@
       <c r="AA407" s="21"/>
     </row>
     <row r="408">
-      <c r="A408" s="28"/>
+      <c r="A408" s="29"/>
       <c r="B408" s="21"/>
       <c r="C408" s="21"/>
       <c r="D408" s="21"/>
@@ -51801,7 +51816,7 @@
       <c r="AA408" s="21"/>
     </row>
     <row r="409">
-      <c r="A409" s="28"/>
+      <c r="A409" s="29"/>
       <c r="B409" s="21"/>
       <c r="C409" s="21"/>
       <c r="D409" s="21"/>
@@ -51830,7 +51845,7 @@
       <c r="AA409" s="21"/>
     </row>
     <row r="410">
-      <c r="A410" s="28"/>
+      <c r="A410" s="29"/>
       <c r="B410" s="21"/>
       <c r="C410" s="21"/>
       <c r="D410" s="21"/>
@@ -51859,7 +51874,7 @@
       <c r="AA410" s="21"/>
     </row>
     <row r="411">
-      <c r="A411" s="28"/>
+      <c r="A411" s="29"/>
       <c r="B411" s="21"/>
       <c r="C411" s="21"/>
       <c r="D411" s="21"/>
@@ -51888,7 +51903,7 @@
       <c r="AA411" s="21"/>
     </row>
     <row r="412">
-      <c r="A412" s="28"/>
+      <c r="A412" s="29"/>
       <c r="B412" s="21"/>
       <c r="C412" s="21"/>
       <c r="D412" s="21"/>
@@ -51917,7 +51932,7 @@
       <c r="AA412" s="21"/>
     </row>
     <row r="413">
-      <c r="A413" s="28"/>
+      <c r="A413" s="29"/>
       <c r="B413" s="21"/>
       <c r="C413" s="21"/>
       <c r="D413" s="21"/>
@@ -51946,7 +51961,7 @@
       <c r="AA413" s="21"/>
     </row>
     <row r="414">
-      <c r="A414" s="28"/>
+      <c r="A414" s="29"/>
       <c r="B414" s="21"/>
       <c r="C414" s="21"/>
       <c r="D414" s="21"/>
@@ -51975,7 +51990,7 @@
       <c r="AA414" s="21"/>
     </row>
     <row r="415">
-      <c r="A415" s="28"/>
+      <c r="A415" s="29"/>
       <c r="B415" s="21"/>
       <c r="C415" s="21"/>
       <c r="D415" s="21"/>
@@ -52004,7 +52019,7 @@
       <c r="AA415" s="21"/>
     </row>
     <row r="416">
-      <c r="A416" s="28"/>
+      <c r="A416" s="29"/>
       <c r="B416" s="21"/>
       <c r="C416" s="21"/>
       <c r="D416" s="21"/>
@@ -52033,7 +52048,7 @@
       <c r="AA416" s="21"/>
     </row>
     <row r="417">
-      <c r="A417" s="28"/>
+      <c r="A417" s="29"/>
       <c r="B417" s="21"/>
       <c r="C417" s="21"/>
       <c r="D417" s="21"/>
@@ -52062,7 +52077,7 @@
       <c r="AA417" s="21"/>
     </row>
     <row r="418">
-      <c r="A418" s="28"/>
+      <c r="A418" s="29"/>
       <c r="B418" s="21"/>
       <c r="C418" s="21"/>
       <c r="D418" s="21"/>
@@ -52091,7 +52106,7 @@
       <c r="AA418" s="21"/>
     </row>
     <row r="419">
-      <c r="A419" s="28"/>
+      <c r="A419" s="29"/>
       <c r="B419" s="21"/>
       <c r="C419" s="21"/>
       <c r="D419" s="21"/>
@@ -52120,7 +52135,7 @@
       <c r="AA419" s="21"/>
     </row>
     <row r="420">
-      <c r="A420" s="28"/>
+      <c r="A420" s="29"/>
       <c r="B420" s="21"/>
       <c r="C420" s="21"/>
       <c r="D420" s="21"/>
@@ -52149,7 +52164,7 @@
       <c r="AA420" s="21"/>
     </row>
     <row r="421">
-      <c r="A421" s="28"/>
+      <c r="A421" s="29"/>
       <c r="B421" s="21"/>
       <c r="C421" s="21"/>
       <c r="D421" s="21"/>
@@ -52178,7 +52193,7 @@
       <c r="AA421" s="21"/>
     </row>
     <row r="422">
-      <c r="A422" s="28"/>
+      <c r="A422" s="29"/>
       <c r="B422" s="21"/>
       <c r="C422" s="21"/>
       <c r="D422" s="21"/>
@@ -52207,7 +52222,7 @@
       <c r="AA422" s="21"/>
     </row>
     <row r="423">
-      <c r="A423" s="28"/>
+      <c r="A423" s="29"/>
       <c r="B423" s="21"/>
       <c r="C423" s="21"/>
       <c r="D423" s="21"/>
@@ -52236,7 +52251,7 @@
       <c r="AA423" s="21"/>
     </row>
     <row r="424">
-      <c r="A424" s="28"/>
+      <c r="A424" s="29"/>
       <c r="B424" s="21"/>
       <c r="C424" s="21"/>
       <c r="D424" s="21"/>
@@ -52265,7 +52280,7 @@
       <c r="AA424" s="21"/>
     </row>
     <row r="425">
-      <c r="A425" s="28"/>
+      <c r="A425" s="29"/>
       <c r="B425" s="21"/>
       <c r="C425" s="21"/>
       <c r="D425" s="21"/>
@@ -52294,7 +52309,7 @@
       <c r="AA425" s="21"/>
     </row>
     <row r="426">
-      <c r="A426" s="28"/>
+      <c r="A426" s="29"/>
       <c r="B426" s="21"/>
       <c r="C426" s="21"/>
       <c r="D426" s="21"/>
@@ -52323,7 +52338,7 @@
       <c r="AA426" s="21"/>
     </row>
     <row r="427">
-      <c r="A427" s="28"/>
+      <c r="A427" s="29"/>
       <c r="B427" s="21"/>
       <c r="C427" s="21"/>
       <c r="D427" s="21"/>
@@ -52352,7 +52367,7 @@
       <c r="AA427" s="21"/>
     </row>
     <row r="428">
-      <c r="A428" s="28"/>
+      <c r="A428" s="29"/>
       <c r="B428" s="21"/>
       <c r="C428" s="21"/>
       <c r="D428" s="21"/>
@@ -52381,7 +52396,7 @@
       <c r="AA428" s="21"/>
     </row>
     <row r="429">
-      <c r="A429" s="28"/>
+      <c r="A429" s="29"/>
       <c r="B429" s="21"/>
       <c r="C429" s="21"/>
       <c r="D429" s="21"/>
@@ -52410,7 +52425,7 @@
       <c r="AA429" s="21"/>
     </row>
     <row r="430">
-      <c r="A430" s="28"/>
+      <c r="A430" s="29"/>
       <c r="B430" s="21"/>
       <c r="C430" s="21"/>
       <c r="D430" s="21"/>
@@ -52439,7 +52454,7 @@
       <c r="AA430" s="21"/>
     </row>
     <row r="431">
-      <c r="A431" s="28"/>
+      <c r="A431" s="29"/>
       <c r="B431" s="21"/>
       <c r="C431" s="21"/>
       <c r="D431" s="21"/>
@@ -52468,7 +52483,7 @@
       <c r="AA431" s="21"/>
     </row>
     <row r="432">
-      <c r="A432" s="28"/>
+      <c r="A432" s="29"/>
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
       <c r="D432" s="21"/>
@@ -52497,7 +52512,7 @@
       <c r="AA432" s="21"/>
     </row>
     <row r="433">
-      <c r="A433" s="28"/>
+      <c r="A433" s="29"/>
       <c r="B433" s="21"/>
       <c r="C433" s="21"/>
       <c r="D433" s="21"/>
@@ -52526,7 +52541,7 @@
       <c r="AA433" s="21"/>
     </row>
     <row r="434">
-      <c r="A434" s="28"/>
+      <c r="A434" s="29"/>
       <c r="B434" s="21"/>
       <c r="C434" s="21"/>
       <c r="D434" s="21"/>
@@ -52555,7 +52570,7 @@
       <c r="AA434" s="21"/>
     </row>
     <row r="435">
-      <c r="A435" s="28"/>
+      <c r="A435" s="29"/>
       <c r="B435" s="21"/>
       <c r="C435" s="21"/>
       <c r="D435" s="21"/>
@@ -52584,7 +52599,7 @@
       <c r="AA435" s="21"/>
     </row>
     <row r="436">
-      <c r="A436" s="28"/>
+      <c r="A436" s="29"/>
       <c r="B436" s="21"/>
       <c r="C436" s="21"/>
       <c r="D436" s="21"/>
@@ -52613,7 +52628,7 @@
       <c r="AA436" s="21"/>
     </row>
     <row r="437">
-      <c r="A437" s="28"/>
+      <c r="A437" s="29"/>
       <c r="B437" s="21"/>
       <c r="C437" s="21"/>
       <c r="D437" s="21"/>
@@ -52642,7 +52657,7 @@
       <c r="AA437" s="21"/>
     </row>
     <row r="438">
-      <c r="A438" s="28"/>
+      <c r="A438" s="29"/>
       <c r="B438" s="21"/>
       <c r="C438" s="21"/>
       <c r="D438" s="21"/>
@@ -52671,7 +52686,7 @@
       <c r="AA438" s="21"/>
     </row>
     <row r="439">
-      <c r="A439" s="28"/>
+      <c r="A439" s="29"/>
       <c r="B439" s="21"/>
       <c r="C439" s="21"/>
       <c r="D439" s="21"/>
@@ -52700,7 +52715,7 @@
       <c r="AA439" s="21"/>
     </row>
     <row r="440">
-      <c r="A440" s="28"/>
+      <c r="A440" s="29"/>
       <c r="B440" s="21"/>
       <c r="C440" s="21"/>
       <c r="D440" s="21"/>
@@ -52729,7 +52744,7 @@
       <c r="AA440" s="21"/>
     </row>
     <row r="441">
-      <c r="A441" s="28"/>
+      <c r="A441" s="29"/>
       <c r="B441" s="21"/>
       <c r="C441" s="21"/>
       <c r="D441" s="21"/>
@@ -52758,7 +52773,7 @@
       <c r="AA441" s="21"/>
     </row>
     <row r="442">
-      <c r="A442" s="28"/>
+      <c r="A442" s="29"/>
       <c r="B442" s="21"/>
       <c r="C442" s="21"/>
       <c r="D442" s="21"/>
@@ -52787,7 +52802,7 @@
       <c r="AA442" s="21"/>
     </row>
     <row r="443">
-      <c r="A443" s="28"/>
+      <c r="A443" s="29"/>
       <c r="B443" s="21"/>
       <c r="C443" s="21"/>
       <c r="D443" s="21"/>
@@ -52816,7 +52831,7 @@
       <c r="AA443" s="21"/>
     </row>
     <row r="444">
-      <c r="A444" s="28"/>
+      <c r="A444" s="29"/>
       <c r="B444" s="21"/>
       <c r="C444" s="21"/>
       <c r="D444" s="21"/>
@@ -52845,7 +52860,7 @@
       <c r="AA444" s="21"/>
     </row>
     <row r="445">
-      <c r="A445" s="28"/>
+      <c r="A445" s="29"/>
       <c r="B445" s="21"/>
       <c r="C445" s="21"/>
       <c r="D445" s="21"/>
@@ -52874,7 +52889,7 @@
       <c r="AA445" s="21"/>
     </row>
     <row r="446">
-      <c r="A446" s="28"/>
+      <c r="A446" s="29"/>
       <c r="B446" s="21"/>
       <c r="C446" s="21"/>
       <c r="D446" s="21"/>
@@ -52903,7 +52918,7 @@
       <c r="AA446" s="21"/>
     </row>
     <row r="447">
-      <c r="A447" s="28"/>
+      <c r="A447" s="29"/>
       <c r="B447" s="21"/>
       <c r="C447" s="21"/>
       <c r="D447" s="21"/>
@@ -52932,7 +52947,7 @@
       <c r="AA447" s="21"/>
     </row>
     <row r="448">
-      <c r="A448" s="28"/>
+      <c r="A448" s="29"/>
       <c r="B448" s="21"/>
       <c r="C448" s="21"/>
       <c r="D448" s="21"/>
@@ -52961,7 +52976,7 @@
       <c r="AA448" s="21"/>
     </row>
     <row r="449">
-      <c r="A449" s="28"/>
+      <c r="A449" s="29"/>
       <c r="B449" s="21"/>
       <c r="C449" s="21"/>
       <c r="D449" s="21"/>
@@ -52990,7 +53005,7 @@
       <c r="AA449" s="21"/>
     </row>
     <row r="450">
-      <c r="A450" s="28"/>
+      <c r="A450" s="29"/>
       <c r="B450" s="21"/>
       <c r="C450" s="21"/>
       <c r="D450" s="21"/>
@@ -53019,7 +53034,7 @@
       <c r="AA450" s="21"/>
     </row>
     <row r="451">
-      <c r="A451" s="28"/>
+      <c r="A451" s="29"/>
       <c r="B451" s="21"/>
       <c r="C451" s="21"/>
       <c r="D451" s="21"/>
@@ -53048,7 +53063,7 @@
       <c r="AA451" s="21"/>
     </row>
     <row r="452">
-      <c r="A452" s="28"/>
+      <c r="A452" s="29"/>
       <c r="B452" s="21"/>
       <c r="C452" s="21"/>
       <c r="D452" s="21"/>
@@ -53077,7 +53092,7 @@
       <c r="AA452" s="21"/>
     </row>
     <row r="453">
-      <c r="A453" s="28"/>
+      <c r="A453" s="29"/>
       <c r="B453" s="21"/>
       <c r="C453" s="21"/>
       <c r="D453" s="21"/>
@@ -53106,7 +53121,7 @@
       <c r="AA453" s="21"/>
     </row>
     <row r="454">
-      <c r="A454" s="28"/>
+      <c r="A454" s="29"/>
       <c r="B454" s="21"/>
       <c r="C454" s="21"/>
       <c r="D454" s="21"/>
@@ -53135,7 +53150,7 @@
       <c r="AA454" s="21"/>
     </row>
     <row r="455">
-      <c r="A455" s="28"/>
+      <c r="A455" s="29"/>
       <c r="B455" s="21"/>
       <c r="C455" s="21"/>
       <c r="D455" s="21"/>
@@ -53164,7 +53179,7 @@
       <c r="AA455" s="21"/>
     </row>
     <row r="456">
-      <c r="A456" s="28"/>
+      <c r="A456" s="29"/>
       <c r="B456" s="21"/>
       <c r="C456" s="21"/>
       <c r="D456" s="21"/>
@@ -53193,7 +53208,7 @@
       <c r="AA456" s="21"/>
     </row>
     <row r="457">
-      <c r="A457" s="28"/>
+      <c r="A457" s="29"/>
       <c r="B457" s="21"/>
       <c r="C457" s="21"/>
       <c r="D457" s="21"/>
@@ -53222,7 +53237,7 @@
       <c r="AA457" s="21"/>
     </row>
     <row r="458">
-      <c r="A458" s="28"/>
+      <c r="A458" s="29"/>
       <c r="B458" s="21"/>
       <c r="C458" s="21"/>
       <c r="D458" s="21"/>
@@ -53251,7 +53266,7 @@
       <c r="AA458" s="21"/>
     </row>
     <row r="459">
-      <c r="A459" s="28"/>
+      <c r="A459" s="29"/>
       <c r="B459" s="21"/>
       <c r="C459" s="21"/>
       <c r="D459" s="21"/>
@@ -53280,7 +53295,7 @@
       <c r="AA459" s="21"/>
     </row>
     <row r="460">
-      <c r="A460" s="28"/>
+      <c r="A460" s="29"/>
       <c r="B460" s="21"/>
       <c r="C460" s="21"/>
       <c r="D460" s="21"/>
@@ -53309,7 +53324,7 @@
       <c r="AA460" s="21"/>
     </row>
     <row r="461">
-      <c r="A461" s="28"/>
+      <c r="A461" s="29"/>
       <c r="B461" s="21"/>
       <c r="C461" s="21"/>
       <c r="D461" s="21"/>
@@ -53338,7 +53353,7 @@
       <c r="AA461" s="21"/>
     </row>
     <row r="462">
-      <c r="A462" s="28"/>
+      <c r="A462" s="29"/>
       <c r="B462" s="21"/>
       <c r="C462" s="21"/>
       <c r="D462" s="21"/>
@@ -53367,7 +53382,7 @@
       <c r="AA462" s="21"/>
     </row>
     <row r="463">
-      <c r="A463" s="28"/>
+      <c r="A463" s="29"/>
       <c r="B463" s="21"/>
       <c r="C463" s="21"/>
       <c r="D463" s="21"/>
@@ -53396,7 +53411,7 @@
       <c r="AA463" s="21"/>
     </row>
     <row r="464">
-      <c r="A464" s="28"/>
+      <c r="A464" s="29"/>
       <c r="B464" s="21"/>
       <c r="C464" s="21"/>
       <c r="D464" s="21"/>
@@ -53425,7 +53440,7 @@
       <c r="AA464" s="21"/>
     </row>
     <row r="465">
-      <c r="A465" s="28"/>
+      <c r="A465" s="29"/>
       <c r="B465" s="21"/>
       <c r="C465" s="21"/>
       <c r="D465" s="21"/>
@@ -53454,7 +53469,7 @@
       <c r="AA465" s="21"/>
     </row>
     <row r="466">
-      <c r="A466" s="28"/>
+      <c r="A466" s="29"/>
       <c r="B466" s="21"/>
       <c r="C466" s="21"/>
       <c r="D466" s="21"/>
@@ -53483,7 +53498,7 @@
       <c r="AA466" s="21"/>
     </row>
     <row r="467">
-      <c r="A467" s="28"/>
+      <c r="A467" s="29"/>
       <c r="B467" s="21"/>
       <c r="C467" s="21"/>
       <c r="D467" s="21"/>
@@ -53512,7 +53527,7 @@
       <c r="AA467" s="21"/>
     </row>
     <row r="468">
-      <c r="A468" s="28"/>
+      <c r="A468" s="29"/>
       <c r="B468" s="21"/>
       <c r="C468" s="21"/>
       <c r="D468" s="21"/>
@@ -53541,7 +53556,7 @@
       <c r="AA468" s="21"/>
     </row>
     <row r="469">
-      <c r="A469" s="28"/>
+      <c r="A469" s="29"/>
       <c r="B469" s="21"/>
       <c r="C469" s="21"/>
       <c r="D469" s="21"/>
@@ -53570,7 +53585,7 @@
       <c r="AA469" s="21"/>
     </row>
     <row r="470">
-      <c r="A470" s="28"/>
+      <c r="A470" s="29"/>
       <c r="B470" s="21"/>
       <c r="C470" s="21"/>
       <c r="D470" s="21"/>
@@ -53599,7 +53614,7 @@
       <c r="AA470" s="21"/>
     </row>
     <row r="471">
-      <c r="A471" s="28"/>
+      <c r="A471" s="29"/>
       <c r="B471" s="21"/>
       <c r="C471" s="21"/>
       <c r="D471" s="21"/>
@@ -53628,7 +53643,7 @@
       <c r="AA471" s="21"/>
     </row>
     <row r="472">
-      <c r="A472" s="28"/>
+      <c r="A472" s="29"/>
       <c r="B472" s="21"/>
       <c r="C472" s="21"/>
       <c r="D472" s="21"/>
@@ -53657,7 +53672,7 @@
       <c r="AA472" s="21"/>
     </row>
     <row r="473">
-      <c r="A473" s="28"/>
+      <c r="A473" s="29"/>
       <c r="B473" s="21"/>
       <c r="C473" s="21"/>
       <c r="D473" s="21"/>
@@ -53686,7 +53701,7 @@
       <c r="AA473" s="21"/>
     </row>
     <row r="474">
-      <c r="A474" s="28"/>
+      <c r="A474" s="29"/>
       <c r="B474" s="21"/>
       <c r="C474" s="21"/>
       <c r="D474" s="21"/>
@@ -53715,7 +53730,7 @@
       <c r="AA474" s="21"/>
     </row>
     <row r="475">
-      <c r="A475" s="28"/>
+      <c r="A475" s="29"/>
       <c r="B475" s="21"/>
       <c r="C475" s="21"/>
       <c r="D475" s="21"/>
@@ -53744,7 +53759,7 @@
       <c r="AA475" s="21"/>
     </row>
     <row r="476">
-      <c r="A476" s="28"/>
+      <c r="A476" s="29"/>
       <c r="B476" s="21"/>
       <c r="C476" s="21"/>
       <c r="D476" s="21"/>
@@ -53773,7 +53788,7 @@
       <c r="AA476" s="21"/>
     </row>
     <row r="477">
-      <c r="A477" s="28"/>
+      <c r="A477" s="29"/>
       <c r="B477" s="21"/>
       <c r="C477" s="21"/>
       <c r="D477" s="21"/>
@@ -53802,7 +53817,7 @@
       <c r="AA477" s="21"/>
     </row>
     <row r="478">
-      <c r="A478" s="28"/>
+      <c r="A478" s="29"/>
       <c r="B478" s="21"/>
       <c r="C478" s="21"/>
       <c r="D478" s="21"/>
@@ -53831,7 +53846,7 @@
       <c r="AA478" s="21"/>
     </row>
     <row r="479">
-      <c r="A479" s="28"/>
+      <c r="A479" s="29"/>
       <c r="B479" s="21"/>
       <c r="C479" s="21"/>
       <c r="D479" s="21"/>
@@ -53860,7 +53875,7 @@
       <c r="AA479" s="21"/>
     </row>
     <row r="480">
-      <c r="A480" s="28"/>
+      <c r="A480" s="29"/>
       <c r="B480" s="21"/>
       <c r="C480" s="21"/>
       <c r="D480" s="21"/>
@@ -53889,7 +53904,7 @@
       <c r="AA480" s="21"/>
     </row>
     <row r="481">
-      <c r="A481" s="28"/>
+      <c r="A481" s="29"/>
       <c r="B481" s="21"/>
       <c r="C481" s="21"/>
       <c r="D481" s="21"/>
@@ -53918,7 +53933,7 @@
       <c r="AA481" s="21"/>
     </row>
     <row r="482">
-      <c r="A482" s="28"/>
+      <c r="A482" s="29"/>
       <c r="B482" s="21"/>
       <c r="C482" s="21"/>
       <c r="D482" s="21"/>
@@ -53947,7 +53962,7 @@
       <c r="AA482" s="21"/>
     </row>
     <row r="483">
-      <c r="A483" s="28"/>
+      <c r="A483" s="29"/>
       <c r="B483" s="21"/>
       <c r="C483" s="21"/>
       <c r="D483" s="21"/>
@@ -53976,7 +53991,7 @@
       <c r="AA483" s="21"/>
     </row>
     <row r="484">
-      <c r="A484" s="28"/>
+      <c r="A484" s="29"/>
       <c r="B484" s="21"/>
       <c r="C484" s="21"/>
       <c r="D484" s="21"/>
@@ -54005,7 +54020,7 @@
       <c r="AA484" s="21"/>
     </row>
     <row r="485">
-      <c r="A485" s="28"/>
+      <c r="A485" s="29"/>
       <c r="B485" s="21"/>
       <c r="C485" s="21"/>
       <c r="D485" s="21"/>
@@ -54034,7 +54049,7 @@
       <c r="AA485" s="21"/>
     </row>
     <row r="486">
-      <c r="A486" s="28"/>
+      <c r="A486" s="29"/>
       <c r="B486" s="21"/>
       <c r="C486" s="21"/>
       <c r="D486" s="21"/>
@@ -54063,7 +54078,7 @@
       <c r="AA486" s="21"/>
     </row>
     <row r="487">
-      <c r="A487" s="28"/>
+      <c r="A487" s="29"/>
       <c r="B487" s="21"/>
       <c r="C487" s="21"/>
       <c r="D487" s="21"/>
@@ -54092,7 +54107,7 @@
       <c r="AA487" s="21"/>
     </row>
     <row r="488">
-      <c r="A488" s="28"/>
+      <c r="A488" s="29"/>
       <c r="B488" s="21"/>
       <c r="C488" s="21"/>
       <c r="D488" s="21"/>
@@ -54121,7 +54136,7 @@
       <c r="AA488" s="21"/>
     </row>
     <row r="489">
-      <c r="A489" s="28"/>
+      <c r="A489" s="29"/>
       <c r="B489" s="21"/>
       <c r="C489" s="21"/>
       <c r="D489" s="21"/>
@@ -54150,7 +54165,7 @@
       <c r="AA489" s="21"/>
     </row>
     <row r="490">
-      <c r="A490" s="28"/>
+      <c r="A490" s="29"/>
       <c r="B490" s="21"/>
       <c r="C490" s="21"/>
       <c r="D490" s="21"/>
@@ -54179,7 +54194,7 @@
       <c r="AA490" s="21"/>
     </row>
     <row r="491">
-      <c r="A491" s="28"/>
+      <c r="A491" s="29"/>
       <c r="B491" s="21"/>
       <c r="C491" s="21"/>
       <c r="D491" s="21"/>
@@ -54208,7 +54223,7 @@
       <c r="AA491" s="21"/>
     </row>
     <row r="492">
-      <c r="A492" s="28"/>
+      <c r="A492" s="29"/>
       <c r="B492" s="21"/>
       <c r="C492" s="21"/>
       <c r="D492" s="21"/>
@@ -54237,7 +54252,7 @@
       <c r="AA492" s="21"/>
     </row>
     <row r="493">
-      <c r="A493" s="28"/>
+      <c r="A493" s="29"/>
       <c r="B493" s="21"/>
       <c r="C493" s="21"/>
       <c r="D493" s="21"/>
@@ -54266,7 +54281,7 @@
       <c r="AA493" s="21"/>
     </row>
     <row r="494">
-      <c r="A494" s="28"/>
+      <c r="A494" s="29"/>
       <c r="B494" s="21"/>
       <c r="C494" s="21"/>
       <c r="D494" s="21"/>
@@ -54295,7 +54310,7 @@
       <c r="AA494" s="21"/>
     </row>
     <row r="495">
-      <c r="A495" s="28"/>
+      <c r="A495" s="29"/>
       <c r="B495" s="21"/>
       <c r="C495" s="21"/>
       <c r="D495" s="21"/>
@@ -54324,7 +54339,7 @@
       <c r="AA495" s="21"/>
     </row>
     <row r="496">
-      <c r="A496" s="28"/>
+      <c r="A496" s="29"/>
       <c r="B496" s="21"/>
       <c r="C496" s="21"/>
       <c r="D496" s="21"/>
@@ -54353,7 +54368,7 @@
       <c r="AA496" s="21"/>
     </row>
     <row r="497">
-      <c r="A497" s="28"/>
+      <c r="A497" s="29"/>
       <c r="B497" s="21"/>
       <c r="C497" s="21"/>
       <c r="D497" s="21"/>
@@ -54382,7 +54397,7 @@
       <c r="AA497" s="21"/>
     </row>
     <row r="498">
-      <c r="A498" s="28"/>
+      <c r="A498" s="29"/>
       <c r="B498" s="21"/>
       <c r="C498" s="21"/>
       <c r="D498" s="21"/>
@@ -54411,7 +54426,7 @@
       <c r="AA498" s="21"/>
     </row>
     <row r="499">
-      <c r="A499" s="28"/>
+      <c r="A499" s="29"/>
       <c r="B499" s="21"/>
       <c r="C499" s="21"/>
       <c r="D499" s="21"/>
@@ -54440,7 +54455,7 @@
       <c r="AA499" s="21"/>
     </row>
     <row r="500">
-      <c r="A500" s="28"/>
+      <c r="A500" s="29"/>
       <c r="B500" s="21"/>
       <c r="C500" s="21"/>
       <c r="D500" s="21"/>
@@ -54469,7 +54484,7 @@
       <c r="AA500" s="21"/>
     </row>
     <row r="501">
-      <c r="A501" s="28"/>
+      <c r="A501" s="29"/>
       <c r="B501" s="21"/>
       <c r="C501" s="21"/>
       <c r="D501" s="21"/>
@@ -54498,7 +54513,7 @@
       <c r="AA501" s="21"/>
     </row>
     <row r="502">
-      <c r="A502" s="28"/>
+      <c r="A502" s="29"/>
       <c r="B502" s="21"/>
       <c r="C502" s="21"/>
       <c r="D502" s="21"/>
@@ -54527,7 +54542,7 @@
       <c r="AA502" s="21"/>
     </row>
     <row r="503">
-      <c r="A503" s="28"/>
+      <c r="A503" s="29"/>
       <c r="B503" s="21"/>
       <c r="C503" s="21"/>
       <c r="D503" s="21"/>
@@ -54556,7 +54571,7 @@
       <c r="AA503" s="21"/>
     </row>
     <row r="504">
-      <c r="A504" s="28"/>
+      <c r="A504" s="29"/>
       <c r="B504" s="21"/>
       <c r="C504" s="21"/>
       <c r="D504" s="21"/>
@@ -54585,7 +54600,7 @@
       <c r="AA504" s="21"/>
     </row>
     <row r="505">
-      <c r="A505" s="28"/>
+      <c r="A505" s="29"/>
       <c r="B505" s="21"/>
       <c r="C505" s="21"/>
       <c r="D505" s="21"/>
@@ -54614,7 +54629,7 @@
       <c r="AA505" s="21"/>
     </row>
     <row r="506">
-      <c r="A506" s="28"/>
+      <c r="A506" s="29"/>
       <c r="B506" s="21"/>
       <c r="C506" s="21"/>
       <c r="D506" s="21"/>
@@ -54643,7 +54658,7 @@
       <c r="AA506" s="21"/>
     </row>
     <row r="507">
-      <c r="A507" s="28"/>
+      <c r="A507" s="29"/>
       <c r="B507" s="21"/>
       <c r="C507" s="21"/>
       <c r="D507" s="21"/>
@@ -54672,7 +54687,7 @@
       <c r="AA507" s="21"/>
     </row>
     <row r="508">
-      <c r="A508" s="28"/>
+      <c r="A508" s="29"/>
       <c r="B508" s="21"/>
       <c r="C508" s="21"/>
       <c r="D508" s="21"/>
@@ -54701,7 +54716,7 @@
       <c r="AA508" s="21"/>
     </row>
     <row r="509">
-      <c r="A509" s="28"/>
+      <c r="A509" s="29"/>
       <c r="B509" s="21"/>
       <c r="C509" s="21"/>
       <c r="D509" s="21"/>
@@ -54730,7 +54745,7 @@
       <c r="AA509" s="21"/>
     </row>
     <row r="510">
-      <c r="A510" s="28"/>
+      <c r="A510" s="29"/>
       <c r="B510" s="21"/>
       <c r="C510" s="21"/>
       <c r="D510" s="21"/>
@@ -54759,7 +54774,7 @@
       <c r="AA510" s="21"/>
     </row>
     <row r="511">
-      <c r="A511" s="28"/>
+      <c r="A511" s="29"/>
       <c r="B511" s="21"/>
       <c r="C511" s="21"/>
       <c r="D511" s="21"/>
@@ -54788,7 +54803,7 @@
       <c r="AA511" s="21"/>
     </row>
     <row r="512">
-      <c r="A512" s="28"/>
+      <c r="A512" s="29"/>
       <c r="B512" s="21"/>
       <c r="C512" s="21"/>
       <c r="D512" s="21"/>
@@ -54817,7 +54832,7 @@
       <c r="AA512" s="21"/>
     </row>
     <row r="513">
-      <c r="A513" s="28"/>
+      <c r="A513" s="29"/>
       <c r="B513" s="21"/>
       <c r="C513" s="21"/>
       <c r="D513" s="21"/>
@@ -54846,7 +54861,7 @@
       <c r="AA513" s="21"/>
     </row>
     <row r="514">
-      <c r="A514" s="28"/>
+      <c r="A514" s="29"/>
       <c r="B514" s="21"/>
       <c r="C514" s="21"/>
       <c r="D514" s="21"/>
@@ -54875,7 +54890,7 @@
       <c r="AA514" s="21"/>
     </row>
     <row r="515">
-      <c r="A515" s="28"/>
+      <c r="A515" s="29"/>
       <c r="B515" s="21"/>
       <c r="C515" s="21"/>
       <c r="D515" s="21"/>
@@ -54904,7 +54919,7 @@
       <c r="AA515" s="21"/>
     </row>
     <row r="516">
-      <c r="A516" s="28"/>
+      <c r="A516" s="29"/>
       <c r="B516" s="21"/>
       <c r="C516" s="21"/>
       <c r="D516" s="21"/>
@@ -54933,7 +54948,7 @@
       <c r="AA516" s="21"/>
     </row>
     <row r="517">
-      <c r="A517" s="28"/>
+      <c r="A517" s="29"/>
       <c r="B517" s="21"/>
       <c r="C517" s="21"/>
       <c r="D517" s="21"/>
@@ -54962,7 +54977,7 @@
       <c r="AA517" s="21"/>
     </row>
     <row r="518">
-      <c r="A518" s="28"/>
+      <c r="A518" s="29"/>
       <c r="B518" s="21"/>
       <c r="C518" s="21"/>
       <c r="D518" s="21"/>
@@ -54991,7 +55006,7 @@
       <c r="AA518" s="21"/>
     </row>
     <row r="519">
-      <c r="A519" s="28"/>
+      <c r="A519" s="29"/>
       <c r="B519" s="21"/>
       <c r="C519" s="21"/>
       <c r="D519" s="21"/>
@@ -55020,7 +55035,7 @@
       <c r="AA519" s="21"/>
     </row>
     <row r="520">
-      <c r="A520" s="28"/>
+      <c r="A520" s="29"/>
       <c r="B520" s="21"/>
       <c r="C520" s="21"/>
       <c r="D520" s="21"/>
@@ -55049,7 +55064,7 @@
       <c r="AA520" s="21"/>
     </row>
     <row r="521">
-      <c r="A521" s="28"/>
+      <c r="A521" s="29"/>
       <c r="B521" s="21"/>
       <c r="C521" s="21"/>
       <c r="D521" s="21"/>
@@ -55078,7 +55093,7 @@
       <c r="AA521" s="21"/>
     </row>
     <row r="522">
-      <c r="A522" s="28"/>
+      <c r="A522" s="29"/>
       <c r="B522" s="21"/>
       <c r="C522" s="21"/>
       <c r="D522" s="21"/>
@@ -55107,7 +55122,7 @@
       <c r="AA522" s="21"/>
     </row>
     <row r="523">
-      <c r="A523" s="28"/>
+      <c r="A523" s="29"/>
       <c r="B523" s="21"/>
       <c r="C523" s="21"/>
       <c r="D523" s="21"/>
@@ -55136,7 +55151,7 @@
       <c r="AA523" s="21"/>
     </row>
     <row r="524">
-      <c r="A524" s="28"/>
+      <c r="A524" s="29"/>
       <c r="B524" s="21"/>
       <c r="C524" s="21"/>
       <c r="D524" s="21"/>
@@ -55165,7 +55180,7 @@
       <c r="AA524" s="21"/>
     </row>
     <row r="525">
-      <c r="A525" s="28"/>
+      <c r="A525" s="29"/>
       <c r="B525" s="21"/>
       <c r="C525" s="21"/>
       <c r="D525" s="21"/>
@@ -55194,7 +55209,7 @@
       <c r="AA525" s="21"/>
     </row>
     <row r="526">
-      <c r="A526" s="28"/>
+      <c r="A526" s="29"/>
       <c r="B526" s="21"/>
       <c r="C526" s="21"/>
       <c r="D526" s="21"/>
@@ -55223,7 +55238,7 @@
       <c r="AA526" s="21"/>
     </row>
     <row r="527">
-      <c r="A527" s="28"/>
+      <c r="A527" s="29"/>
       <c r="B527" s="21"/>
       <c r="C527" s="21"/>
       <c r="D527" s="21"/>
@@ -55252,7 +55267,7 @@
       <c r="AA527" s="21"/>
     </row>
     <row r="528">
-      <c r="A528" s="28"/>
+      <c r="A528" s="29"/>
       <c r="B528" s="21"/>
       <c r="C528" s="21"/>
       <c r="D528" s="21"/>
@@ -55281,7 +55296,7 @@
       <c r="AA528" s="21"/>
     </row>
     <row r="529">
-      <c r="A529" s="28"/>
+      <c r="A529" s="29"/>
       <c r="B529" s="21"/>
       <c r="C529" s="21"/>
       <c r="D529" s="21"/>
@@ -55310,7 +55325,7 @@
       <c r="AA529" s="21"/>
     </row>
     <row r="530">
-      <c r="A530" s="28"/>
+      <c r="A530" s="29"/>
       <c r="B530" s="21"/>
       <c r="C530" s="21"/>
       <c r="D530" s="21"/>
@@ -55339,7 +55354,7 @@
       <c r="AA530" s="21"/>
     </row>
     <row r="531">
-      <c r="A531" s="28"/>
+      <c r="A531" s="29"/>
       <c r="B531" s="21"/>
       <c r="C531" s="21"/>
       <c r="D531" s="21"/>
@@ -55368,7 +55383,7 @@
       <c r="AA531" s="21"/>
     </row>
     <row r="532">
-      <c r="A532" s="28"/>
+      <c r="A532" s="29"/>
       <c r="B532" s="21"/>
       <c r="C532" s="21"/>
       <c r="D532" s="21"/>
@@ -55397,7 +55412,7 @@
       <c r="AA532" s="21"/>
     </row>
     <row r="533">
-      <c r="A533" s="28"/>
+      <c r="A533" s="29"/>
       <c r="B533" s="21"/>
       <c r="C533" s="21"/>
       <c r="D533" s="21"/>
@@ -55426,7 +55441,7 @@
       <c r="AA533" s="21"/>
     </row>
     <row r="534">
-      <c r="A534" s="28"/>
+      <c r="A534" s="29"/>
       <c r="B534" s="21"/>
       <c r="C534" s="21"/>
       <c r="D534" s="21"/>
@@ -55455,7 +55470,7 @@
       <c r="AA534" s="21"/>
     </row>
     <row r="535">
-      <c r="A535" s="28"/>
+      <c r="A535" s="29"/>
       <c r="B535" s="21"/>
       <c r="C535" s="21"/>
       <c r="D535" s="21"/>
@@ -55484,7 +55499,7 @@
       <c r="AA535" s="21"/>
     </row>
     <row r="536">
-      <c r="A536" s="28"/>
+      <c r="A536" s="29"/>
       <c r="B536" s="21"/>
       <c r="C536" s="21"/>
       <c r="D536" s="21"/>
@@ -55513,7 +55528,7 @@
       <c r="AA536" s="21"/>
     </row>
     <row r="537">
-      <c r="A537" s="28"/>
+      <c r="A537" s="29"/>
       <c r="B537" s="21"/>
       <c r="C537" s="21"/>
       <c r="D537" s="21"/>
@@ -55542,7 +55557,7 @@
       <c r="AA537" s="21"/>
     </row>
     <row r="538">
-      <c r="A538" s="28"/>
+      <c r="A538" s="29"/>
       <c r="B538" s="21"/>
       <c r="C538" s="21"/>
       <c r="D538" s="21"/>
@@ -55571,7 +55586,7 @@
       <c r="AA538" s="21"/>
     </row>
     <row r="539">
-      <c r="A539" s="28"/>
+      <c r="A539" s="29"/>
       <c r="B539" s="21"/>
       <c r="C539" s="21"/>
       <c r="D539" s="21"/>
@@ -55600,7 +55615,7 @@
       <c r="AA539" s="21"/>
     </row>
     <row r="540">
-      <c r="A540" s="28"/>
+      <c r="A540" s="29"/>
       <c r="B540" s="21"/>
       <c r="C540" s="21"/>
       <c r="D540" s="21"/>
@@ -55629,7 +55644,7 @@
       <c r="AA540" s="21"/>
     </row>
     <row r="541">
-      <c r="A541" s="28"/>
+      <c r="A541" s="29"/>
       <c r="B541" s="21"/>
       <c r="C541" s="21"/>
       <c r="D541" s="21"/>
@@ -55658,7 +55673,7 @@
       <c r="AA541" s="21"/>
     </row>
     <row r="542">
-      <c r="A542" s="28"/>
+      <c r="A542" s="29"/>
       <c r="B542" s="21"/>
       <c r="C542" s="21"/>
       <c r="D542" s="21"/>
@@ -55687,7 +55702,7 @@
       <c r="AA542" s="21"/>
     </row>
     <row r="543">
-      <c r="A543" s="28"/>
+      <c r="A543" s="29"/>
       <c r="B543" s="21"/>
       <c r="C543" s="21"/>
       <c r="D543" s="21"/>
@@ -55716,7 +55731,7 @@
       <c r="AA543" s="21"/>
     </row>
     <row r="544">
-      <c r="A544" s="28"/>
+      <c r="A544" s="29"/>
       <c r="B544" s="21"/>
       <c r="C544" s="21"/>
       <c r="D544" s="21"/>
@@ -55745,7 +55760,7 @@
       <c r="AA544" s="21"/>
     </row>
     <row r="545">
-      <c r="A545" s="28"/>
+      <c r="A545" s="29"/>
       <c r="B545" s="21"/>
       <c r="C545" s="21"/>
       <c r="D545" s="21"/>
@@ -55774,7 +55789,7 @@
       <c r="AA545" s="21"/>
     </row>
     <row r="546">
-      <c r="A546" s="28"/>
+      <c r="A546" s="29"/>
       <c r="B546" s="21"/>
       <c r="C546" s="21"/>
       <c r="D546" s="21"/>
@@ -55803,7 +55818,7 @@
       <c r="AA546" s="21"/>
     </row>
     <row r="547">
-      <c r="A547" s="28"/>
+      <c r="A547" s="29"/>
       <c r="B547" s="21"/>
       <c r="C547" s="21"/>
       <c r="D547" s="21"/>
@@ -55832,7 +55847,7 @@
       <c r="AA547" s="21"/>
     </row>
     <row r="548">
-      <c r="A548" s="28"/>
+      <c r="A548" s="29"/>
       <c r="B548" s="21"/>
       <c r="C548" s="21"/>
       <c r="D548" s="21"/>
@@ -55861,7 +55876,7 @@
       <c r="AA548" s="21"/>
     </row>
     <row r="549">
-      <c r="A549" s="28"/>
+      <c r="A549" s="29"/>
       <c r="B549" s="21"/>
       <c r="C549" s="21"/>
       <c r="D549" s="21"/>
@@ -55890,7 +55905,7 @@
       <c r="AA549" s="21"/>
     </row>
     <row r="550">
-      <c r="A550" s="28"/>
+      <c r="A550" s="29"/>
       <c r="B550" s="21"/>
       <c r="C550" s="21"/>
       <c r="D550" s="21"/>
@@ -55919,7 +55934,7 @@
       <c r="AA550" s="21"/>
     </row>
     <row r="551">
-      <c r="A551" s="28"/>
+      <c r="A551" s="29"/>
       <c r="B551" s="21"/>
       <c r="C551" s="21"/>
       <c r="D551" s="21"/>
@@ -55948,7 +55963,7 @@
       <c r="AA551" s="21"/>
     </row>
     <row r="552">
-      <c r="A552" s="28"/>
+      <c r="A552" s="29"/>
       <c r="B552" s="21"/>
       <c r="C552" s="21"/>
       <c r="D552" s="21"/>
@@ -55977,7 +55992,7 @@
       <c r="AA552" s="21"/>
     </row>
     <row r="553">
-      <c r="A553" s="28"/>
+      <c r="A553" s="29"/>
       <c r="B553" s="21"/>
       <c r="C553" s="21"/>
       <c r="D553" s="21"/>
@@ -56006,7 +56021,7 @@
       <c r="AA553" s="21"/>
     </row>
     <row r="554">
-      <c r="A554" s="28"/>
+      <c r="A554" s="29"/>
       <c r="B554" s="21"/>
       <c r="C554" s="21"/>
       <c r="D554" s="21"/>
@@ -56035,7 +56050,7 @@
       <c r="AA554" s="21"/>
     </row>
     <row r="555">
-      <c r="A555" s="28"/>
+      <c r="A555" s="29"/>
       <c r="B555" s="21"/>
       <c r="C555" s="21"/>
       <c r="D555" s="21"/>
@@ -56064,7 +56079,7 @@
       <c r="AA555" s="21"/>
     </row>
     <row r="556">
-      <c r="A556" s="28"/>
+      <c r="A556" s="29"/>
       <c r="B556" s="21"/>
       <c r="C556" s="21"/>
       <c r="D556" s="21"/>
@@ -56093,7 +56108,7 @@
       <c r="AA556" s="21"/>
     </row>
     <row r="557">
-      <c r="A557" s="28"/>
+      <c r="A557" s="29"/>
       <c r="B557" s="21"/>
       <c r="C557" s="21"/>
       <c r="D557" s="21"/>
@@ -56122,7 +56137,7 @@
       <c r="AA557" s="21"/>
     </row>
     <row r="558">
-      <c r="A558" s="28"/>
+      <c r="A558" s="29"/>
       <c r="B558" s="21"/>
       <c r="C558" s="21"/>
       <c r="D558" s="21"/>
@@ -56151,7 +56166,7 @@
       <c r="AA558" s="21"/>
     </row>
     <row r="559">
-      <c r="A559" s="28"/>
+      <c r="A559" s="29"/>
       <c r="B559" s="21"/>
       <c r="C559" s="21"/>
       <c r="D559" s="21"/>
@@ -56180,7 +56195,7 @@
       <c r="AA559" s="21"/>
     </row>
     <row r="560">
-      <c r="A560" s="28"/>
+      <c r="A560" s="29"/>
       <c r="B560" s="21"/>
       <c r="C560" s="21"/>
       <c r="D560" s="21"/>
@@ -56209,7 +56224,7 @@
       <c r="AA560" s="21"/>
     </row>
     <row r="561">
-      <c r="A561" s="28"/>
+      <c r="A561" s="29"/>
       <c r="B561" s="21"/>
       <c r="C561" s="21"/>
       <c r="D561" s="21"/>
@@ -56238,7 +56253,7 @@
       <c r="AA561" s="21"/>
     </row>
     <row r="562">
-      <c r="A562" s="28"/>
+      <c r="A562" s="29"/>
       <c r="B562" s="21"/>
       <c r="C562" s="21"/>
       <c r="D562" s="21"/>
@@ -56267,7 +56282,7 @@
       <c r="AA562" s="21"/>
     </row>
     <row r="563">
-      <c r="A563" s="28"/>
+      <c r="A563" s="29"/>
       <c r="B563" s="21"/>
       <c r="C563" s="21"/>
       <c r="D563" s="21"/>
@@ -56296,7 +56311,7 @@
       <c r="AA563" s="21"/>
     </row>
     <row r="564">
-      <c r="A564" s="28"/>
+      <c r="A564" s="29"/>
       <c r="B564" s="21"/>
       <c r="C564" s="21"/>
       <c r="D564" s="21"/>
@@ -56325,7 +56340,7 @@
       <c r="AA564" s="21"/>
     </row>
     <row r="565">
-      <c r="A565" s="28"/>
+      <c r="A565" s="29"/>
       <c r="B565" s="21"/>
       <c r="C565" s="21"/>
       <c r="D565" s="21"/>
@@ -56354,7 +56369,7 @@
       <c r="AA565" s="21"/>
     </row>
     <row r="566">
-      <c r="A566" s="28"/>
+      <c r="A566" s="29"/>
       <c r="B566" s="21"/>
       <c r="C566" s="21"/>
       <c r="D566" s="21"/>
@@ -56383,7 +56398,7 @@
       <c r="AA566" s="21"/>
     </row>
     <row r="567">
-      <c r="A567" s="28"/>
+      <c r="A567" s="29"/>
       <c r="B567" s="21"/>
       <c r="C567" s="21"/>
       <c r="D567" s="21"/>
@@ -56412,7 +56427,7 @@
       <c r="AA567" s="21"/>
     </row>
     <row r="568">
-      <c r="A568" s="28"/>
+      <c r="A568" s="29"/>
       <c r="B568" s="21"/>
       <c r="C568" s="21"/>
       <c r="D568" s="21"/>
@@ -56441,7 +56456,7 @@
       <c r="AA568" s="21"/>
     </row>
     <row r="569">
-      <c r="A569" s="28"/>
+      <c r="A569" s="29"/>
       <c r="B569" s="21"/>
       <c r="C569" s="21"/>
       <c r="D569" s="21"/>
@@ -56470,7 +56485,7 @@
       <c r="AA569" s="21"/>
     </row>
     <row r="570">
-      <c r="A570" s="28"/>
+      <c r="A570" s="29"/>
       <c r="B570" s="21"/>
       <c r="C570" s="21"/>
       <c r="D570" s="21"/>
@@ -56499,7 +56514,7 @@
       <c r="AA570" s="21"/>
     </row>
     <row r="571">
-      <c r="A571" s="28"/>
+      <c r="A571" s="29"/>
       <c r="B571" s="21"/>
       <c r="C571" s="21"/>
       <c r="D571" s="21"/>
@@ -56528,7 +56543,7 @@
       <c r="AA571" s="21"/>
     </row>
     <row r="572">
-      <c r="A572" s="28"/>
+      <c r="A572" s="29"/>
       <c r="B572" s="21"/>
       <c r="C572" s="21"/>
       <c r="D572" s="21"/>
@@ -56557,7 +56572,7 @@
       <c r="AA572" s="21"/>
     </row>
     <row r="573">
-      <c r="A573" s="28"/>
+      <c r="A573" s="29"/>
       <c r="B573" s="21"/>
       <c r="C573" s="21"/>
       <c r="D573" s="21"/>
@@ -56586,7 +56601,7 @@
       <c r="AA573" s="21"/>
     </row>
     <row r="574">
-      <c r="A574" s="28"/>
+      <c r="A574" s="29"/>
       <c r="B574" s="21"/>
       <c r="C574" s="21"/>
       <c r="D574" s="21"/>
@@ -56615,7 +56630,7 @@
       <c r="AA574" s="21"/>
     </row>
     <row r="575">
-      <c r="A575" s="28"/>
+      <c r="A575" s="29"/>
       <c r="B575" s="21"/>
       <c r="C575" s="21"/>
       <c r="D575" s="21"/>
@@ -56644,7 +56659,7 @@
       <c r="AA575" s="21"/>
     </row>
     <row r="576">
-      <c r="A576" s="28"/>
+      <c r="A576" s="29"/>
       <c r="B576" s="21"/>
       <c r="C576" s="21"/>
       <c r="D576" s="21"/>
@@ -56673,7 +56688,7 @@
       <c r="AA576" s="21"/>
     </row>
     <row r="577">
-      <c r="A577" s="28"/>
+      <c r="A577" s="29"/>
       <c r="B577" s="21"/>
       <c r="C577" s="21"/>
       <c r="D577" s="21"/>
@@ -56702,7 +56717,7 @@
       <c r="AA577" s="21"/>
     </row>
     <row r="578">
-      <c r="A578" s="28"/>
+      <c r="A578" s="29"/>
       <c r="B578" s="21"/>
       <c r="C578" s="21"/>
       <c r="D578" s="21"/>
@@ -56731,7 +56746,7 @@
       <c r="AA578" s="21"/>
     </row>
     <row r="579">
-      <c r="A579" s="28"/>
+      <c r="A579" s="29"/>
       <c r="B579" s="21"/>
       <c r="C579" s="21"/>
       <c r="D579" s="21"/>
@@ -56760,7 +56775,7 @@
       <c r="AA579" s="21"/>
     </row>
     <row r="580">
-      <c r="A580" s="28"/>
+      <c r="A580" s="29"/>
       <c r="B580" s="21"/>
       <c r="C580" s="21"/>
       <c r="D580" s="21"/>
@@ -56789,7 +56804,7 @@
       <c r="AA580" s="21"/>
     </row>
     <row r="581">
-      <c r="A581" s="28"/>
+      <c r="A581" s="29"/>
       <c r="B581" s="21"/>
       <c r="C581" s="21"/>
       <c r="D581" s="21"/>
@@ -56818,7 +56833,7 @@
       <c r="AA581" s="21"/>
     </row>
     <row r="582">
-      <c r="A582" s="28"/>
+      <c r="A582" s="29"/>
       <c r="B582" s="21"/>
       <c r="C582" s="21"/>
       <c r="D582" s="21"/>
@@ -56847,7 +56862,7 @@
       <c r="AA582" s="21"/>
     </row>
     <row r="583">
-      <c r="A583" s="28"/>
+      <c r="A583" s="29"/>
       <c r="B583" s="21"/>
       <c r="C583" s="21"/>
       <c r="D583" s="21"/>
@@ -56876,7 +56891,7 @@
       <c r="AA583" s="21"/>
     </row>
     <row r="584">
-      <c r="A584" s="28"/>
+      <c r="A584" s="29"/>
       <c r="B584" s="21"/>
       <c r="C584" s="21"/>
       <c r="D584" s="21"/>
@@ -56905,7 +56920,7 @@
       <c r="AA584" s="21"/>
     </row>
     <row r="585">
-      <c r="A585" s="28"/>
+      <c r="A585" s="29"/>
       <c r="B585" s="21"/>
       <c r="C585" s="21"/>
       <c r="D585" s="21"/>
@@ -56934,7 +56949,7 @@
       <c r="AA585" s="21"/>
     </row>
     <row r="586">
-      <c r="A586" s="28"/>
+      <c r="A586" s="29"/>
       <c r="B586" s="21"/>
       <c r="C586" s="21"/>
       <c r="D586" s="21"/>
@@ -56963,7 +56978,7 @@
       <c r="AA586" s="21"/>
     </row>
     <row r="587">
-      <c r="A587" s="28"/>
+      <c r="A587" s="29"/>
       <c r="B587" s="21"/>
       <c r="C587" s="21"/>
       <c r="D587" s="21"/>
@@ -56992,7 +57007,7 @@
       <c r="AA587" s="21"/>
     </row>
     <row r="588">
-      <c r="A588" s="28"/>
+      <c r="A588" s="29"/>
       <c r="B588" s="21"/>
       <c r="C588" s="21"/>
       <c r="D588" s="21"/>
@@ -57021,7 +57036,7 @@
       <c r="AA588" s="21"/>
     </row>
     <row r="589">
-      <c r="A589" s="28"/>
+      <c r="A589" s="29"/>
       <c r="B589" s="21"/>
       <c r="C589" s="21"/>
       <c r="D589" s="21"/>
@@ -57050,7 +57065,7 @@
       <c r="AA589" s="21"/>
     </row>
     <row r="590">
-      <c r="A590" s="28"/>
+      <c r="A590" s="29"/>
       <c r="B590" s="21"/>
       <c r="C590" s="21"/>
       <c r="D590" s="21"/>
@@ -57079,7 +57094,7 @@
       <c r="AA590" s="21"/>
     </row>
     <row r="591">
-      <c r="A591" s="28"/>
+      <c r="A591" s="29"/>
       <c r="B591" s="21"/>
       <c r="C591" s="21"/>
       <c r="D591" s="21"/>
@@ -57108,7 +57123,7 @@
       <c r="AA591" s="21"/>
     </row>
     <row r="592">
-      <c r="A592" s="28"/>
+      <c r="A592" s="29"/>
       <c r="B592" s="21"/>
       <c r="C592" s="21"/>
       <c r="D592" s="21"/>
@@ -57137,7 +57152,7 @@
       <c r="AA592" s="21"/>
     </row>
     <row r="593">
-      <c r="A593" s="28"/>
+      <c r="A593" s="29"/>
       <c r="B593" s="21"/>
       <c r="C593" s="21"/>
       <c r="D593" s="21"/>
@@ -57166,7 +57181,7 @@
       <c r="AA593" s="21"/>
     </row>
     <row r="594">
-      <c r="A594" s="28"/>
+      <c r="A594" s="29"/>
       <c r="B594" s="21"/>
       <c r="C594" s="21"/>
       <c r="D594" s="21"/>
@@ -57195,7 +57210,7 @@
       <c r="AA594" s="21"/>
     </row>
     <row r="595">
-      <c r="A595" s="28"/>
+      <c r="A595" s="29"/>
       <c r="B595" s="21"/>
       <c r="C595" s="21"/>
       <c r="D595" s="21"/>
@@ -57224,7 +57239,7 @@
       <c r="AA595" s="21"/>
     </row>
     <row r="596">
-      <c r="A596" s="28"/>
+      <c r="A596" s="29"/>
       <c r="B596" s="21"/>
       <c r="C596" s="21"/>
       <c r="D596" s="21"/>
@@ -57253,7 +57268,7 @@
       <c r="AA596" s="21"/>
     </row>
     <row r="597">
-      <c r="A597" s="28"/>
+      <c r="A597" s="29"/>
       <c r="B597" s="21"/>
       <c r="C597" s="21"/>
       <c r="D597" s="21"/>
@@ -57282,7 +57297,7 @@
       <c r="AA597" s="21"/>
     </row>
     <row r="598">
-      <c r="A598" s="28"/>
+      <c r="A598" s="29"/>
       <c r="B598" s="21"/>
       <c r="C598" s="21"/>
       <c r="D598" s="21"/>
@@ -57311,7 +57326,7 @@
       <c r="AA598" s="21"/>
     </row>
     <row r="599">
-      <c r="A599" s="28"/>
+      <c r="A599" s="29"/>
       <c r="B599" s="21"/>
       <c r="C599" s="21"/>
       <c r="D599" s="21"/>
@@ -57340,7 +57355,7 @@
       <c r="AA599" s="21"/>
     </row>
     <row r="600">
-      <c r="A600" s="28"/>
+      <c r="A600" s="29"/>
       <c r="B600" s="21"/>
       <c r="C600" s="21"/>
       <c r="D600" s="21"/>
@@ -57369,7 +57384,7 @@
       <c r="AA600" s="21"/>
     </row>
     <row r="601">
-      <c r="A601" s="28"/>
+      <c r="A601" s="29"/>
       <c r="B601" s="21"/>
       <c r="C601" s="21"/>
       <c r="D601" s="21"/>
@@ -57398,7 +57413,7 @@
       <c r="AA601" s="21"/>
     </row>
     <row r="602">
-      <c r="A602" s="28"/>
+      <c r="A602" s="29"/>
       <c r="B602" s="21"/>
       <c r="C602" s="21"/>
       <c r="D602" s="21"/>
@@ -57427,7 +57442,7 @@
       <c r="AA602" s="21"/>
     </row>
     <row r="603">
-      <c r="A603" s="28"/>
+      <c r="A603" s="29"/>
       <c r="B603" s="21"/>
       <c r="C603" s="21"/>
       <c r="D603" s="21"/>
@@ -57456,7 +57471,7 @@
       <c r="AA603" s="21"/>
     </row>
     <row r="604">
-      <c r="A604" s="28"/>
+      <c r="A604" s="29"/>
       <c r="B604" s="21"/>
       <c r="C604" s="21"/>
       <c r="D604" s="21"/>
@@ -57485,7 +57500,7 @@
       <c r="AA604" s="21"/>
     </row>
     <row r="605">
-      <c r="A605" s="28"/>
+      <c r="A605" s="29"/>
       <c r="B605" s="21"/>
       <c r="C605" s="21"/>
       <c r="D605" s="21"/>
@@ -57514,7 +57529,7 @@
       <c r="AA605" s="21"/>
     </row>
     <row r="606">
-      <c r="A606" s="28"/>
+      <c r="A606" s="29"/>
       <c r="B606" s="21"/>
       <c r="C606" s="21"/>
       <c r="D606" s="21"/>
@@ -57543,7 +57558,7 @@
       <c r="AA606" s="21"/>
     </row>
     <row r="607">
-      <c r="A607" s="28"/>
+      <c r="A607" s="29"/>
       <c r="B607" s="21"/>
       <c r="C607" s="21"/>
       <c r="D607" s="21"/>
@@ -57572,7 +57587,7 @@
       <c r="AA607" s="21"/>
     </row>
     <row r="608">
-      <c r="A608" s="28"/>
+      <c r="A608" s="29"/>
       <c r="B608" s="21"/>
       <c r="C608" s="21"/>
       <c r="D608" s="21"/>
@@ -57601,7 +57616,7 @@
       <c r="AA608" s="21"/>
     </row>
     <row r="609">
-      <c r="A609" s="28"/>
+      <c r="A609" s="29"/>
       <c r="B609" s="21"/>
       <c r="C609" s="21"/>
       <c r="D609" s="21"/>
@@ -57630,7 +57645,7 @@
       <c r="AA609" s="21"/>
     </row>
     <row r="610">
-      <c r="A610" s="28"/>
+      <c r="A610" s="29"/>
       <c r="B610" s="21"/>
       <c r="C610" s="21"/>
       <c r="D610" s="21"/>
@@ -57659,7 +57674,7 @@
       <c r="AA610" s="21"/>
     </row>
     <row r="611">
-      <c r="A611" s="28"/>
+      <c r="A611" s="29"/>
       <c r="B611" s="21"/>
       <c r="C611" s="21"/>
       <c r="D611" s="21"/>
@@ -57688,7 +57703,7 @@
       <c r="AA611" s="21"/>
     </row>
     <row r="612">
-      <c r="A612" s="28"/>
+      <c r="A612" s="29"/>
       <c r="B612" s="21"/>
       <c r="C612" s="21"/>
       <c r="D612" s="21"/>
@@ -57717,7 +57732,7 @@
       <c r="AA612" s="21"/>
     </row>
     <row r="613">
-      <c r="A613" s="28"/>
+      <c r="A613" s="29"/>
       <c r="B613" s="21"/>
       <c r="C613" s="21"/>
       <c r="D613" s="21"/>
@@ -57746,7 +57761,7 @@
       <c r="AA613" s="21"/>
     </row>
     <row r="614">
-      <c r="A614" s="28"/>
+      <c r="A614" s="29"/>
       <c r="B614" s="21"/>
       <c r="C614" s="21"/>
       <c r="D614" s="21"/>
@@ -57775,7 +57790,7 @@
       <c r="AA614" s="21"/>
     </row>
     <row r="615">
-      <c r="A615" s="28"/>
+      <c r="A615" s="29"/>
       <c r="B615" s="21"/>
       <c r="C615" s="21"/>
       <c r="D615" s="21"/>
@@ -57804,7 +57819,7 @@
       <c r="AA615" s="21"/>
     </row>
     <row r="616">
-      <c r="A616" s="28"/>
+      <c r="A616" s="29"/>
       <c r="B616" s="21"/>
       <c r="C616" s="21"/>
       <c r="D616" s="21"/>
@@ -57833,7 +57848,7 @@
       <c r="AA616" s="21"/>
     </row>
     <row r="617">
-      <c r="A617" s="28"/>
+      <c r="A617" s="29"/>
       <c r="B617" s="21"/>
       <c r="C617" s="21"/>
       <c r="D617" s="21"/>
@@ -57862,7 +57877,7 @@
       <c r="AA617" s="21"/>
     </row>
     <row r="618">
-      <c r="A618" s="28"/>
+      <c r="A618" s="29"/>
       <c r="B618" s="21"/>
       <c r="C618" s="21"/>
       <c r="D618" s="21"/>
@@ -57891,7 +57906,7 @@
       <c r="AA618" s="21"/>
     </row>
     <row r="619">
-      <c r="A619" s="28"/>
+      <c r="A619" s="29"/>
       <c r="B619" s="21"/>
       <c r="C619" s="21"/>
       <c r="D619" s="21"/>
@@ -57920,7 +57935,7 @@
       <c r="AA619" s="21"/>
     </row>
     <row r="620">
-      <c r="A620" s="28"/>
+      <c r="A620" s="29"/>
       <c r="B620" s="21"/>
       <c r="C620" s="21"/>
       <c r="D620" s="21"/>
@@ -57949,7 +57964,7 @@
       <c r="AA620" s="21"/>
     </row>
     <row r="621">
-      <c r="A621" s="28"/>
+      <c r="A621" s="29"/>
       <c r="B621" s="21"/>
       <c r="C621" s="21"/>
       <c r="D621" s="21"/>
@@ -57978,7 +57993,7 @@
       <c r="AA621" s="21"/>
     </row>
     <row r="622">
-      <c r="A622" s="28"/>
+      <c r="A622" s="29"/>
       <c r="B622" s="21"/>
       <c r="C622" s="21"/>
       <c r="D622" s="21"/>
@@ -58007,7 +58022,7 @@
       <c r="AA622" s="21"/>
     </row>
     <row r="623">
-      <c r="A623" s="28"/>
+      <c r="A623" s="29"/>
       <c r="B623" s="21"/>
       <c r="C623" s="21"/>
       <c r="D623" s="21"/>
@@ -58036,7 +58051,7 @@
       <c r="AA623" s="21"/>
     </row>
     <row r="624">
-      <c r="A624" s="28"/>
+      <c r="A624" s="29"/>
       <c r="B624" s="21"/>
       <c r="C624" s="21"/>
       <c r="D624" s="21"/>
@@ -58065,7 +58080,7 @@
       <c r="AA624" s="21"/>
     </row>
     <row r="625">
-      <c r="A625" s="28"/>
+      <c r="A625" s="29"/>
       <c r="B625" s="21"/>
       <c r="C625" s="21"/>
       <c r="D625" s="21"/>
@@ -58094,7 +58109,7 @@
       <c r="AA625" s="21"/>
     </row>
     <row r="626">
-      <c r="A626" s="28"/>
+      <c r="A626" s="29"/>
       <c r="B626" s="21"/>
       <c r="C626" s="21"/>
       <c r="D626" s="21"/>
@@ -58123,7 +58138,7 @@
       <c r="AA626" s="21"/>
     </row>
     <row r="627">
-      <c r="A627" s="28"/>
+      <c r="A627" s="29"/>
       <c r="B627" s="21"/>
       <c r="C627" s="21"/>
       <c r="D627" s="21"/>
@@ -58152,7 +58167,7 @@
       <c r="AA627" s="21"/>
     </row>
     <row r="628">
-      <c r="A628" s="28"/>
+      <c r="A628" s="29"/>
       <c r="B628" s="21"/>
       <c r="C628" s="21"/>
       <c r="D628" s="21"/>
@@ -58181,7 +58196,7 @@
       <c r="AA628" s="21"/>
     </row>
     <row r="629">
-      <c r="A629" s="28"/>
+      <c r="A629" s="29"/>
       <c r="B629" s="21"/>
       <c r="C629" s="21"/>
       <c r="D629" s="21"/>
@@ -58210,7 +58225,7 @@
       <c r="AA629" s="21"/>
     </row>
     <row r="630">
-      <c r="A630" s="28"/>
+      <c r="A630" s="29"/>
       <c r="B630" s="21"/>
       <c r="C630" s="21"/>
       <c r="D630" s="21"/>
@@ -58239,7 +58254,7 @@
       <c r="AA630" s="21"/>
     </row>
     <row r="631">
-      <c r="A631" s="28"/>
+      <c r="A631" s="29"/>
       <c r="B631" s="21"/>
       <c r="C631" s="21"/>
       <c r="D631" s="21"/>
@@ -58268,7 +58283,7 @@
       <c r="AA631" s="21"/>
     </row>
     <row r="632">
-      <c r="A632" s="28"/>
+      <c r="A632" s="29"/>
       <c r="B632" s="21"/>
       <c r="C632" s="21"/>
       <c r="D632" s="21"/>
@@ -58297,7 +58312,7 @@
       <c r="AA632" s="21"/>
     </row>
     <row r="633">
-      <c r="A633" s="28"/>
+      <c r="A633" s="29"/>
       <c r="B633" s="21"/>
       <c r="C633" s="21"/>
       <c r="D633" s="21"/>
@@ -58326,7 +58341,7 @@
       <c r="AA633" s="21"/>
     </row>
     <row r="634">
-      <c r="A634" s="28"/>
+      <c r="A634" s="29"/>
       <c r="B634" s="21"/>
       <c r="C634" s="21"/>
       <c r="D634" s="21"/>
@@ -58355,7 +58370,7 @@
       <c r="AA634" s="21"/>
     </row>
     <row r="635">
-      <c r="A635" s="28"/>
+      <c r="A635" s="29"/>
       <c r="B635" s="21"/>
       <c r="C635" s="21"/>
       <c r="D635" s="21"/>
@@ -58384,7 +58399,7 @@
       <c r="AA635" s="21"/>
     </row>
     <row r="636">
-      <c r="A636" s="28"/>
+      <c r="A636" s="29"/>
       <c r="B636" s="21"/>
       <c r="C636" s="21"/>
       <c r="D636" s="21"/>
@@ -58413,7 +58428,7 @@
       <c r="AA636" s="21"/>
     </row>
     <row r="637">
-      <c r="A637" s="28"/>
+      <c r="A637" s="29"/>
       <c r="B637" s="21"/>
       <c r="C637" s="21"/>
       <c r="D637" s="21"/>
@@ -58442,7 +58457,7 @@
       <c r="AA637" s="21"/>
     </row>
     <row r="638">
-      <c r="A638" s="28"/>
+      <c r="A638" s="29"/>
       <c r="B638" s="21"/>
       <c r="C638" s="21"/>
       <c r="D638" s="21"/>
@@ -58471,7 +58486,7 @@
       <c r="AA638" s="21"/>
     </row>
     <row r="639">
-      <c r="A639" s="28"/>
+      <c r="A639" s="29"/>
       <c r="B639" s="21"/>
       <c r="C639" s="21"/>
       <c r="D639" s="21"/>
@@ -58500,7 +58515,7 @@
       <c r="AA639" s="21"/>
     </row>
     <row r="640">
-      <c r="A640" s="28"/>
+      <c r="A640" s="29"/>
       <c r="B640" s="21"/>
       <c r="C640" s="21"/>
       <c r="D640" s="21"/>
@@ -58529,7 +58544,7 @@
       <c r="AA640" s="21"/>
     </row>
     <row r="641">
-      <c r="A641" s="28"/>
+      <c r="A641" s="29"/>
       <c r="B641" s="21"/>
       <c r="C641" s="21"/>
       <c r="D641" s="21"/>
@@ -58558,7 +58573,7 @@
       <c r="AA641" s="21"/>
     </row>
     <row r="642">
-      <c r="A642" s="28"/>
+      <c r="A642" s="29"/>
       <c r="B642" s="21"/>
       <c r="C642" s="21"/>
       <c r="D642" s="21"/>
@@ -58587,7 +58602,7 @@
       <c r="AA642" s="21"/>
     </row>
     <row r="643">
-      <c r="A643" s="28"/>
+      <c r="A643" s="29"/>
       <c r="B643" s="21"/>
       <c r="C643" s="21"/>
       <c r="D643" s="21"/>
@@ -58616,7 +58631,7 @@
       <c r="AA643" s="21"/>
     </row>
     <row r="644">
-      <c r="A644" s="28"/>
+      <c r="A644" s="29"/>
       <c r="B644" s="21"/>
       <c r="C644" s="21"/>
       <c r="D644" s="21"/>
@@ -58645,7 +58660,7 @@
       <c r="AA644" s="21"/>
     </row>
     <row r="645">
-      <c r="A645" s="28"/>
+      <c r="A645" s="29"/>
       <c r="B645" s="21"/>
       <c r="C645" s="21"/>
       <c r="D645" s="21"/>
@@ -58674,7 +58689,7 @@
       <c r="AA645" s="21"/>
     </row>
     <row r="646">
-      <c r="A646" s="28"/>
+      <c r="A646" s="29"/>
       <c r="B646" s="21"/>
       <c r="C646" s="21"/>
       <c r="D646" s="21"/>
@@ -58703,7 +58718,7 @@
       <c r="AA646" s="21"/>
     </row>
     <row r="647">
-      <c r="A647" s="28"/>
+      <c r="A647" s="29"/>
       <c r="B647" s="21"/>
       <c r="C647" s="21"/>
       <c r="D647" s="21"/>
@@ -58732,7 +58747,7 @@
       <c r="AA647" s="21"/>
     </row>
     <row r="648">
-      <c r="A648" s="28"/>
+      <c r="A648" s="29"/>
       <c r="B648" s="21"/>
       <c r="C648" s="21"/>
       <c r="D648" s="21"/>
@@ -58761,7 +58776,7 @@
       <c r="AA648" s="21"/>
     </row>
     <row r="649">
-      <c r="A649" s="28"/>
+      <c r="A649" s="29"/>
       <c r="B649" s="21"/>
       <c r="C649" s="21"/>
       <c r="D649" s="21"/>
@@ -58790,7 +58805,7 @@
       <c r="AA649" s="21"/>
     </row>
     <row r="650">
-      <c r="A650" s="28"/>
+      <c r="A650" s="29"/>
       <c r="B650" s="21"/>
       <c r="C650" s="21"/>
       <c r="D650" s="21"/>
@@ -58819,7 +58834,7 @@
       <c r="AA650" s="21"/>
     </row>
     <row r="651">
-      <c r="A651" s="28"/>
+      <c r="A651" s="29"/>
       <c r="B651" s="21"/>
       <c r="C651" s="21"/>
       <c r="D651" s="21"/>
@@ -58848,7 +58863,7 @@
       <c r="AA651" s="21"/>
     </row>
     <row r="652">
-      <c r="A652" s="28"/>
+      <c r="A652" s="29"/>
       <c r="B652" s="21"/>
       <c r="C652" s="21"/>
       <c r="D652" s="21"/>
@@ -58877,7 +58892,7 @@
       <c r="AA652" s="21"/>
     </row>
     <row r="653">
-      <c r="A653" s="28"/>
+      <c r="A653" s="29"/>
       <c r="B653" s="21"/>
       <c r="C653" s="21"/>
       <c r="D653" s="21"/>
@@ -58906,7 +58921,7 @@
       <c r="AA653" s="21"/>
     </row>
     <row r="654">
-      <c r="A654" s="28"/>
+      <c r="A654" s="29"/>
       <c r="B654" s="21"/>
       <c r="C654" s="21"/>
       <c r="D654" s="21"/>
@@ -58935,7 +58950,7 @@
       <c r="AA654" s="21"/>
     </row>
     <row r="655">
-      <c r="A655" s="28"/>
+      <c r="A655" s="29"/>
       <c r="B655" s="21"/>
       <c r="C655" s="21"/>
       <c r="D655" s="21"/>
@@ -58964,7 +58979,7 @@
       <c r="AA655" s="21"/>
     </row>
     <row r="656">
-      <c r="A656" s="28"/>
+      <c r="A656" s="29"/>
       <c r="B656" s="21"/>
       <c r="C656" s="21"/>
       <c r="D656" s="21"/>
@@ -58993,7 +59008,7 @@
       <c r="AA656" s="21"/>
     </row>
     <row r="657">
-      <c r="A657" s="28"/>
+      <c r="A657" s="29"/>
       <c r="B657" s="21"/>
       <c r="C657" s="21"/>
       <c r="D657" s="21"/>
@@ -59022,7 +59037,7 @@
       <c r="AA657" s="21"/>
     </row>
     <row r="658">
-      <c r="A658" s="28"/>
+      <c r="A658" s="29"/>
       <c r="B658" s="21"/>
       <c r="C658" s="21"/>
       <c r="D658" s="21"/>
@@ -59051,7 +59066,7 @@
       <c r="AA658" s="21"/>
     </row>
     <row r="659">
-      <c r="A659" s="28"/>
+      <c r="A659" s="29"/>
       <c r="B659" s="21"/>
       <c r="C659" s="21"/>
       <c r="D659" s="21"/>
@@ -59080,7 +59095,7 @@
       <c r="AA659" s="21"/>
     </row>
     <row r="660">
-      <c r="A660" s="28"/>
+      <c r="A660" s="29"/>
       <c r="B660" s="21"/>
       <c r="C660" s="21"/>
       <c r="D660" s="21"/>
@@ -59109,7 +59124,7 @@
       <c r="AA660" s="21"/>
     </row>
     <row r="661">
-      <c r="A661" s="28"/>
+      <c r="A661" s="29"/>
       <c r="B661" s="21"/>
       <c r="C661" s="21"/>
       <c r="D661" s="21"/>
@@ -59138,7 +59153,7 @@
       <c r="AA661" s="21"/>
     </row>
     <row r="662">
-      <c r="A662" s="28"/>
+      <c r="A662" s="29"/>
       <c r="B662" s="21"/>
       <c r="C662" s="21"/>
       <c r="D662" s="21"/>
@@ -59167,7 +59182,7 @@
       <c r="AA662" s="21"/>
     </row>
     <row r="663">
-      <c r="A663" s="28"/>
+      <c r="A663" s="29"/>
       <c r="B663" s="21"/>
       <c r="C663" s="21"/>
       <c r="D663" s="21"/>
@@ -59196,7 +59211,7 @@
       <c r="AA663" s="21"/>
     </row>
     <row r="664">
-      <c r="A664" s="28"/>
+      <c r="A664" s="29"/>
       <c r="B664" s="21"/>
       <c r="C664" s="21"/>
       <c r="D664" s="21"/>
@@ -59225,7 +59240,7 @@
       <c r="AA664" s="21"/>
     </row>
     <row r="665">
-      <c r="A665" s="28"/>
+      <c r="A665" s="29"/>
       <c r="B665" s="21"/>
       <c r="C665" s="21"/>
       <c r="D665" s="21"/>
@@ -59254,7 +59269,7 @@
       <c r="AA665" s="21"/>
     </row>
     <row r="666">
-      <c r="A666" s="28"/>
+      <c r="A666" s="29"/>
       <c r="B666" s="21"/>
       <c r="C666" s="21"/>
       <c r="D666" s="21"/>
@@ -59283,7 +59298,7 @@
       <c r="AA666" s="21"/>
     </row>
     <row r="667">
-      <c r="A667" s="28"/>
+      <c r="A667" s="29"/>
       <c r="B667" s="21"/>
       <c r="C667" s="21"/>
       <c r="D667" s="21"/>
@@ -59312,7 +59327,7 @@
       <c r="AA667" s="21"/>
     </row>
     <row r="668">
-      <c r="A668" s="28"/>
+      <c r="A668" s="29"/>
       <c r="B668" s="21"/>
       <c r="C668" s="21"/>
       <c r="D668" s="21"/>
@@ -59341,7 +59356,7 @@
       <c r="AA668" s="21"/>
     </row>
     <row r="669">
-      <c r="A669" s="28"/>
+      <c r="A669" s="29"/>
       <c r="B669" s="21"/>
       <c r="C669" s="21"/>
       <c r="D669" s="21"/>
@@ -59370,7 +59385,7 @@
       <c r="AA669" s="21"/>
     </row>
     <row r="670">
-      <c r="A670" s="28"/>
+      <c r="A670" s="29"/>
       <c r="B670" s="21"/>
       <c r="C670" s="21"/>
       <c r="D670" s="21"/>
@@ -59399,7 +59414,7 @@
       <c r="AA670" s="21"/>
     </row>
     <row r="671">
-      <c r="A671" s="28"/>
+      <c r="A671" s="29"/>
       <c r="B671" s="21"/>
       <c r="C671" s="21"/>
       <c r="D671" s="21"/>
@@ -59428,7 +59443,7 @@
       <c r="AA671" s="21"/>
     </row>
     <row r="672">
-      <c r="A672" s="28"/>
+      <c r="A672" s="29"/>
       <c r="B672" s="21"/>
       <c r="C672" s="21"/>
       <c r="D672" s="21"/>
@@ -59457,7 +59472,7 @@
       <c r="AA672" s="21"/>
     </row>
     <row r="673">
-      <c r="A673" s="28"/>
+      <c r="A673" s="29"/>
       <c r="B673" s="21"/>
       <c r="C673" s="21"/>
       <c r="D673" s="21"/>
@@ -59486,7 +59501,7 @@
       <c r="AA673" s="21"/>
     </row>
     <row r="674">
-      <c r="A674" s="28"/>
+      <c r="A674" s="29"/>
       <c r="B674" s="21"/>
       <c r="C674" s="21"/>
       <c r="D674" s="21"/>
@@ -59515,7 +59530,7 @@
       <c r="AA674" s="21"/>
     </row>
     <row r="675">
-      <c r="A675" s="28"/>
+      <c r="A675" s="29"/>
       <c r="B675" s="21"/>
       <c r="C675" s="21"/>
       <c r="D675" s="21"/>
@@ -59544,7 +59559,7 @@
       <c r="AA675" s="21"/>
     </row>
     <row r="676">
-      <c r="A676" s="28"/>
+      <c r="A676" s="29"/>
       <c r="B676" s="21"/>
       <c r="C676" s="21"/>
       <c r="D676" s="21"/>
@@ -59573,7 +59588,7 @@
       <c r="AA676" s="21"/>
     </row>
     <row r="677">
-      <c r="A677" s="28"/>
+      <c r="A677" s="29"/>
       <c r="B677" s="21"/>
       <c r="C677" s="21"/>
       <c r="D677" s="21"/>
@@ -59602,7 +59617,7 @@
       <c r="AA677" s="21"/>
     </row>
     <row r="678">
-      <c r="A678" s="28"/>
+      <c r="A678" s="29"/>
       <c r="B678" s="21"/>
       <c r="C678" s="21"/>
       <c r="D678" s="21"/>
@@ -59631,7 +59646,7 @@
       <c r="AA678" s="21"/>
     </row>
     <row r="679">
-      <c r="A679" s="28"/>
+      <c r="A679" s="29"/>
       <c r="B679" s="21"/>
       <c r="C679" s="21"/>
       <c r="D679" s="21"/>
@@ -59660,7 +59675,7 @@
       <c r="AA679" s="21"/>
     </row>
     <row r="680">
-      <c r="A680" s="28"/>
+      <c r="A680" s="29"/>
       <c r="B680" s="21"/>
       <c r="C680" s="21"/>
       <c r="D680" s="21"/>
@@ -59689,7 +59704,7 @@
       <c r="AA680" s="21"/>
     </row>
     <row r="681">
-      <c r="A681" s="28"/>
+      <c r="A681" s="29"/>
       <c r="B681" s="21"/>
       <c r="C681" s="21"/>
       <c r="D681" s="21"/>
@@ -59718,7 +59733,7 @@
       <c r="AA681" s="21"/>
     </row>
     <row r="682">
-      <c r="A682" s="28"/>
+      <c r="A682" s="29"/>
       <c r="B682" s="21"/>
       <c r="C682" s="21"/>
       <c r="D682" s="21"/>
@@ -59747,7 +59762,7 @@
       <c r="AA682" s="21"/>
     </row>
     <row r="683">
-      <c r="A683" s="28"/>
+      <c r="A683" s="29"/>
       <c r="B683" s="21"/>
       <c r="C683" s="21"/>
       <c r="D683" s="21"/>
@@ -59776,7 +59791,7 @@
       <c r="AA683" s="21"/>
     </row>
     <row r="684">
-      <c r="A684" s="28"/>
+      <c r="A684" s="29"/>
       <c r="B684" s="21"/>
       <c r="C684" s="21"/>
       <c r="D684" s="21"/>
@@ -59805,7 +59820,7 @@
       <c r="AA684" s="21"/>
     </row>
     <row r="685">
-      <c r="A685" s="28"/>
+      <c r="A685" s="29"/>
       <c r="B685" s="21"/>
       <c r="C685" s="21"/>
       <c r="D685" s="21"/>
@@ -59834,7 +59849,7 @@
       <c r="AA685" s="21"/>
     </row>
     <row r="686">
-      <c r="A686" s="28"/>
+      <c r="A686" s="29"/>
       <c r="B686" s="21"/>
       <c r="C686" s="21"/>
       <c r="D686" s="21"/>
@@ -59863,7 +59878,7 @@
       <c r="AA686" s="21"/>
     </row>
     <row r="687">
-      <c r="A687" s="28"/>
+      <c r="A687" s="29"/>
       <c r="B687" s="21"/>
       <c r="C687" s="21"/>
       <c r="D687" s="21"/>
@@ -59892,7 +59907,7 @@
       <c r="AA687" s="21"/>
     </row>
     <row r="688">
-      <c r="A688" s="28"/>
+      <c r="A688" s="29"/>
       <c r="B688" s="21"/>
       <c r="C688" s="21"/>
       <c r="D688" s="21"/>
@@ -59921,7 +59936,7 @@
       <c r="AA688" s="21"/>
     </row>
     <row r="689">
-      <c r="A689" s="28"/>
+      <c r="A689" s="29"/>
       <c r="B689" s="21"/>
       <c r="C689" s="21"/>
       <c r="D689" s="21"/>
@@ -59950,7 +59965,7 @@
       <c r="AA689" s="21"/>
     </row>
     <row r="690">
-      <c r="A690" s="28"/>
+      <c r="A690" s="29"/>
       <c r="B690" s="21"/>
       <c r="C690" s="21"/>
       <c r="D690" s="21"/>
@@ -59979,7 +59994,7 @@
       <c r="AA690" s="21"/>
     </row>
     <row r="691">
-      <c r="A691" s="28"/>
+      <c r="A691" s="29"/>
       <c r="B691" s="21"/>
       <c r="C691" s="21"/>
       <c r="D691" s="21"/>
@@ -60008,7 +60023,7 @@
       <c r="AA691" s="21"/>
     </row>
     <row r="692">
-      <c r="A692" s="28"/>
+      <c r="A692" s="29"/>
       <c r="B692" s="21"/>
       <c r="C692" s="21"/>
       <c r="D692" s="21"/>
@@ -60037,7 +60052,7 @@
       <c r="AA692" s="21"/>
     </row>
     <row r="693">
-      <c r="A693" s="28"/>
+      <c r="A693" s="29"/>
       <c r="B693" s="21"/>
       <c r="C693" s="21"/>
       <c r="D693" s="21"/>
@@ -60066,7 +60081,7 @@
       <c r="AA693" s="21"/>
     </row>
     <row r="694">
-      <c r="A694" s="28"/>
+      <c r="A694" s="29"/>
       <c r="B694" s="21"/>
       <c r="C694" s="21"/>
       <c r="D694" s="21"/>
@@ -60095,7 +60110,7 @@
       <c r="AA694" s="21"/>
     </row>
     <row r="695">
-      <c r="A695" s="28"/>
+      <c r="A695" s="29"/>
       <c r="B695" s="21"/>
       <c r="C695" s="21"/>
       <c r="D695" s="21"/>
@@ -60124,7 +60139,7 @@
       <c r="AA695" s="21"/>
     </row>
     <row r="696">
-      <c r="A696" s="28"/>
+      <c r="A696" s="29"/>
       <c r="B696" s="21"/>
       <c r="C696" s="21"/>
       <c r="D696" s="21"/>
@@ -60153,7 +60168,7 @@
       <c r="AA696" s="21"/>
     </row>
     <row r="697">
-      <c r="A697" s="28"/>
+      <c r="A697" s="29"/>
       <c r="B697" s="21"/>
       <c r="C697" s="21"/>
       <c r="D697" s="21"/>
@@ -60182,7 +60197,7 @@
       <c r="AA697" s="21"/>
     </row>
     <row r="698">
-      <c r="A698" s="28"/>
+      <c r="A698" s="29"/>
       <c r="B698" s="21"/>
       <c r="C698" s="21"/>
       <c r="D698" s="21"/>
@@ -60211,7 +60226,7 @@
       <c r="AA698" s="21"/>
     </row>
     <row r="699">
-      <c r="A699" s="28"/>
+      <c r="A699" s="29"/>
       <c r="B699" s="21"/>
       <c r="C699" s="21"/>
       <c r="D699" s="21"/>
@@ -60240,7 +60255,7 @@
       <c r="AA699" s="21"/>
     </row>
     <row r="700">
-      <c r="A700" s="28"/>
+      <c r="A700" s="29"/>
       <c r="B700" s="21"/>
       <c r="C700" s="21"/>
       <c r="D700" s="21"/>
@@ -60269,7 +60284,7 @@
       <c r="AA700" s="21"/>
     </row>
     <row r="701">
-      <c r="A701" s="28"/>
+      <c r="A701" s="29"/>
       <c r="B701" s="21"/>
       <c r="C701" s="21"/>
       <c r="D701" s="21"/>
@@ -60298,7 +60313,7 @@
       <c r="AA701" s="21"/>
     </row>
     <row r="702">
-      <c r="A702" s="28"/>
+      <c r="A702" s="29"/>
       <c r="B702" s="21"/>
       <c r="C702" s="21"/>
       <c r="D702" s="21"/>
@@ -60327,7 +60342,7 @@
       <c r="AA702" s="21"/>
     </row>
     <row r="703">
-      <c r="A703" s="28"/>
+      <c r="A703" s="29"/>
       <c r="B703" s="21"/>
       <c r="C703" s="21"/>
       <c r="D703" s="21"/>
@@ -60356,7 +60371,7 @@
       <c r="AA703" s="21"/>
     </row>
     <row r="704">
-      <c r="A704" s="28"/>
+      <c r="A704" s="29"/>
       <c r="B704" s="21"/>
       <c r="C704" s="21"/>
       <c r="D704" s="21"/>
@@ -60385,7 +60400,7 @@
       <c r="AA704" s="21"/>
     </row>
     <row r="705">
-      <c r="A705" s="28"/>
+      <c r="A705" s="29"/>
       <c r="B705" s="21"/>
       <c r="C705" s="21"/>
       <c r="D705" s="21"/>
@@ -60414,7 +60429,7 @@
       <c r="AA705" s="21"/>
     </row>
     <row r="706">
-      <c r="A706" s="28"/>
+      <c r="A706" s="29"/>
       <c r="B706" s="21"/>
       <c r="C706" s="21"/>
       <c r="D706" s="21"/>
@@ -60443,7 +60458,7 @@
       <c r="AA706" s="21"/>
     </row>
     <row r="707">
-      <c r="A707" s="28"/>
+      <c r="A707" s="29"/>
       <c r="B707" s="21"/>
       <c r="C707" s="21"/>
       <c r="D707" s="21"/>
@@ -60472,7 +60487,7 @@
       <c r="AA707" s="21"/>
     </row>
     <row r="708">
-      <c r="A708" s="28"/>
+      <c r="A708" s="29"/>
       <c r="B708" s="21"/>
       <c r="C708" s="21"/>
       <c r="D708" s="21"/>
@@ -60501,7 +60516,7 @@
       <c r="AA708" s="21"/>
     </row>
     <row r="709">
-      <c r="A709" s="28"/>
+      <c r="A709" s="29"/>
       <c r="B709" s="21"/>
       <c r="C709" s="21"/>
       <c r="D709" s="21"/>
@@ -60530,7 +60545,7 @@
       <c r="AA709" s="21"/>
     </row>
     <row r="710">
-      <c r="A710" s="28"/>
+      <c r="A710" s="29"/>
       <c r="B710" s="21"/>
       <c r="C710" s="21"/>
       <c r="D710" s="21"/>
@@ -60559,7 +60574,7 @@
       <c r="AA710" s="21"/>
     </row>
     <row r="711">
-      <c r="A711" s="28"/>
+      <c r="A711" s="29"/>
       <c r="B711" s="21"/>
       <c r="C711" s="21"/>
       <c r="D711" s="21"/>
@@ -60588,7 +60603,7 @@
       <c r="AA711" s="21"/>
     </row>
     <row r="712">
-      <c r="A712" s="28"/>
+      <c r="A712" s="29"/>
       <c r="B712" s="21"/>
       <c r="C712" s="21"/>
       <c r="D712" s="21"/>
@@ -60617,7 +60632,7 @@
       <c r="AA712" s="21"/>
     </row>
     <row r="713">
-      <c r="A713" s="28"/>
+      <c r="A713" s="29"/>
       <c r="B713" s="21"/>
       <c r="C713" s="21"/>
       <c r="D713" s="21"/>
@@ -60646,7 +60661,7 @@
       <c r="AA713" s="21"/>
     </row>
     <row r="714">
-      <c r="A714" s="28"/>
+      <c r="A714" s="29"/>
       <c r="B714" s="21"/>
       <c r="C714" s="21"/>
       <c r="D714" s="21"/>
@@ -60675,7 +60690,7 @@
       <c r="AA714" s="21"/>
     </row>
     <row r="715">
-      <c r="A715" s="28"/>
+      <c r="A715" s="29"/>
       <c r="B715" s="21"/>
       <c r="C715" s="21"/>
       <c r="D715" s="21"/>
@@ -60704,7 +60719,7 @@
       <c r="AA715" s="21"/>
     </row>
     <row r="716">
-      <c r="A716" s="28"/>
+      <c r="A716" s="29"/>
       <c r="B716" s="21"/>
       <c r="C716" s="21"/>
       <c r="D716" s="21"/>
@@ -60733,7 +60748,7 @@
       <c r="AA716" s="21"/>
     </row>
     <row r="717">
-      <c r="A717" s="28"/>
+      <c r="A717" s="29"/>
       <c r="B717" s="21"/>
       <c r="C717" s="21"/>
       <c r="D717" s="21"/>
@@ -60762,7 +60777,7 @@
       <c r="AA717" s="21"/>
     </row>
     <row r="718">
-      <c r="A718" s="28"/>
+      <c r="A718" s="29"/>
       <c r="B718" s="21"/>
       <c r="C718" s="21"/>
       <c r="D718" s="21"/>
@@ -60791,7 +60806,7 @@
       <c r="AA718" s="21"/>
     </row>
     <row r="719">
-      <c r="A719" s="28"/>
+      <c r="A719" s="29"/>
       <c r="B719" s="21"/>
       <c r="C719" s="21"/>
       <c r="D719" s="21"/>
@@ -60820,7 +60835,7 @@
       <c r="AA719" s="21"/>
     </row>
     <row r="720">
-      <c r="A720" s="28"/>
+      <c r="A720" s="29"/>
       <c r="B720" s="21"/>
       <c r="C720" s="21"/>
       <c r="D720" s="21"/>
@@ -60849,7 +60864,7 @@
       <c r="AA720" s="21"/>
     </row>
     <row r="721">
-      <c r="A721" s="28"/>
+      <c r="A721" s="29"/>
       <c r="B721" s="21"/>
       <c r="C721" s="21"/>
       <c r="D721" s="21"/>
@@ -60878,7 +60893,7 @@
       <c r="AA721" s="21"/>
     </row>
     <row r="722">
-      <c r="A722" s="28"/>
+      <c r="A722" s="29"/>
       <c r="B722" s="21"/>
       <c r="C722" s="21"/>
       <c r="D722" s="21"/>
@@ -60907,7 +60922,7 @@
       <c r="AA722" s="21"/>
     </row>
     <row r="723">
-      <c r="A723" s="28"/>
+      <c r="A723" s="29"/>
       <c r="B723" s="21"/>
       <c r="C723" s="21"/>
       <c r="D723" s="21"/>
@@ -60936,7 +60951,7 @@
       <c r="AA723" s="21"/>
     </row>
     <row r="724">
-      <c r="A724" s="28"/>
+      <c r="A724" s="29"/>
       <c r="B724" s="21"/>
       <c r="C724" s="21"/>
       <c r="D724" s="21"/>
@@ -60965,7 +60980,7 @@
       <c r="AA724" s="21"/>
     </row>
     <row r="725">
-      <c r="A725" s="28"/>
+      <c r="A725" s="29"/>
       <c r="B725" s="21"/>
       <c r="C725" s="21"/>
       <c r="D725" s="21"/>
@@ -60994,7 +61009,7 @@
       <c r="AA725" s="21"/>
     </row>
     <row r="726">
-      <c r="A726" s="28"/>
+      <c r="A726" s="29"/>
       <c r="B726" s="21"/>
       <c r="C726" s="21"/>
       <c r="D726" s="21"/>
@@ -61023,7 +61038,7 @@
       <c r="AA726" s="21"/>
     </row>
     <row r="727">
-      <c r="A727" s="28"/>
+      <c r="A727" s="29"/>
       <c r="B727" s="21"/>
       <c r="C727" s="21"/>
       <c r="D727" s="21"/>
@@ -61052,7 +61067,7 @@
       <c r="AA727" s="21"/>
     </row>
     <row r="728">
-      <c r="A728" s="28"/>
+      <c r="A728" s="29"/>
       <c r="B728" s="21"/>
       <c r="C728" s="21"/>
       <c r="D728" s="21"/>
@@ -61081,7 +61096,7 @@
       <c r="AA728" s="21"/>
     </row>
     <row r="729">
-      <c r="A729" s="28"/>
+      <c r="A729" s="29"/>
       <c r="B729" s="21"/>
       <c r="C729" s="21"/>
       <c r="D729" s="21"/>
@@ -61110,7 +61125,7 @@
       <c r="AA729" s="21"/>
     </row>
     <row r="730">
-      <c r="A730" s="28"/>
+      <c r="A730" s="29"/>
       <c r="B730" s="21"/>
       <c r="C730" s="21"/>
       <c r="D730" s="21"/>
@@ -61139,7 +61154,7 @@
       <c r="AA730" s="21"/>
     </row>
     <row r="731">
-      <c r="A731" s="28"/>
+      <c r="A731" s="29"/>
       <c r="B731" s="21"/>
       <c r="C731" s="21"/>
       <c r="D731" s="21"/>
@@ -61168,7 +61183,7 @@
       <c r="AA731" s="21"/>
     </row>
     <row r="732">
-      <c r="A732" s="28"/>
+      <c r="A732" s="29"/>
       <c r="B732" s="21"/>
       <c r="C732" s="21"/>
       <c r="D732" s="21"/>
@@ -61197,7 +61212,7 @@
       <c r="AA732" s="21"/>
     </row>
     <row r="733">
-      <c r="A733" s="28"/>
+      <c r="A733" s="29"/>
       <c r="B733" s="21"/>
       <c r="C733" s="21"/>
       <c r="D733" s="21"/>
@@ -61226,7 +61241,7 @@
       <c r="AA733" s="21"/>
     </row>
     <row r="734">
-      <c r="A734" s="28"/>
+      <c r="A734" s="29"/>
       <c r="B734" s="21"/>
       <c r="C734" s="21"/>
       <c r="D734" s="21"/>
@@ -61255,7 +61270,7 @@
       <c r="AA734" s="21"/>
     </row>
     <row r="735">
-      <c r="A735" s="28"/>
+      <c r="A735" s="29"/>
       <c r="B735" s="21"/>
       <c r="C735" s="21"/>
       <c r="D735" s="21"/>
@@ -61284,7 +61299,7 @@
       <c r="AA735" s="21"/>
     </row>
     <row r="736">
-      <c r="A736" s="28"/>
+      <c r="A736" s="29"/>
       <c r="B736" s="21"/>
       <c r="C736" s="21"/>
       <c r="D736" s="21"/>
@@ -61313,7 +61328,7 @@
       <c r="AA736" s="21"/>
     </row>
     <row r="737">
-      <c r="A737" s="28"/>
+      <c r="A737" s="29"/>
       <c r="B737" s="21"/>
       <c r="C737" s="21"/>
       <c r="D737" s="21"/>
@@ -61342,7 +61357,7 @@
       <c r="AA737" s="21"/>
     </row>
     <row r="738">
-      <c r="A738" s="28"/>
+      <c r="A738" s="29"/>
       <c r="B738" s="21"/>
       <c r="C738" s="21"/>
       <c r="D738" s="21"/>
@@ -61371,7 +61386,7 @@
       <c r="AA738" s="21"/>
     </row>
     <row r="739">
-      <c r="A739" s="28"/>
+      <c r="A739" s="29"/>
       <c r="B739" s="21"/>
       <c r="C739" s="21"/>
       <c r="D739" s="21"/>
@@ -61400,7 +61415,7 @@
       <c r="AA739" s="21"/>
     </row>
     <row r="740">
-      <c r="A740" s="28"/>
+      <c r="A740" s="29"/>
       <c r="B740" s="21"/>
       <c r="C740" s="21"/>
       <c r="D740" s="21"/>
@@ -61429,7 +61444,7 @@
       <c r="AA740" s="21"/>
     </row>
     <row r="741">
-      <c r="A741" s="28"/>
+      <c r="A741" s="29"/>
       <c r="B741" s="21"/>
       <c r="C741" s="21"/>
       <c r="D741" s="21"/>
@@ -61458,7 +61473,7 @@
       <c r="AA741" s="21"/>
     </row>
     <row r="742">
-      <c r="A742" s="28"/>
+      <c r="A742" s="29"/>
       <c r="B742" s="21"/>
       <c r="C742" s="21"/>
       <c r="D742" s="21"/>
@@ -61487,7 +61502,7 @@
       <c r="AA742" s="21"/>
     </row>
     <row r="743">
-      <c r="A743" s="28"/>
+      <c r="A743" s="29"/>
       <c r="B743" s="21"/>
       <c r="C743" s="21"/>
       <c r="D743" s="21"/>
@@ -61516,7 +61531,7 @@
       <c r="AA743" s="21"/>
     </row>
     <row r="744">
-      <c r="A744" s="28"/>
+      <c r="A744" s="29"/>
       <c r="B744" s="21"/>
       <c r="C744" s="21"/>
       <c r="D744" s="21"/>
@@ -61545,7 +61560,7 @@
       <c r="AA744" s="21"/>
     </row>
     <row r="745">
-      <c r="A745" s="28"/>
+      <c r="A745" s="29"/>
       <c r="B745" s="21"/>
       <c r="C745" s="21"/>
       <c r="D745" s="21"/>
@@ -61574,7 +61589,7 @@
       <c r="AA745" s="21"/>
     </row>
     <row r="746">
-      <c r="A746" s="28"/>
+      <c r="A746" s="29"/>
       <c r="B746" s="21"/>
       <c r="C746" s="21"/>
       <c r="D746" s="21"/>
@@ -61603,7 +61618,7 @@
       <c r="AA746" s="21"/>
     </row>
     <row r="747">
-      <c r="A747" s="28"/>
+      <c r="A747" s="29"/>
       <c r="B747" s="21"/>
       <c r="C747" s="21"/>
       <c r="D747" s="21"/>
@@ -61632,7 +61647,7 @@
       <c r="AA747" s="21"/>
     </row>
     <row r="748">
-      <c r="A748" s="28"/>
+      <c r="A748" s="29"/>
       <c r="B748" s="21"/>
       <c r="C748" s="21"/>
       <c r="D748" s="21"/>
@@ -61661,7 +61676,7 @@
       <c r="AA748" s="21"/>
     </row>
     <row r="749">
-      <c r="A749" s="28"/>
+      <c r="A749" s="29"/>
       <c r="B749" s="21"/>
       <c r="C749" s="21"/>
       <c r="D749" s="21"/>
@@ -61690,7 +61705,7 @@
       <c r="AA749" s="21"/>
     </row>
     <row r="750">
-      <c r="A750" s="28"/>
+      <c r="A750" s="29"/>
       <c r="B750" s="21"/>
       <c r="C750" s="21"/>
       <c r="D750" s="21"/>
@@ -61719,7 +61734,7 @@
       <c r="AA750" s="21"/>
     </row>
     <row r="751">
-      <c r="A751" s="28"/>
+      <c r="A751" s="29"/>
       <c r="B751" s="21"/>
       <c r="C751" s="21"/>
       <c r="D751" s="21"/>
@@ -61748,7 +61763,7 @@
       <c r="AA751" s="21"/>
     </row>
     <row r="752">
-      <c r="A752" s="28"/>
+      <c r="A752" s="29"/>
       <c r="B752" s="21"/>
       <c r="C752" s="21"/>
       <c r="D752" s="21"/>
@@ -61777,7 +61792,7 @@
       <c r="AA752" s="21"/>
     </row>
     <row r="753">
-      <c r="A753" s="28"/>
+      <c r="A753" s="29"/>
       <c r="B753" s="21"/>
       <c r="C753" s="21"/>
       <c r="D753" s="21"/>
@@ -61806,7 +61821,7 @@
       <c r="AA753" s="21"/>
     </row>
     <row r="754">
-      <c r="A754" s="28"/>
+      <c r="A754" s="29"/>
       <c r="B754" s="21"/>
       <c r="C754" s="21"/>
       <c r="D754" s="21"/>
@@ -61835,7 +61850,7 @@
       <c r="AA754" s="21"/>
     </row>
     <row r="755">
-      <c r="A755" s="28"/>
+      <c r="A755" s="29"/>
       <c r="B755" s="21"/>
       <c r="C755" s="21"/>
       <c r="D755" s="21"/>
@@ -61864,7 +61879,7 @@
       <c r="AA755" s="21"/>
     </row>
     <row r="756">
-      <c r="A756" s="28"/>
+      <c r="A756" s="29"/>
       <c r="B756" s="21"/>
       <c r="C756" s="21"/>
       <c r="D756" s="21"/>
@@ -61893,7 +61908,7 @@
       <c r="AA756" s="21"/>
     </row>
     <row r="757">
-      <c r="A757" s="28"/>
+      <c r="A757" s="29"/>
       <c r="B757" s="21"/>
       <c r="C757" s="21"/>
       <c r="D757" s="21"/>
@@ -61922,7 +61937,7 @@
       <c r="AA757" s="21"/>
     </row>
     <row r="758">
-      <c r="A758" s="28"/>
+      <c r="A758" s="29"/>
       <c r="B758" s="21"/>
       <c r="C758" s="21"/>
       <c r="D758" s="21"/>
@@ -61951,7 +61966,7 @@
       <c r="AA758" s="21"/>
     </row>
     <row r="759">
-      <c r="A759" s="28"/>
+      <c r="A759" s="29"/>
       <c r="B759" s="21"/>
       <c r="C759" s="21"/>
       <c r="D759" s="21"/>
@@ -61980,7 +61995,7 @@
       <c r="AA759" s="21"/>
     </row>
     <row r="760">
-      <c r="A760" s="28"/>
+      <c r="A760" s="29"/>
       <c r="B760" s="21"/>
       <c r="C760" s="21"/>
       <c r="D760" s="21"/>
@@ -62009,7 +62024,7 @@
       <c r="AA760" s="21"/>
     </row>
     <row r="761">
-      <c r="A761" s="28"/>
+      <c r="A761" s="29"/>
       <c r="B761" s="21"/>
       <c r="C761" s="21"/>
       <c r="D761" s="21"/>
@@ -62038,7 +62053,7 @@
       <c r="AA761" s="21"/>
     </row>
     <row r="762">
-      <c r="A762" s="28"/>
+      <c r="A762" s="29"/>
       <c r="B762" s="21"/>
       <c r="C762" s="21"/>
       <c r="D762" s="21"/>
@@ -62067,7 +62082,7 @@
       <c r="AA762" s="21"/>
     </row>
     <row r="763">
-      <c r="A763" s="28"/>
+      <c r="A763" s="29"/>
       <c r="B763" s="21"/>
       <c r="C763" s="21"/>
       <c r="D763" s="21"/>
@@ -62096,7 +62111,7 @@
       <c r="AA763" s="21"/>
     </row>
     <row r="764">
-      <c r="A764" s="28"/>
+      <c r="A764" s="29"/>
       <c r="B764" s="21"/>
       <c r="C764" s="21"/>
       <c r="D764" s="21"/>
@@ -62125,7 +62140,7 @@
       <c r="AA764" s="21"/>
     </row>
     <row r="765">
-      <c r="A765" s="28"/>
+      <c r="A765" s="29"/>
       <c r="B765" s="21"/>
       <c r="C765" s="21"/>
       <c r="D765" s="21"/>
@@ -62154,7 +62169,7 @@
       <c r="AA765" s="21"/>
     </row>
     <row r="766">
-      <c r="A766" s="28"/>
+      <c r="A766" s="29"/>
       <c r="B766" s="21"/>
       <c r="C766" s="21"/>
       <c r="D766" s="21"/>
@@ -62183,7 +62198,7 @@
       <c r="AA766" s="21"/>
     </row>
     <row r="767">
-      <c r="A767" s="28"/>
+      <c r="A767" s="29"/>
       <c r="B767" s="21"/>
       <c r="C767" s="21"/>
       <c r="D767" s="21"/>
@@ -62212,7 +62227,7 @@
       <c r="AA767" s="21"/>
     </row>
     <row r="768">
-      <c r="A768" s="28"/>
+      <c r="A768" s="29"/>
       <c r="B768" s="21"/>
       <c r="C768" s="21"/>
       <c r="D768" s="21"/>
@@ -62241,7 +62256,7 @@
       <c r="AA768" s="21"/>
     </row>
     <row r="769">
-      <c r="A769" s="28"/>
+      <c r="A769" s="29"/>
       <c r="B769" s="21"/>
       <c r="C769" s="21"/>
       <c r="D769" s="21"/>
@@ -62270,7 +62285,7 @@
       <c r="AA769" s="21"/>
     </row>
     <row r="770">
-      <c r="A770" s="28"/>
+      <c r="A770" s="29"/>
       <c r="B770" s="21"/>
       <c r="C770" s="21"/>
       <c r="D770" s="21"/>
@@ -62299,7 +62314,7 @@
       <c r="AA770" s="21"/>
     </row>
     <row r="771">
-      <c r="A771" s="28"/>
+      <c r="A771" s="29"/>
       <c r="B771" s="21"/>
       <c r="C771" s="21"/>
       <c r="D771" s="21"/>
@@ -62328,7 +62343,7 @@
       <c r="AA771" s="21"/>
     </row>
     <row r="772">
-      <c r="A772" s="28"/>
+      <c r="A772" s="29"/>
       <c r="B772" s="21"/>
       <c r="C772" s="21"/>
       <c r="D772" s="21"/>
@@ -62357,7 +62372,7 @@
       <c r="AA772" s="21"/>
     </row>
     <row r="773">
-      <c r="A773" s="28"/>
+      <c r="A773" s="29"/>
       <c r="B773" s="21"/>
       <c r="C773" s="21"/>
       <c r="D773" s="21"/>
@@ -62386,7 +62401,7 @@
       <c r="AA773" s="21"/>
     </row>
     <row r="774">
-      <c r="A774" s="28"/>
+      <c r="A774" s="29"/>
       <c r="B774" s="21"/>
       <c r="C774" s="21"/>
       <c r="D774" s="21"/>
@@ -62415,7 +62430,7 @@
       <c r="AA774" s="21"/>
     </row>
     <row r="775">
-      <c r="A775" s="28"/>
+      <c r="A775" s="29"/>
       <c r="B775" s="21"/>
       <c r="C775" s="21"/>
       <c r="D775" s="21"/>
@@ -62444,7 +62459,7 @@
       <c r="AA775" s="21"/>
     </row>
     <row r="776">
-      <c r="A776" s="28"/>
+      <c r="A776" s="29"/>
       <c r="B776" s="21"/>
       <c r="C776" s="21"/>
       <c r="D776" s="21"/>
@@ -62473,7 +62488,7 @@
       <c r="AA776" s="21"/>
     </row>
     <row r="777">
-      <c r="A777" s="28"/>
+      <c r="A777" s="29"/>
       <c r="B777" s="21"/>
       <c r="C777" s="21"/>
       <c r="D777" s="21"/>
@@ -62502,7 +62517,7 @@
       <c r="AA777" s="21"/>
     </row>
     <row r="778">
-      <c r="A778" s="28"/>
+      <c r="A778" s="29"/>
       <c r="B778" s="21"/>
       <c r="C778" s="21"/>
       <c r="D778" s="21"/>
@@ -62531,7 +62546,7 @@
       <c r="AA778" s="21"/>
     </row>
     <row r="779">
-      <c r="A779" s="28"/>
+      <c r="A779" s="29"/>
       <c r="B779" s="21"/>
       <c r="C779" s="21"/>
       <c r="D779" s="21"/>
@@ -62560,7 +62575,7 @@
       <c r="AA779" s="21"/>
     </row>
     <row r="780">
-      <c r="A780" s="28"/>
+      <c r="A780" s="29"/>
       <c r="B780" s="21"/>
       <c r="C780" s="21"/>
       <c r="D780" s="21"/>
@@ -62589,7 +62604,7 @@
       <c r="AA780" s="21"/>
     </row>
     <row r="781">
-      <c r="A781" s="28"/>
+      <c r="A781" s="29"/>
       <c r="B781" s="21"/>
       <c r="C781" s="21"/>
       <c r="D781" s="21"/>
@@ -62618,7 +62633,7 @@
       <c r="AA781" s="21"/>
     </row>
     <row r="782">
-      <c r="A782" s="28"/>
+      <c r="A782" s="29"/>
       <c r="B782" s="21"/>
       <c r="C782" s="21"/>
       <c r="D782" s="21"/>
@@ -62647,7 +62662,7 @@
       <c r="AA782" s="21"/>
     </row>
     <row r="783">
-      <c r="A783" s="28"/>
+      <c r="A783" s="29"/>
       <c r="B783" s="21"/>
       <c r="C783" s="21"/>
       <c r="D783" s="21"/>
@@ -62676,7 +62691,7 @@
       <c r="AA783" s="21"/>
     </row>
     <row r="784">
-      <c r="A784" s="28"/>
+      <c r="A784" s="29"/>
       <c r="B784" s="21"/>
       <c r="C784" s="21"/>
       <c r="D784" s="21"/>
@@ -62705,7 +62720,7 @@
       <c r="AA784" s="21"/>
     </row>
     <row r="785">
-      <c r="A785" s="28"/>
+      <c r="A785" s="29"/>
       <c r="B785" s="21"/>
       <c r="C785" s="21"/>
       <c r="D785" s="21"/>
@@ -62734,7 +62749,7 @@
       <c r="AA785" s="21"/>
     </row>
     <row r="786">
-      <c r="A786" s="28"/>
+      <c r="A786" s="29"/>
       <c r="B786" s="21"/>
       <c r="C786" s="21"/>
       <c r="D786" s="21"/>
@@ -62763,7 +62778,7 @@
       <c r="AA786" s="21"/>
     </row>
     <row r="787">
-      <c r="A787" s="28"/>
+      <c r="A787" s="29"/>
       <c r="B787" s="21"/>
       <c r="C787" s="21"/>
       <c r="D787" s="21"/>
@@ -62792,7 +62807,7 @@
       <c r="AA787" s="21"/>
     </row>
     <row r="788">
-      <c r="A788" s="28"/>
+      <c r="A788" s="29"/>
       <c r="B788" s="21"/>
       <c r="C788" s="21"/>
       <c r="D788" s="21"/>
@@ -62821,7 +62836,7 @@
       <c r="AA788" s="21"/>
     </row>
     <row r="789">
-      <c r="A789" s="28"/>
+      <c r="A789" s="29"/>
       <c r="B789" s="21"/>
       <c r="C789" s="21"/>
       <c r="D789" s="21"/>
@@ -62850,7 +62865,7 @@
       <c r="AA789" s="21"/>
     </row>
     <row r="790">
-      <c r="A790" s="28"/>
+      <c r="A790" s="29"/>
       <c r="B790" s="21"/>
       <c r="C790" s="21"/>
       <c r="D790" s="21"/>
@@ -62879,7 +62894,7 @@
       <c r="AA790" s="21"/>
     </row>
     <row r="791">
-      <c r="A791" s="28"/>
+      <c r="A791" s="29"/>
       <c r="B791" s="21"/>
       <c r="C791" s="21"/>
       <c r="D791" s="21"/>
@@ -62908,7 +62923,7 @@
       <c r="AA791" s="21"/>
     </row>
     <row r="792">
-      <c r="A792" s="28"/>
+      <c r="A792" s="29"/>
       <c r="B792" s="21"/>
       <c r="C792" s="21"/>
       <c r="D792" s="21"/>
@@ -62937,7 +62952,7 @@
       <c r="AA792" s="21"/>
     </row>
     <row r="793">
-      <c r="A793" s="28"/>
+      <c r="A793" s="29"/>
       <c r="B793" s="21"/>
       <c r="C793" s="21"/>
       <c r="D793" s="21"/>
@@ -62966,7 +62981,7 @@
       <c r="AA793" s="21"/>
     </row>
     <row r="794">
-      <c r="A794" s="28"/>
+      <c r="A794" s="29"/>
       <c r="B794" s="21"/>
       <c r="C794" s="21"/>
       <c r="D794" s="21"/>
@@ -62995,7 +63010,7 @@
       <c r="AA794" s="21"/>
     </row>
     <row r="795">
-      <c r="A795" s="28"/>
+      <c r="A795" s="29"/>
       <c r="B795" s="21"/>
       <c r="C795" s="21"/>
       <c r="D795" s="21"/>
@@ -63024,7 +63039,7 @@
       <c r="AA795" s="21"/>
     </row>
     <row r="796">
-      <c r="A796" s="28"/>
+      <c r="A796" s="29"/>
       <c r="B796" s="21"/>
       <c r="C796" s="21"/>
       <c r="D796" s="21"/>
@@ -63053,7 +63068,7 @@
       <c r="AA796" s="21"/>
     </row>
     <row r="797">
-      <c r="A797" s="28"/>
+      <c r="A797" s="29"/>
       <c r="B797" s="21"/>
       <c r="C797" s="21"/>
       <c r="D797" s="21"/>
@@ -63082,7 +63097,7 @@
       <c r="AA797" s="21"/>
     </row>
     <row r="798">
-      <c r="A798" s="28"/>
+      <c r="A798" s="29"/>
       <c r="B798" s="21"/>
       <c r="C798" s="21"/>
       <c r="D798" s="21"/>
@@ -63111,7 +63126,7 @@
       <c r="AA798" s="21"/>
     </row>
     <row r="799">
-      <c r="A799" s="28"/>
+      <c r="A799" s="29"/>
       <c r="B799" s="21"/>
       <c r="C799" s="21"/>
       <c r="D799" s="21"/>
@@ -63140,7 +63155,7 @@
       <c r="AA799" s="21"/>
     </row>
     <row r="800">
-      <c r="A800" s="28"/>
+      <c r="A800" s="29"/>
       <c r="B800" s="21"/>
       <c r="C800" s="21"/>
       <c r="D800" s="21"/>
@@ -63169,7 +63184,7 @@
       <c r="AA800" s="21"/>
     </row>
     <row r="801">
-      <c r="A801" s="28"/>
+      <c r="A801" s="29"/>
       <c r="B801" s="21"/>
       <c r="C801" s="21"/>
       <c r="D801" s="21"/>
@@ -63198,7 +63213,7 @@
       <c r="AA801" s="21"/>
     </row>
     <row r="802">
-      <c r="A802" s="28"/>
+      <c r="A802" s="29"/>
       <c r="B802" s="21"/>
       <c r="C802" s="21"/>
       <c r="D802" s="21"/>
@@ -63227,7 +63242,7 @@
       <c r="AA802" s="21"/>
     </row>
     <row r="803">
-      <c r="A803" s="28"/>
+      <c r="A803" s="29"/>
       <c r="B803" s="21"/>
       <c r="C803" s="21"/>
       <c r="D803" s="21"/>
@@ -63256,7 +63271,7 @@
       <c r="AA803" s="21"/>
     </row>
     <row r="804">
-      <c r="A804" s="28"/>
+      <c r="A804" s="29"/>
       <c r="B804" s="21"/>
       <c r="C804" s="21"/>
       <c r="D804" s="21"/>
@@ -63285,7 +63300,7 @@
       <c r="AA804" s="21"/>
     </row>
     <row r="805">
-      <c r="A805" s="28"/>
+      <c r="A805" s="29"/>
       <c r="B805" s="21"/>
       <c r="C805" s="21"/>
       <c r="D805" s="21"/>
@@ -63314,7 +63329,7 @@
       <c r="AA805" s="21"/>
     </row>
     <row r="806">
-      <c r="A806" s="28"/>
+      <c r="A806" s="29"/>
       <c r="B806" s="21"/>
       <c r="C806" s="21"/>
       <c r="D806" s="21"/>
@@ -63343,7 +63358,7 @@
       <c r="AA806" s="21"/>
     </row>
     <row r="807">
-      <c r="A807" s="28"/>
+      <c r="A807" s="29"/>
       <c r="B807" s="21"/>
       <c r="C807" s="21"/>
       <c r="D807" s="21"/>
@@ -63372,7 +63387,7 @@
       <c r="AA807" s="21"/>
     </row>
     <row r="808">
-      <c r="A808" s="28"/>
+      <c r="A808" s="29"/>
       <c r="B808" s="21"/>
       <c r="C808" s="21"/>
       <c r="D808" s="21"/>
@@ -63401,7 +63416,7 @@
       <c r="AA808" s="21"/>
     </row>
     <row r="809">
-      <c r="A809" s="28"/>
+      <c r="A809" s="29"/>
       <c r="B809" s="21"/>
       <c r="C809" s="21"/>
       <c r="D809" s="21"/>
@@ -63430,7 +63445,7 @@
       <c r="AA809" s="21"/>
     </row>
     <row r="810">
-      <c r="A810" s="28"/>
+      <c r="A810" s="29"/>
       <c r="B810" s="21"/>
       <c r="C810" s="21"/>
       <c r="D810" s="21"/>
@@ -63459,7 +63474,7 @@
       <c r="AA810" s="21"/>
     </row>
     <row r="811">
-      <c r="A811" s="28"/>
+      <c r="A811" s="29"/>
       <c r="B811" s="21"/>
       <c r="C811" s="21"/>
       <c r="D811" s="21"/>
@@ -63488,7 +63503,7 @@
       <c r="AA811" s="21"/>
     </row>
     <row r="812">
-      <c r="A812" s="28"/>
+      <c r="A812" s="29"/>
       <c r="B812" s="21"/>
       <c r="C812" s="21"/>
       <c r="D812" s="21"/>
@@ -63517,7 +63532,7 @@
       <c r="AA812" s="21"/>
     </row>
     <row r="813">
-      <c r="A813" s="28"/>
+      <c r="A813" s="29"/>
       <c r="B813" s="21"/>
       <c r="C813" s="21"/>
       <c r="D813" s="21"/>
@@ -63546,7 +63561,7 @@
       <c r="AA813" s="21"/>
     </row>
     <row r="814">
-      <c r="A814" s="28"/>
+      <c r="A814" s="29"/>
       <c r="B814" s="21"/>
       <c r="C814" s="21"/>
       <c r="D814" s="21"/>
@@ -63575,7 +63590,7 @@
       <c r="AA814" s="21"/>
     </row>
     <row r="815">
-      <c r="A815" s="28"/>
+      <c r="A815" s="29"/>
       <c r="B815" s="21"/>
       <c r="C815" s="21"/>
       <c r="D815" s="21"/>
@@ -63604,7 +63619,7 @@
       <c r="AA815" s="21"/>
     </row>
     <row r="816">
-      <c r="A816" s="28"/>
+      <c r="A816" s="29"/>
       <c r="B816" s="21"/>
       <c r="C816" s="21"/>
       <c r="D816" s="21"/>
@@ -63633,7 +63648,7 @@
       <c r="AA816" s="21"/>
     </row>
     <row r="817">
-      <c r="A817" s="28"/>
+      <c r="A817" s="29"/>
       <c r="B817" s="21"/>
       <c r="C817" s="21"/>
       <c r="D817" s="21"/>
@@ -63662,7 +63677,7 @@
       <c r="AA817" s="21"/>
     </row>
     <row r="818">
-      <c r="A818" s="28"/>
+      <c r="A818" s="29"/>
       <c r="B818" s="21"/>
       <c r="C818" s="21"/>
       <c r="D818" s="21"/>
@@ -63691,7 +63706,7 @@
       <c r="AA818" s="21"/>
     </row>
     <row r="819">
-      <c r="A819" s="28"/>
+      <c r="A819" s="29"/>
       <c r="B819" s="21"/>
       <c r="C819" s="21"/>
       <c r="D819" s="21"/>
@@ -63720,7 +63735,7 @@
       <c r="AA819" s="21"/>
     </row>
     <row r="820">
-      <c r="A820" s="28"/>
+      <c r="A820" s="29"/>
       <c r="B820" s="21"/>
       <c r="C820" s="21"/>
       <c r="D820" s="21"/>
@@ -63749,7 +63764,7 @@
       <c r="AA820" s="21"/>
     </row>
     <row r="821">
-      <c r="A821" s="28"/>
+      <c r="A821" s="29"/>
       <c r="B821" s="21"/>
       <c r="C821" s="21"/>
       <c r="D821" s="21"/>
@@ -63778,7 +63793,7 @@
       <c r="AA821" s="21"/>
     </row>
     <row r="822">
-      <c r="A822" s="28"/>
+      <c r="A822" s="29"/>
       <c r="B822" s="21"/>
       <c r="C822" s="21"/>
       <c r="D822" s="21"/>
@@ -63807,7 +63822,7 @@
       <c r="AA822" s="21"/>
     </row>
     <row r="823">
-      <c r="A823" s="28"/>
+      <c r="A823" s="29"/>
       <c r="B823" s="21"/>
       <c r="C823" s="21"/>
       <c r="D823" s="21"/>
@@ -63836,7 +63851,7 @@
       <c r="AA823" s="21"/>
     </row>
     <row r="824">
-      <c r="A824" s="28"/>
+      <c r="A824" s="29"/>
       <c r="B824" s="21"/>
       <c r="C824" s="21"/>
       <c r="D824" s="21"/>
@@ -63865,7 +63880,7 @@
       <c r="AA824" s="21"/>
     </row>
     <row r="825">
-      <c r="A825" s="28"/>
+      <c r="A825" s="29"/>
       <c r="B825" s="21"/>
       <c r="C825" s="21"/>
       <c r="D825" s="21"/>
@@ -63894,7 +63909,7 @@
       <c r="AA825" s="21"/>
     </row>
     <row r="826">
-      <c r="A826" s="28"/>
+      <c r="A826" s="29"/>
       <c r="B826" s="21"/>
       <c r="C826" s="21"/>
       <c r="D826" s="21"/>
@@ -63923,7 +63938,7 @@
       <c r="AA826" s="21"/>
     </row>
     <row r="827">
-      <c r="A827" s="28"/>
+      <c r="A827" s="29"/>
       <c r="B827" s="21"/>
       <c r="C827" s="21"/>
       <c r="D827" s="21"/>
@@ -63952,7 +63967,7 @@
       <c r="AA827" s="21"/>
     </row>
     <row r="828">
-      <c r="A828" s="28"/>
+      <c r="A828" s="29"/>
       <c r="B828" s="21"/>
       <c r="C828" s="21"/>
       <c r="D828" s="21"/>
@@ -63981,7 +63996,7 @@
       <c r="AA828" s="21"/>
     </row>
     <row r="829">
-      <c r="A829" s="28"/>
+      <c r="A829" s="29"/>
       <c r="B829" s="21"/>
       <c r="C829" s="21"/>
       <c r="D829" s="21"/>
@@ -64010,7 +64025,7 @@
       <c r="AA829" s="21"/>
     </row>
     <row r="830">
-      <c r="A830" s="28"/>
+      <c r="A830" s="29"/>
       <c r="B830" s="21"/>
       <c r="C830" s="21"/>
       <c r="D830" s="21"/>
@@ -64039,7 +64054,7 @@
       <c r="AA830" s="21"/>
     </row>
     <row r="831">
-      <c r="A831" s="28"/>
+      <c r="A831" s="29"/>
       <c r="B831" s="21"/>
       <c r="C831" s="21"/>
       <c r="D831" s="21"/>
@@ -64068,7 +64083,7 @@
       <c r="AA831" s="21"/>
     </row>
     <row r="832">
-      <c r="A832" s="28"/>
+      <c r="A832" s="29"/>
       <c r="B832" s="21"/>
       <c r="C832" s="21"/>
       <c r="D832" s="21"/>
@@ -64097,7 +64112,7 @@
       <c r="AA832" s="21"/>
     </row>
     <row r="833">
-      <c r="A833" s="28"/>
+      <c r="A833" s="29"/>
       <c r="B833" s="21"/>
       <c r="C833" s="21"/>
       <c r="D833" s="21"/>
@@ -64126,7 +64141,7 @@
       <c r="AA833" s="21"/>
     </row>
     <row r="834">
-      <c r="A834" s="28"/>
+      <c r="A834" s="29"/>
       <c r="B834" s="21"/>
       <c r="C834" s="21"/>
       <c r="D834" s="21"/>
@@ -64155,7 +64170,7 @@
       <c r="AA834" s="21"/>
     </row>
     <row r="835">
-      <c r="A835" s="28"/>
+      <c r="A835" s="29"/>
       <c r="B835" s="21"/>
       <c r="C835" s="21"/>
       <c r="D835" s="21"/>
@@ -64184,7 +64199,7 @@
       <c r="AA835" s="21"/>
     </row>
     <row r="836">
-      <c r="A836" s="28"/>
+      <c r="A836" s="29"/>
       <c r="B836" s="21"/>
       <c r="C836" s="21"/>
       <c r="D836" s="21"/>
@@ -64213,7 +64228,7 @@
       <c r="AA836" s="21"/>
     </row>
     <row r="837">
-      <c r="A837" s="28"/>
+      <c r="A837" s="29"/>
       <c r="B837" s="21"/>
       <c r="C837" s="21"/>
       <c r="D837" s="21"/>
@@ -64242,7 +64257,7 @@
       <c r="AA837" s="21"/>
     </row>
     <row r="838">
-      <c r="A838" s="28"/>
+      <c r="A838" s="29"/>
       <c r="B838" s="21"/>
       <c r="C838" s="21"/>
       <c r="D838" s="21"/>
@@ -64271,7 +64286,7 @@
       <c r="AA838" s="21"/>
     </row>
     <row r="839">
-      <c r="A839" s="28"/>
+      <c r="A839" s="29"/>
       <c r="B839" s="21"/>
       <c r="C839" s="21"/>
       <c r="D839" s="21"/>
@@ -64300,7 +64315,7 @@
       <c r="AA839" s="21"/>
     </row>
     <row r="840">
-      <c r="A840" s="28"/>
+      <c r="A840" s="29"/>
       <c r="B840" s="21"/>
       <c r="C840" s="21"/>
       <c r="D840" s="21"/>
@@ -64329,7 +64344,7 @@
       <c r="AA840" s="21"/>
     </row>
     <row r="841">
-      <c r="A841" s="28"/>
+      <c r="A841" s="29"/>
       <c r="B841" s="21"/>
       <c r="C841" s="21"/>
       <c r="D841" s="21"/>
@@ -64358,7 +64373,7 @@
       <c r="AA841" s="21"/>
     </row>
     <row r="842">
-      <c r="A842" s="28"/>
+      <c r="A842" s="29"/>
       <c r="B842" s="21"/>
       <c r="C842" s="21"/>
       <c r="D842" s="21"/>
@@ -64387,7 +64402,7 @@
       <c r="AA842" s="21"/>
     </row>
     <row r="843">
-      <c r="A843" s="28"/>
+      <c r="A843" s="29"/>
       <c r="B843" s="21"/>
       <c r="C843" s="21"/>
       <c r="D843" s="21"/>
@@ -64416,7 +64431,7 @@
       <c r="AA843" s="21"/>
     </row>
     <row r="844">
-      <c r="A844" s="28"/>
+      <c r="A844" s="29"/>
       <c r="B844" s="21"/>
       <c r="C844" s="21"/>
       <c r="D844" s="21"/>
@@ -64445,7 +64460,7 @@
       <c r="AA844" s="21"/>
     </row>
     <row r="845">
-      <c r="A845" s="28"/>
+      <c r="A845" s="29"/>
       <c r="B845" s="21"/>
       <c r="C845" s="21"/>
       <c r="D845" s="21"/>
@@ -64474,7 +64489,7 @@
       <c r="AA845" s="21"/>
     </row>
     <row r="846">
-      <c r="A846" s="28"/>
+      <c r="A846" s="29"/>
       <c r="B846" s="21"/>
       <c r="C846" s="21"/>
       <c r="D846" s="21"/>
@@ -64503,7 +64518,7 @@
       <c r="AA846" s="21"/>
     </row>
     <row r="847">
-      <c r="A847" s="28"/>
+      <c r="A847" s="29"/>
       <c r="B847" s="21"/>
       <c r="C847" s="21"/>
       <c r="D847" s="21"/>
@@ -64532,7 +64547,7 @@
       <c r="AA847" s="21"/>
     </row>
     <row r="848">
-      <c r="A848" s="28"/>
+      <c r="A848" s="29"/>
       <c r="B848" s="21"/>
       <c r="C848" s="21"/>
       <c r="D848" s="21"/>
@@ -64561,7 +64576,7 @@
       <c r="AA848" s="21"/>
     </row>
     <row r="849">
-      <c r="A849" s="28"/>
+      <c r="A849" s="29"/>
       <c r="B849" s="21"/>
       <c r="C849" s="21"/>
       <c r="D849" s="21"/>
@@ -64590,7 +64605,7 @@
       <c r="AA849" s="21"/>
     </row>
     <row r="850">
-      <c r="A850" s="28"/>
+      <c r="A850" s="29"/>
       <c r="B850" s="21"/>
       <c r="C850" s="21"/>
       <c r="D850" s="21"/>
@@ -64619,7 +64634,7 @@
       <c r="AA850" s="21"/>
     </row>
     <row r="851">
-      <c r="A851" s="28"/>
+      <c r="A851" s="29"/>
       <c r="B851" s="21"/>
       <c r="C851" s="21"/>
       <c r="D851" s="21"/>
@@ -64648,7 +64663,7 @@
       <c r="AA851" s="21"/>
     </row>
     <row r="852">
-      <c r="A852" s="28"/>
+      <c r="A852" s="29"/>
       <c r="B852" s="21"/>
       <c r="C852" s="21"/>
       <c r="D852" s="21"/>
@@ -64677,7 +64692,7 @@
       <c r="AA852" s="21"/>
     </row>
     <row r="853">
-      <c r="A853" s="28"/>
+      <c r="A853" s="29"/>
       <c r="B853" s="21"/>
       <c r="C853" s="21"/>
       <c r="D853" s="21"/>
@@ -64706,7 +64721,7 @@
       <c r="AA853" s="21"/>
     </row>
     <row r="854">
-      <c r="A854" s="28"/>
+      <c r="A854" s="29"/>
       <c r="B854" s="21"/>
       <c r="C854" s="21"/>
       <c r="D854" s="21"/>
@@ -64735,7 +64750,7 @@
       <c r="AA854" s="21"/>
     </row>
     <row r="855">
-      <c r="A855" s="28"/>
+      <c r="A855" s="29"/>
       <c r="B855" s="21"/>
       <c r="C855" s="21"/>
       <c r="D855" s="21"/>
@@ -64764,7 +64779,7 @@
       <c r="AA855" s="21"/>
     </row>
     <row r="856">
-      <c r="A856" s="28"/>
+      <c r="A856" s="29"/>
       <c r="B856" s="21"/>
       <c r="C856" s="21"/>
       <c r="D856" s="21"/>
@@ -64793,7 +64808,7 @@
       <c r="AA856" s="21"/>
     </row>
     <row r="857">
-      <c r="A857" s="28"/>
+      <c r="A857" s="29"/>
       <c r="B857" s="21"/>
       <c r="C857" s="21"/>
       <c r="D857" s="21"/>
@@ -64822,7 +64837,7 @@
       <c r="AA857" s="21"/>
     </row>
     <row r="858">
-      <c r="A858" s="28"/>
+      <c r="A858" s="29"/>
       <c r="B858" s="21"/>
       <c r="C858" s="21"/>
       <c r="D858" s="21"/>
@@ -64851,7 +64866,7 @@
       <c r="AA858" s="21"/>
     </row>
     <row r="859">
-      <c r="A859" s="28"/>
+      <c r="A859" s="29"/>
       <c r="B859" s="21"/>
       <c r="C859" s="21"/>
       <c r="D859" s="21"/>
@@ -64880,7 +64895,7 @@
       <c r="AA859" s="21"/>
     </row>
     <row r="860">
-      <c r="A860" s="28"/>
+      <c r="A860" s="29"/>
       <c r="B860" s="21"/>
       <c r="C860" s="21"/>
       <c r="D860" s="21"/>
@@ -64909,7 +64924,7 @@
       <c r="AA860" s="21"/>
     </row>
     <row r="861">
-      <c r="A861" s="28"/>
+      <c r="A861" s="29"/>
       <c r="B861" s="21"/>
       <c r="C861" s="21"/>
       <c r="D861" s="21"/>
@@ -64938,7 +64953,7 @@
       <c r="AA861" s="21"/>
     </row>
     <row r="862">
-      <c r="A862" s="28"/>
+      <c r="A862" s="29"/>
       <c r="B862" s="21"/>
       <c r="C862" s="21"/>
       <c r="D862" s="21"/>
@@ -64967,7 +64982,7 @@
       <c r="AA862" s="21"/>
     </row>
     <row r="863">
-      <c r="A863" s="28"/>
+      <c r="A863" s="29"/>
       <c r="B863" s="21"/>
       <c r="C863" s="21"/>
       <c r="D863" s="21"/>
@@ -64996,7 +65011,7 @@
       <c r="AA863" s="21"/>
     </row>
     <row r="864">
-      <c r="A864" s="28"/>
+      <c r="A864" s="29"/>
       <c r="B864" s="21"/>
       <c r="C864" s="21"/>
       <c r="D864" s="21"/>
@@ -65025,7 +65040,7 @@
       <c r="AA864" s="21"/>
     </row>
     <row r="865">
-      <c r="A865" s="28"/>
+      <c r="A865" s="29"/>
       <c r="B865" s="21"/>
       <c r="C865" s="21"/>
       <c r="D865" s="21"/>
@@ -65054,7 +65069,7 @@
       <c r="AA865" s="21"/>
     </row>
     <row r="866">
-      <c r="A866" s="28"/>
+      <c r="A866" s="29"/>
       <c r="B866" s="21"/>
       <c r="C866" s="21"/>
       <c r="D866" s="21"/>
@@ -65083,7 +65098,7 @@
       <c r="AA866" s="21"/>
     </row>
     <row r="867">
-      <c r="A867" s="28"/>
+      <c r="A867" s="29"/>
       <c r="B867" s="21"/>
       <c r="C867" s="21"/>
       <c r="D867" s="21"/>
@@ -65112,7 +65127,7 @@
       <c r="AA867" s="21"/>
     </row>
     <row r="868">
-      <c r="A868" s="28"/>
+      <c r="A868" s="29"/>
       <c r="B868" s="21"/>
       <c r="C868" s="21"/>
       <c r="D868" s="21"/>
@@ -65141,7 +65156,7 @@
       <c r="AA868" s="21"/>
     </row>
     <row r="869">
-      <c r="A869" s="28"/>
+      <c r="A869" s="29"/>
       <c r="B869" s="21"/>
       <c r="C869" s="21"/>
       <c r="D869" s="21"/>
@@ -65170,7 +65185,7 @@
       <c r="AA869" s="21"/>
     </row>
     <row r="870">
-      <c r="A870" s="28"/>
+      <c r="A870" s="29"/>
       <c r="B870" s="21"/>
       <c r="C870" s="21"/>
       <c r="D870" s="21"/>
@@ -65199,7 +65214,7 @@
       <c r="AA870" s="21"/>
     </row>
     <row r="871">
-      <c r="A871" s="28"/>
+      <c r="A871" s="29"/>
       <c r="B871" s="21"/>
       <c r="C871" s="21"/>
       <c r="D871" s="21"/>
@@ -65228,7 +65243,7 @@
       <c r="AA871" s="21"/>
     </row>
     <row r="872">
-      <c r="A872" s="28"/>
+      <c r="A872" s="29"/>
       <c r="B872" s="21"/>
       <c r="C872" s="21"/>
       <c r="D872" s="21"/>
@@ -65257,7 +65272,7 @@
       <c r="AA872" s="21"/>
     </row>
     <row r="873">
-      <c r="A873" s="28"/>
+      <c r="A873" s="29"/>
       <c r="B873" s="21"/>
       <c r="C873" s="21"/>
       <c r="D873" s="21"/>
@@ -65286,7 +65301,7 @@
       <c r="AA873" s="21"/>
     </row>
     <row r="874">
-      <c r="A874" s="28"/>
+      <c r="A874" s="29"/>
       <c r="B874" s="21"/>
       <c r="C874" s="21"/>
       <c r="D874" s="21"/>
@@ -65315,7 +65330,7 @@
       <c r="AA874" s="21"/>
     </row>
     <row r="875">
-      <c r="A875" s="28"/>
+      <c r="A875" s="29"/>
       <c r="B875" s="21"/>
       <c r="C875" s="21"/>
       <c r="D875" s="21"/>
@@ -65344,7 +65359,7 @@
       <c r="AA875" s="21"/>
     </row>
     <row r="876">
-      <c r="A876" s="28"/>
+      <c r="A876" s="29"/>
       <c r="B876" s="21"/>
       <c r="C876" s="21"/>
       <c r="D876" s="21"/>
@@ -65373,7 +65388,7 @@
       <c r="AA876" s="21"/>
     </row>
     <row r="877">
-      <c r="A877" s="28"/>
+      <c r="A877" s="29"/>
       <c r="B877" s="21"/>
       <c r="C877" s="21"/>
       <c r="D877" s="21"/>
@@ -65402,7 +65417,7 @@
       <c r="AA877" s="21"/>
     </row>
     <row r="878">
-      <c r="A878" s="28"/>
+      <c r="A878" s="29"/>
       <c r="B878" s="21"/>
       <c r="C878" s="21"/>
       <c r="D878" s="21"/>
@@ -65431,7 +65446,7 @@
       <c r="AA878" s="21"/>
     </row>
     <row r="879">
-      <c r="A879" s="28"/>
+      <c r="A879" s="29"/>
       <c r="B879" s="21"/>
       <c r="C879" s="21"/>
       <c r="D879" s="21"/>
@@ -65460,7 +65475,7 @@
       <c r="AA879" s="21"/>
     </row>
     <row r="880">
-      <c r="A880" s="28"/>
+      <c r="A880" s="29"/>
       <c r="B880" s="21"/>
       <c r="C880" s="21"/>
       <c r="D880" s="21"/>
@@ -65489,7 +65504,7 @@
       <c r="AA880" s="21"/>
     </row>
     <row r="881">
-      <c r="A881" s="28"/>
+      <c r="A881" s="29"/>
       <c r="B881" s="21"/>
       <c r="C881" s="21"/>
       <c r="D881" s="21"/>
@@ -65518,7 +65533,7 @@
       <c r="AA881" s="21"/>
     </row>
     <row r="882">
-      <c r="A882" s="28"/>
+      <c r="A882" s="29"/>
       <c r="B882" s="21"/>
       <c r="C882" s="21"/>
       <c r="D882" s="21"/>
@@ -65547,7 +65562,7 @@
       <c r="AA882" s="21"/>
     </row>
     <row r="883">
-      <c r="A883" s="28"/>
+      <c r="A883" s="29"/>
       <c r="B883" s="21"/>
       <c r="C883" s="21"/>
       <c r="D883" s="21"/>
@@ -65576,7 +65591,7 @@
       <c r="AA883" s="21"/>
     </row>
     <row r="884">
-      <c r="A884" s="28"/>
+      <c r="A884" s="29"/>
       <c r="B884" s="21"/>
       <c r="C884" s="21"/>
       <c r="D884" s="21"/>
@@ -65605,7 +65620,7 @@
       <c r="AA884" s="21"/>
     </row>
     <row r="885">
-      <c r="A885" s="28"/>
+      <c r="A885" s="29"/>
       <c r="B885" s="21"/>
       <c r="C885" s="21"/>
       <c r="D885" s="21"/>
@@ -65634,7 +65649,7 @@
       <c r="AA885" s="21"/>
     </row>
     <row r="886">
-      <c r="A886" s="28"/>
+      <c r="A886" s="29"/>
       <c r="B886" s="21"/>
       <c r="C886" s="21"/>
       <c r="D886" s="21"/>
@@ -65663,7 +65678,7 @@
       <c r="AA886" s="21"/>
     </row>
     <row r="887">
-      <c r="A887" s="28"/>
+      <c r="A887" s="29"/>
       <c r="B887" s="21"/>
       <c r="C887" s="21"/>
       <c r="D887" s="21"/>
@@ -65692,7 +65707,7 @@
       <c r="AA887" s="21"/>
     </row>
     <row r="888">
-      <c r="A888" s="28"/>
+      <c r="A888" s="29"/>
       <c r="B888" s="21"/>
       <c r="C888" s="21"/>
       <c r="D888" s="21"/>
@@ -65721,7 +65736,7 @@
       <c r="AA888" s="21"/>
     </row>
     <row r="889">
-      <c r="A889" s="28"/>
+      <c r="A889" s="29"/>
       <c r="B889" s="21"/>
       <c r="C889" s="21"/>
       <c r="D889" s="21"/>
@@ -65750,7 +65765,7 @@
       <c r="AA889" s="21"/>
     </row>
     <row r="890">
-      <c r="A890" s="28"/>
+      <c r="A890" s="29"/>
       <c r="B890" s="21"/>
       <c r="C890" s="21"/>
       <c r="D890" s="21"/>
@@ -65779,7 +65794,7 @@
       <c r="AA890" s="21"/>
     </row>
     <row r="891">
-      <c r="A891" s="28"/>
+      <c r="A891" s="29"/>
       <c r="B891" s="21"/>
       <c r="C891" s="21"/>
       <c r="D891" s="21"/>
@@ -65808,7 +65823,7 @@
       <c r="AA891" s="21"/>
     </row>
     <row r="892">
-      <c r="A892" s="28"/>
+      <c r="A892" s="29"/>
       <c r="B892" s="21"/>
       <c r="C892" s="21"/>
       <c r="D892" s="21"/>
@@ -65837,7 +65852,7 @@
       <c r="AA892" s="21"/>
     </row>
     <row r="893">
-      <c r="A893" s="28"/>
+      <c r="A893" s="29"/>
       <c r="B893" s="21"/>
       <c r="C893" s="21"/>
       <c r="D893" s="21"/>
@@ -65866,7 +65881,7 @@
       <c r="AA893" s="21"/>
     </row>
     <row r="894">
-      <c r="A894" s="28"/>
+      <c r="A894" s="29"/>
       <c r="B894" s="21"/>
       <c r="C894" s="21"/>
       <c r="D894" s="21"/>
@@ -65895,7 +65910,7 @@
       <c r="AA894" s="21"/>
     </row>
     <row r="895">
-      <c r="A895" s="28"/>
+      <c r="A895" s="29"/>
       <c r="B895" s="21"/>
       <c r="C895" s="21"/>
       <c r="D895" s="21"/>
@@ -65924,7 +65939,7 @@
       <c r="AA895" s="21"/>
     </row>
     <row r="896">
-      <c r="A896" s="28"/>
+      <c r="A896" s="29"/>
       <c r="B896" s="21"/>
       <c r="C896" s="21"/>
       <c r="D896" s="21"/>
@@ -65953,7 +65968,7 @@
       <c r="AA896" s="21"/>
     </row>
     <row r="897">
-      <c r="A897" s="28"/>
+      <c r="A897" s="29"/>
       <c r="B897" s="21"/>
       <c r="C897" s="21"/>
       <c r="D897" s="21"/>
@@ -65982,7 +65997,7 @@
       <c r="AA897" s="21"/>
     </row>
     <row r="898">
-      <c r="A898" s="28"/>
+      <c r="A898" s="29"/>
       <c r="B898" s="21"/>
       <c r="C898" s="21"/>
       <c r="D898" s="21"/>
@@ -66011,7 +66026,7 @@
       <c r="AA898" s="21"/>
     </row>
     <row r="899">
-      <c r="A899" s="28"/>
+      <c r="A899" s="29"/>
       <c r="B899" s="21"/>
       <c r="C899" s="21"/>
       <c r="D899" s="21"/>
@@ -66040,7 +66055,7 @@
       <c r="AA899" s="21"/>
     </row>
     <row r="900">
-      <c r="A900" s="28"/>
+      <c r="A900" s="29"/>
       <c r="B900" s="21"/>
       <c r="C900" s="21"/>
       <c r="D900" s="21"/>
@@ -66069,7 +66084,7 @@
       <c r="AA900" s="21"/>
     </row>
     <row r="901">
-      <c r="A901" s="28"/>
+      <c r="A901" s="29"/>
       <c r="B901" s="21"/>
       <c r="C901" s="21"/>
       <c r="D901" s="21"/>
@@ -66098,7 +66113,7 @@
       <c r="AA901" s="21"/>
     </row>
     <row r="902">
-      <c r="A902" s="28"/>
+      <c r="A902" s="29"/>
       <c r="B902" s="21"/>
       <c r="C902" s="21"/>
       <c r="D902" s="21"/>
@@ -66127,7 +66142,7 @@
       <c r="AA902" s="21"/>
     </row>
     <row r="903">
-      <c r="A903" s="28"/>
+      <c r="A903" s="29"/>
       <c r="B903" s="21"/>
       <c r="C903" s="21"/>
       <c r="D903" s="21"/>
@@ -66156,7 +66171,7 @@
       <c r="AA903" s="21"/>
     </row>
     <row r="904">
-      <c r="A904" s="28"/>
+      <c r="A904" s="29"/>
       <c r="B904" s="21"/>
       <c r="C904" s="21"/>
       <c r="D904" s="21"/>
@@ -66185,7 +66200,7 @@
       <c r="AA904" s="21"/>
     </row>
     <row r="905">
-      <c r="A905" s="28"/>
+      <c r="A905" s="29"/>
       <c r="B905" s="21"/>
       <c r="C905" s="21"/>
       <c r="D905" s="21"/>
@@ -66214,7 +66229,7 @@
       <c r="AA905" s="21"/>
     </row>
     <row r="906">
-      <c r="A906" s="28"/>
+      <c r="A906" s="29"/>
       <c r="B906" s="21"/>
       <c r="C906" s="21"/>
       <c r="D906" s="21"/>
@@ -66243,7 +66258,7 @@
       <c r="AA906" s="21"/>
     </row>
     <row r="907">
-      <c r="A907" s="28"/>
+      <c r="A907" s="29"/>
       <c r="B907" s="21"/>
       <c r="C907" s="21"/>
       <c r="D907" s="21"/>
@@ -66272,7 +66287,7 @@
       <c r="AA907" s="21"/>
     </row>
     <row r="908">
-      <c r="A908" s="28"/>
+      <c r="A908" s="29"/>
       <c r="B908" s="21"/>
       <c r="C908" s="21"/>
       <c r="D908" s="21"/>
@@ -66301,7 +66316,7 @@
       <c r="AA908" s="21"/>
     </row>
     <row r="909">
-      <c r="A909" s="28"/>
+      <c r="A909" s="29"/>
       <c r="B909" s="21"/>
       <c r="C909" s="21"/>
       <c r="D909" s="21"/>
@@ -66330,7 +66345,7 @@
       <c r="AA909" s="21"/>
     </row>
     <row r="910">
-      <c r="A910" s="28"/>
+      <c r="A910" s="29"/>
       <c r="B910" s="21"/>
       <c r="C910" s="21"/>
       <c r="D910" s="21"/>
@@ -66359,7 +66374,7 @@
       <c r="AA910" s="21"/>
     </row>
     <row r="911">
-      <c r="A911" s="28"/>
+      <c r="A911" s="29"/>
       <c r="B911" s="21"/>
       <c r="C911" s="21"/>
       <c r="D911" s="21"/>
@@ -66388,7 +66403,7 @@
       <c r="AA911" s="21"/>
     </row>
     <row r="912">
-      <c r="A912" s="28"/>
+      <c r="A912" s="29"/>
       <c r="B912" s="21"/>
       <c r="C912" s="21"/>
       <c r="D912" s="21"/>
@@ -66417,7 +66432,7 @@
       <c r="AA912" s="21"/>
     </row>
     <row r="913">
-      <c r="A913" s="28"/>
+      <c r="A913" s="29"/>
       <c r="B913" s="21"/>
       <c r="C913" s="21"/>
       <c r="D913" s="21"/>
@@ -66446,7 +66461,7 @@
       <c r="AA913" s="21"/>
     </row>
     <row r="914">
-      <c r="A914" s="28"/>
+      <c r="A914" s="29"/>
       <c r="B914" s="21"/>
       <c r="C914" s="21"/>
       <c r="D914" s="21"/>
@@ -66475,7 +66490,7 @@
       <c r="AA914" s="21"/>
     </row>
     <row r="915">
-      <c r="A915" s="28"/>
+      <c r="A915" s="29"/>
       <c r="B915" s="21"/>
       <c r="C915" s="21"/>
       <c r="D915" s="21"/>
@@ -66504,7 +66519,7 @@
       <c r="AA915" s="21"/>
     </row>
     <row r="916">
-      <c r="A916" s="28"/>
+      <c r="A916" s="29"/>
       <c r="B916" s="21"/>
       <c r="C916" s="21"/>
       <c r="D916" s="21"/>
@@ -66533,7 +66548,7 @@
       <c r="AA916" s="21"/>
     </row>
     <row r="917">
-      <c r="A917" s="28"/>
+      <c r="A917" s="29"/>
       <c r="B917" s="21"/>
       <c r="C917" s="21"/>
       <c r="D917" s="21"/>
@@ -66562,7 +66577,7 @@
       <c r="AA917" s="21"/>
     </row>
     <row r="918">
-      <c r="A918" s="28"/>
+      <c r="A918" s="29"/>
       <c r="B918" s="21"/>
       <c r="C918" s="21"/>
       <c r="D918" s="21"/>
@@ -66591,7 +66606,7 @@
       <c r="AA918" s="21"/>
     </row>
     <row r="919">
-      <c r="A919" s="28"/>
+      <c r="A919" s="29"/>
       <c r="B919" s="21"/>
       <c r="C919" s="21"/>
       <c r="D919" s="21"/>
@@ -66620,7 +66635,7 @@
       <c r="AA919" s="21"/>
     </row>
     <row r="920">
-      <c r="A920" s="28"/>
+      <c r="A920" s="29"/>
       <c r="B920" s="21"/>
       <c r="C920" s="21"/>
       <c r="D920" s="21"/>
@@ -66649,7 +66664,7 @@
       <c r="AA920" s="21"/>
     </row>
     <row r="921">
-      <c r="A921" s="28"/>
+      <c r="A921" s="29"/>
       <c r="B921" s="21"/>
       <c r="C921" s="21"/>
       <c r="D921" s="21"/>
@@ -66678,7 +66693,7 @@
       <c r="AA921" s="21"/>
     </row>
     <row r="922">
-      <c r="A922" s="28"/>
+      <c r="A922" s="29"/>
       <c r="B922" s="21"/>
       <c r="C922" s="21"/>
       <c r="D922" s="21"/>
@@ -66707,7 +66722,7 @@
       <c r="AA922" s="21"/>
     </row>
     <row r="923">
-      <c r="A923" s="28"/>
+      <c r="A923" s="29"/>
       <c r="B923" s="21"/>
       <c r="C923" s="21"/>
       <c r="D923" s="21"/>
@@ -66736,7 +66751,7 @@
       <c r="AA923" s="21"/>
     </row>
     <row r="924">
-      <c r="A924" s="28"/>
+      <c r="A924" s="29"/>
       <c r="B924" s="21"/>
       <c r="C924" s="21"/>
       <c r="D924" s="21"/>
@@ -66765,7 +66780,7 @@
       <c r="AA924" s="21"/>
     </row>
     <row r="925">
-      <c r="A925" s="28"/>
+      <c r="A925" s="29"/>
       <c r="B925" s="21"/>
       <c r="C925" s="21"/>
       <c r="D925" s="21"/>
@@ -66794,7 +66809,7 @@
       <c r="AA925" s="21"/>
     </row>
     <row r="926">
-      <c r="A926" s="28"/>
+      <c r="A926" s="29"/>
       <c r="B926" s="21"/>
       <c r="C926" s="21"/>
       <c r="D926" s="21"/>
@@ -66823,7 +66838,7 @@
       <c r="AA926" s="21"/>
     </row>
     <row r="927">
-      <c r="A927" s="28"/>
+      <c r="A927" s="29"/>
       <c r="B927" s="21"/>
       <c r="C927" s="21"/>
       <c r="D927" s="21"/>
@@ -66852,7 +66867,7 @@
       <c r="AA927" s="21"/>
     </row>
     <row r="928">
-      <c r="A928" s="28"/>
+      <c r="A928" s="29"/>
       <c r="B928" s="21"/>
       <c r="C928" s="21"/>
       <c r="D928" s="21"/>
@@ -66881,7 +66896,7 @@
       <c r="AA928" s="21"/>
     </row>
     <row r="929">
-      <c r="A929" s="28"/>
+      <c r="A929" s="29"/>
       <c r="B929" s="21"/>
       <c r="C929" s="21"/>
       <c r="D929" s="21"/>
@@ -66910,7 +66925,7 @@
       <c r="AA929" s="21"/>
     </row>
     <row r="930">
-      <c r="A930" s="28"/>
+      <c r="A930" s="29"/>
       <c r="B930" s="21"/>
       <c r="C930" s="21"/>
       <c r="D930" s="21"/>
@@ -66939,7 +66954,7 @@
       <c r="AA930" s="21"/>
     </row>
     <row r="931">
-      <c r="A931" s="28"/>
+      <c r="A931" s="29"/>
       <c r="B931" s="21"/>
       <c r="C931" s="21"/>
       <c r="D931" s="21"/>
@@ -66968,7 +66983,7 @@
       <c r="AA931" s="21"/>
     </row>
     <row r="932">
-      <c r="A932" s="28"/>
+      <c r="A932" s="29"/>
       <c r="B932" s="21"/>
       <c r="C932" s="21"/>
       <c r="D932" s="21"/>
@@ -66997,7 +67012,7 @@
       <c r="AA932" s="21"/>
     </row>
     <row r="933">
-      <c r="A933" s="28"/>
+      <c r="A933" s="29"/>
       <c r="B933" s="21"/>
       <c r="C933" s="21"/>
       <c r="D933" s="21"/>
@@ -67026,7 +67041,7 @@
       <c r="AA933" s="21"/>
     </row>
     <row r="934">
-      <c r="A934" s="28"/>
+      <c r="A934" s="29"/>
       <c r="B934" s="21"/>
       <c r="C934" s="21"/>
       <c r="D934" s="21"/>
@@ -67055,7 +67070,7 @@
       <c r="AA934" s="21"/>
     </row>
     <row r="935">
-      <c r="A935" s="28"/>
+      <c r="A935" s="29"/>
       <c r="B935" s="21"/>
       <c r="C935" s="21"/>
       <c r="D935" s="21"/>
@@ -67084,7 +67099,7 @@
       <c r="AA935" s="21"/>
     </row>
     <row r="936">
-      <c r="A936" s="28"/>
+      <c r="A936" s="29"/>
       <c r="B936" s="21"/>
       <c r="C936" s="21"/>
       <c r="D936" s="21"/>
@@ -67113,7 +67128,7 @@
       <c r="AA936" s="21"/>
     </row>
     <row r="937">
-      <c r="A937" s="28"/>
+      <c r="A937" s="29"/>
       <c r="B937" s="21"/>
       <c r="C937" s="21"/>
       <c r="D937" s="21"/>
@@ -67142,7 +67157,7 @@
       <c r="AA937" s="21"/>
     </row>
     <row r="938">
-      <c r="A938" s="28"/>
+      <c r="A938" s="29"/>
       <c r="B938" s="21"/>
       <c r="C938" s="21"/>
       <c r="D938" s="21"/>
@@ -67171,7 +67186,7 @@
       <c r="AA938" s="21"/>
     </row>
     <row r="939">
-      <c r="A939" s="28"/>
+      <c r="A939" s="29"/>
       <c r="B939" s="21"/>
       <c r="C939" s="21"/>
       <c r="D939" s="21"/>
@@ -67200,7 +67215,7 @@
       <c r="AA939" s="21"/>
     </row>
     <row r="940">
-      <c r="A940" s="28"/>
+      <c r="A940" s="29"/>
       <c r="B940" s="21"/>
       <c r="C940" s="21"/>
       <c r="D940" s="21"/>
@@ -67229,7 +67244,7 @@
       <c r="AA940" s="21"/>
     </row>
     <row r="941">
-      <c r="A941" s="28"/>
+      <c r="A941" s="29"/>
       <c r="B941" s="21"/>
       <c r="C941" s="21"/>
       <c r="D941" s="21"/>
@@ -67258,7 +67273,7 @@
       <c r="AA941" s="21"/>
     </row>
     <row r="942">
-      <c r="A942" s="28"/>
+      <c r="A942" s="29"/>
       <c r="B942" s="21"/>
       <c r="C942" s="21"/>
       <c r="D942" s="21"/>
@@ -67287,7 +67302,7 @@
       <c r="AA942" s="21"/>
     </row>
     <row r="943">
-      <c r="A943" s="28"/>
+      <c r="A943" s="29"/>
       <c r="B943" s="21"/>
       <c r="C943" s="21"/>
       <c r="D943" s="21"/>
@@ -67316,7 +67331,7 @@
       <c r="AA943" s="21"/>
     </row>
     <row r="944">
-      <c r="A944" s="28"/>
+      <c r="A944" s="29"/>
       <c r="B944" s="21"/>
       <c r="C944" s="21"/>
       <c r="D944" s="21"/>
@@ -67345,7 +67360,7 @@
       <c r="AA944" s="21"/>
     </row>
     <row r="945">
-      <c r="A945" s="28"/>
+      <c r="A945" s="29"/>
       <c r="B945" s="21"/>
       <c r="C945" s="21"/>
       <c r="D945" s="21"/>
@@ -67374,7 +67389,7 @@
       <c r="AA945" s="21"/>
     </row>
     <row r="946">
-      <c r="A946" s="28"/>
+      <c r="A946" s="29"/>
       <c r="B946" s="21"/>
       <c r="C946" s="21"/>
       <c r="D946" s="21"/>
@@ -67403,7 +67418,7 @@
       <c r="AA946" s="21"/>
     </row>
     <row r="947">
-      <c r="A947" s="28"/>
+      <c r="A947" s="29"/>
       <c r="B947" s="21"/>
       <c r="C947" s="21"/>
       <c r="D947" s="21"/>
@@ -67432,7 +67447,7 @@
       <c r="AA947" s="21"/>
     </row>
     <row r="948">
-      <c r="A948" s="28"/>
+      <c r="A948" s="29"/>
       <c r="B948" s="21"/>
       <c r="C948" s="21"/>
       <c r="D948" s="21"/>
@@ -67461,7 +67476,7 @@
       <c r="AA948" s="21"/>
     </row>
     <row r="949">
-      <c r="A949" s="28"/>
+      <c r="A949" s="29"/>
       <c r="B949" s="21"/>
       <c r="C949" s="21"/>
       <c r="D949" s="21"/>
@@ -67490,7 +67505,7 @@
       <c r="AA949" s="21"/>
     </row>
     <row r="950">
-      <c r="A950" s="28"/>
+      <c r="A950" s="29"/>
       <c r="B950" s="21"/>
       <c r="C950" s="21"/>
       <c r="D950" s="21"/>
@@ -67519,7 +67534,7 @@
       <c r="AA950" s="21"/>
     </row>
     <row r="951">
-      <c r="A951" s="28"/>
+      <c r="A951" s="29"/>
       <c r="B951" s="21"/>
       <c r="C951" s="21"/>
       <c r="D951" s="21"/>
@@ -67548,7 +67563,7 @@
       <c r="AA951" s="21"/>
     </row>
     <row r="952">
-      <c r="A952" s="28"/>
+      <c r="A952" s="29"/>
       <c r="B952" s="21"/>
       <c r="C952" s="21"/>
       <c r="D952" s="21"/>
@@ -67577,7 +67592,7 @@
       <c r="AA952" s="21"/>
     </row>
     <row r="953">
-      <c r="A953" s="28"/>
+      <c r="A953" s="29"/>
       <c r="B953" s="21"/>
       <c r="C953" s="21"/>
       <c r="D953" s="21"/>
@@ -67606,7 +67621,7 @@
       <c r="AA953" s="21"/>
     </row>
     <row r="954">
-      <c r="A954" s="28"/>
+      <c r="A954" s="29"/>
       <c r="B954" s="21"/>
       <c r="C954" s="21"/>
       <c r="D954" s="21"/>
@@ -67635,7 +67650,7 @@
       <c r="AA954" s="21"/>
     </row>
     <row r="955">
-      <c r="A955" s="28"/>
+      <c r="A955" s="29"/>
       <c r="B955" s="21"/>
       <c r="C955" s="21"/>
       <c r="D955" s="21"/>
@@ -67664,7 +67679,7 @@
       <c r="AA955" s="21"/>
     </row>
     <row r="956">
-      <c r="A956" s="28"/>
+      <c r="A956" s="29"/>
       <c r="B956" s="21"/>
       <c r="C956" s="21"/>
       <c r="D956" s="21"/>
@@ -67693,7 +67708,7 @@
       <c r="AA956" s="21"/>
     </row>
     <row r="957">
-      <c r="A957" s="28"/>
+      <c r="A957" s="29"/>
       <c r="B957" s="21"/>
       <c r="C957" s="21"/>
       <c r="D957" s="21"/>
@@ -67722,7 +67737,7 @@
       <c r="AA957" s="21"/>
     </row>
     <row r="958">
-      <c r="A958" s="28"/>
+      <c r="A958" s="29"/>
       <c r="B958" s="21"/>
       <c r="C958" s="21"/>
       <c r="D958" s="21"/>
@@ -67751,7 +67766,7 @@
       <c r="AA958" s="21"/>
     </row>
     <row r="959">
-      <c r="A959" s="28"/>
+      <c r="A959" s="29"/>
       <c r="B959" s="21"/>
       <c r="C959" s="21"/>
       <c r="D959" s="21"/>
@@ -67780,7 +67795,7 @@
       <c r="AA959" s="21"/>
     </row>
     <row r="960">
-      <c r="A960" s="28"/>
+      <c r="A960" s="29"/>
       <c r="B960" s="21"/>
       <c r="C960" s="21"/>
       <c r="D960" s="21"/>
@@ -67809,7 +67824,7 @@
       <c r="AA960" s="21"/>
     </row>
     <row r="961">
-      <c r="A961" s="28"/>
+      <c r="A961" s="29"/>
       <c r="B961" s="21"/>
       <c r="C961" s="21"/>
       <c r="D961" s="21"/>
@@ -67838,7 +67853,7 @@
       <c r="AA961" s="21"/>
     </row>
     <row r="962">
-      <c r="A962" s="28"/>
+      <c r="A962" s="29"/>
       <c r="B962" s="21"/>
       <c r="C962" s="21"/>
       <c r="D962" s="21"/>
@@ -67867,7 +67882,7 @@
       <c r="AA962" s="21"/>
     </row>
     <row r="963">
-      <c r="A963" s="28"/>
+      <c r="A963" s="29"/>
       <c r="B963" s="21"/>
       <c r="C963" s="21"/>
       <c r="D963" s="21"/>
@@ -67896,7 +67911,7 @@
       <c r="AA963" s="21"/>
     </row>
     <row r="964">
-      <c r="A964" s="28"/>
+      <c r="A964" s="29"/>
       <c r="B964" s="21"/>
       <c r="C964" s="21"/>
       <c r="D964" s="21"/>
@@ -67925,7 +67940,7 @@
       <c r="AA964" s="21"/>
     </row>
     <row r="965">
-      <c r="A965" s="28"/>
+      <c r="A965" s="29"/>
       <c r="B965" s="21"/>
       <c r="C965" s="21"/>
       <c r="D965" s="21"/>
@@ -67954,7 +67969,7 @@
       <c r="AA965" s="21"/>
     </row>
     <row r="966">
-      <c r="A966" s="28"/>
+      <c r="A966" s="29"/>
       <c r="B966" s="21"/>
       <c r="C966" s="21"/>
       <c r="D966" s="21"/>
@@ -67983,7 +67998,7 @@
       <c r="AA966" s="21"/>
     </row>
     <row r="967">
-      <c r="A967" s="28"/>
+      <c r="A967" s="29"/>
       <c r="B967" s="21"/>
       <c r="C967" s="21"/>
       <c r="D967" s="21"/>
@@ -68012,7 +68027,7 @@
       <c r="AA967" s="21"/>
     </row>
     <row r="968">
-      <c r="A968" s="28"/>
+      <c r="A968" s="29"/>
       <c r="B968" s="21"/>
       <c r="C968" s="21"/>
       <c r="D968" s="21"/>
@@ -68041,7 +68056,7 @@
       <c r="AA968" s="21"/>
     </row>
     <row r="969">
-      <c r="A969" s="28"/>
+      <c r="A969" s="29"/>
       <c r="B969" s="21"/>
       <c r="C969" s="21"/>
       <c r="D969" s="21"/>
@@ -68070,7 +68085,7 @@
       <c r="AA969" s="21"/>
     </row>
     <row r="970">
-      <c r="A970" s="28"/>
+      <c r="A970" s="29"/>
       <c r="B970" s="21"/>
       <c r="C970" s="21"/>
       <c r="D970" s="21"/>
@@ -68099,7 +68114,7 @@
       <c r="AA970" s="21"/>
     </row>
     <row r="971">
-      <c r="A971" s="28"/>
+      <c r="A971" s="29"/>
       <c r="B971" s="21"/>
       <c r="C971" s="21"/>
       <c r="D971" s="21"/>
@@ -68128,7 +68143,7 @@
       <c r="AA971" s="21"/>
     </row>
     <row r="972">
-      <c r="A972" s="28"/>
+      <c r="A972" s="29"/>
       <c r="B972" s="21"/>
       <c r="C972" s="21"/>
       <c r="D972" s="21"/>
@@ -68157,7 +68172,7 @@
       <c r="AA972" s="21"/>
     </row>
     <row r="973">
-      <c r="A973" s="28"/>
+      <c r="A973" s="29"/>
       <c r="B973" s="21"/>
       <c r="C973" s="21"/>
       <c r="D973" s="21"/>
@@ -68186,7 +68201,7 @@
       <c r="AA973" s="21"/>
     </row>
     <row r="974">
-      <c r="A974" s="28"/>
+      <c r="A974" s="29"/>
       <c r="B974" s="21"/>
       <c r="C974" s="21"/>
       <c r="D974" s="21"/>
@@ -68215,7 +68230,7 @@
       <c r="AA974" s="21"/>
     </row>
     <row r="975">
-      <c r="A975" s="28"/>
+      <c r="A975" s="29"/>
       <c r="B975" s="21"/>
       <c r="C975" s="21"/>
       <c r="D975" s="21"/>
@@ -68244,7 +68259,7 @@
       <c r="AA975" s="21"/>
     </row>
     <row r="976">
-      <c r="A976" s="28"/>
+      <c r="A976" s="29"/>
       <c r="B976" s="21"/>
       <c r="C976" s="21"/>
       <c r="D976" s="21"/>
@@ -68273,7 +68288,7 @@
       <c r="AA976" s="21"/>
     </row>
     <row r="977">
-      <c r="A977" s="28"/>
+      <c r="A977" s="29"/>
       <c r="B977" s="21"/>
       <c r="C977" s="21"/>
       <c r="D977" s="21"/>
@@ -68302,7 +68317,7 @@
       <c r="AA977" s="21"/>
     </row>
     <row r="978">
-      <c r="A978" s="28"/>
+      <c r="A978" s="29"/>
       <c r="B978" s="21"/>
       <c r="C978" s="21"/>
       <c r="D978" s="21"/>
@@ -68331,7 +68346,7 @@
       <c r="AA978" s="21"/>
     </row>
     <row r="979">
-      <c r="A979" s="28"/>
+      <c r="A979" s="29"/>
       <c r="B979" s="21"/>
       <c r="C979" s="21"/>
       <c r="D979" s="21"/>
@@ -68360,7 +68375,7 @@
       <c r="AA979" s="21"/>
     </row>
     <row r="980">
-      <c r="A980" s="28"/>
+      <c r="A980" s="29"/>
       <c r="B980" s="21"/>
       <c r="C980" s="21"/>
       <c r="D980" s="21"/>
@@ -68389,7 +68404,7 @@
       <c r="AA980" s="21"/>
     </row>
     <row r="981">
-      <c r="A981" s="28"/>
+      <c r="A981" s="29"/>
       <c r="B981" s="21"/>
       <c r="C981" s="21"/>
       <c r="D981" s="21"/>
@@ -68418,7 +68433,7 @@
       <c r="AA981" s="21"/>
     </row>
     <row r="982">
-      <c r="A982" s="28"/>
+      <c r="A982" s="29"/>
       <c r="B982" s="21"/>
       <c r="C982" s="21"/>
       <c r="D982" s="21"/>
@@ -68447,7 +68462,7 @@
       <c r="AA982" s="21"/>
     </row>
     <row r="983">
-      <c r="A983" s="28"/>
+      <c r="A983" s="29"/>
       <c r="B983" s="21"/>
       <c r="C983" s="21"/>
       <c r="D983" s="21"/>
@@ -68476,7 +68491,7 @@
       <c r="AA983" s="21"/>
     </row>
     <row r="984">
-      <c r="A984" s="28"/>
+      <c r="A984" s="29"/>
       <c r="B984" s="21"/>
       <c r="C984" s="21"/>
       <c r="D984" s="21"/>
@@ -68505,7 +68520,7 @@
       <c r="AA984" s="21"/>
     </row>
     <row r="985">
-      <c r="A985" s="28"/>
+      <c r="A985" s="29"/>
       <c r="B985" s="21"/>
       <c r="C985" s="21"/>
       <c r="D985" s="21"/>
@@ -68534,7 +68549,7 @@
       <c r="AA985" s="21"/>
     </row>
     <row r="986">
-      <c r="A986" s="28"/>
+      <c r="A986" s="29"/>
       <c r="B986" s="21"/>
       <c r="C986" s="21"/>
       <c r="D986" s="21"/>
@@ -68563,7 +68578,7 @@
       <c r="AA986" s="21"/>
     </row>
     <row r="987">
-      <c r="A987" s="28"/>
+      <c r="A987" s="29"/>
       <c r="B987" s="21"/>
       <c r="C987" s="21"/>
       <c r="D987" s="21"/>
@@ -68592,7 +68607,7 @@
       <c r="AA987" s="21"/>
     </row>
     <row r="988">
-      <c r="A988" s="28"/>
+      <c r="A988" s="29"/>
       <c r="B988" s="21"/>
       <c r="C988" s="21"/>
       <c r="D988" s="21"/>
@@ -68621,7 +68636,7 @@
       <c r="AA988" s="21"/>
     </row>
     <row r="989">
-      <c r="A989" s="28"/>
+      <c r="A989" s="29"/>
       <c r="B989" s="21"/>
       <c r="C989" s="21"/>
       <c r="D989" s="21"/>
@@ -68650,7 +68665,7 @@
       <c r="AA989" s="21"/>
     </row>
     <row r="990">
-      <c r="A990" s="28"/>
+      <c r="A990" s="29"/>
       <c r="B990" s="21"/>
       <c r="C990" s="21"/>
       <c r="D990" s="21"/>
@@ -68679,7 +68694,7 @@
       <c r="AA990" s="21"/>
     </row>
     <row r="991">
-      <c r="A991" s="28"/>
+      <c r="A991" s="29"/>
       <c r="B991" s="21"/>
       <c r="C991" s="21"/>
       <c r="D991" s="21"/>
@@ -68708,7 +68723,7 @@
       <c r="AA991" s="21"/>
     </row>
     <row r="992">
-      <c r="A992" s="28"/>
+      <c r="A992" s="29"/>
       <c r="B992" s="21"/>
       <c r="C992" s="21"/>
       <c r="D992" s="21"/>
@@ -68737,7 +68752,7 @@
       <c r="AA992" s="21"/>
     </row>
     <row r="993">
-      <c r="A993" s="28"/>
+      <c r="A993" s="29"/>
       <c r="B993" s="21"/>
       <c r="C993" s="21"/>
       <c r="D993" s="21"/>
@@ -68766,7 +68781,7 @@
       <c r="AA993" s="21"/>
     </row>
     <row r="994">
-      <c r="A994" s="28"/>
+      <c r="A994" s="29"/>
       <c r="B994" s="21"/>
       <c r="C994" s="21"/>
       <c r="D994" s="21"/>
@@ -68795,7 +68810,7 @@
       <c r="AA994" s="21"/>
     </row>
     <row r="995">
-      <c r="A995" s="28"/>
+      <c r="A995" s="29"/>
       <c r="B995" s="21"/>
       <c r="C995" s="21"/>
       <c r="D995" s="21"/>
@@ -68824,7 +68839,7 @@
       <c r="AA995" s="21"/>
     </row>
     <row r="996">
-      <c r="A996" s="28"/>
+      <c r="A996" s="29"/>
       <c r="B996" s="21"/>
       <c r="C996" s="21"/>
       <c r="D996" s="21"/>
@@ -68853,7 +68868,7 @@
       <c r="AA996" s="21"/>
     </row>
     <row r="997">
-      <c r="A997" s="28"/>
+      <c r="A997" s="29"/>
       <c r="B997" s="21"/>
       <c r="C997" s="21"/>
       <c r="D997" s="21"/>
@@ -68882,7 +68897,7 @@
       <c r="AA997" s="21"/>
     </row>
     <row r="998">
-      <c r="A998" s="28"/>
+      <c r="A998" s="29"/>
       <c r="B998" s="21"/>
       <c r="C998" s="21"/>
       <c r="D998" s="21"/>
@@ -68911,7 +68926,7 @@
       <c r="AA998" s="21"/>
     </row>
     <row r="999">
-      <c r="A999" s="28"/>
+      <c r="A999" s="29"/>
       <c r="B999" s="21"/>
       <c r="C999" s="21"/>
       <c r="D999" s="21"/>
@@ -68940,7 +68955,7 @@
       <c r="AA999" s="21"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="28"/>
+      <c r="A1000" s="29"/>
       <c r="B1000" s="21"/>
       <c r="C1000" s="21"/>
       <c r="D1000" s="21"/>
@@ -68987,47 +69002,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="25" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="25" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>185</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
